--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ABA292-4EA5-4D37-8C03-44F221D711B4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="作り方" sheetId="1" r:id="rId1"/>
@@ -17,12 +16,12 @@
     <sheet name="地図イメージ２" sheetId="6" r:id="rId7"/>
     <sheet name="課題" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="101">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -1144,11 +1143,51 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hole</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hole-col</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takuban</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ない　TODO　後で導入すること</t>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7 + (_gyo -2 )*3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓グループの採番</t>
+    <rPh sb="0" eb="1">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1425,14 +1464,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>109683</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>14432</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>86591</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>37524</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>193387</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>92941</xdr:rowOff>
         </xdr:to>
@@ -1441,7 +1480,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,7 +1488,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3093"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3107"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1463,8 +1502,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="571501" y="421409"/>
-              <a:ext cx="1313296" cy="3856759"/>
+              <a:off x="265546" y="432955"/>
+              <a:ext cx="1434523" cy="3989531"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1486,6 +1525,298 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>156441</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>63500</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="図 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3108"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2457450" y="5029200"/>
+              <a:ext cx="1413741" cy="3949700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>26</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>175491</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>34925</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="図 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3109"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="6438900" y="5000625"/>
+              <a:ext cx="1413741" cy="3949700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="下矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1485900" y="5172075"/>
+          <a:ext cx="552450" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>237027</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="下矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7885142" flipV="1">
+          <a:off x="3714244" y="4931233"/>
+          <a:ext cx="552450" cy="4380317"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5610225" y="5238750"/>
+          <a:ext cx="552450" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1509,7 +1840,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1914,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1987,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +2053,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +2111,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +2196,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +2254,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2339,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2094,7 +2425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2127,26 +2458,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2179,23 +2493,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2371,73 +2668,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="K4:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="K4:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="11:15" x14ac:dyDescent="0.15">
       <c r="O15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K18" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K27" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2454,16 +2756,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B223654-32E1-4C6A-A02B-93CE1C1E41C9}">
-  <dimension ref="D2:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:AL24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="18" max="21" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D2" s="30"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -2471,7 +2778,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
@@ -2482,8 +2789,32 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="34"/>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
+        <v>8</v>
+      </c>
+      <c r="AA3">
+        <v>9</v>
+      </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D4" s="33"/>
       <c r="E4" s="3">
         <v>3</v>
@@ -2494,8 +2825,38 @@
         <v>6</v>
       </c>
       <c r="I4" s="34"/>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D5" s="33"/>
       <c r="E5" s="3">
         <v>2</v>
@@ -2506,8 +2867,41 @@
         <v>7</v>
       </c>
       <c r="I5" s="34"/>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>11</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AL5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D6" s="33"/>
       <c r="E6" s="3">
         <v>1</v>
@@ -2518,8 +2912,44 @@
         <v>8</v>
       </c>
       <c r="I6" s="34"/>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>9</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>12</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>6</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D7" s="33"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -2530,16 +2960,88 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="34"/>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>12</v>
+      </c>
+      <c r="T7">
+        <v>11</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>16</v>
+      </c>
+      <c r="Y7">
+        <v>15</v>
+      </c>
+      <c r="Z7">
+        <v>14</v>
+      </c>
+      <c r="AA7">
+        <v>13</v>
+      </c>
+      <c r="AD7">
+        <v>8</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
+      </c>
+      <c r="AI7">
+        <v>12</v>
+      </c>
+      <c r="AJ7">
+        <v>11</v>
+      </c>
+      <c r="AK7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D8" s="33"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="34"/>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>11</v>
+      </c>
+      <c r="W8">
+        <v>14</v>
+      </c>
+      <c r="AC8">
+        <v>7</v>
+      </c>
+      <c r="AH8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D9" s="33"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
@@ -2551,7 +3053,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D10" s="33"/>
       <c r="E10" s="3">
         <v>3</v>
@@ -2562,8 +3064,11 @@
         <v>6</v>
       </c>
       <c r="I10" s="34"/>
+      <c r="AC10" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D11" s="33"/>
       <c r="E11" s="3">
         <v>2</v>
@@ -2575,7 +3080,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D12" s="33"/>
       <c r="E12" s="3">
         <v>1</v>
@@ -2587,7 +3092,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D13" s="33"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
@@ -2599,7 +3104,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D14" s="33"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -2607,7 +3112,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D15" s="33"/>
       <c r="E15" s="35" t="s">
         <v>30</v>
@@ -2617,7 +3122,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D16" s="33"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -2625,7 +3130,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D17" s="33"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
@@ -2637,7 +3142,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D18" s="33"/>
       <c r="E18" s="3">
         <v>3</v>
@@ -2649,7 +3154,7 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D19" s="33"/>
       <c r="E19" s="3">
         <v>2</v>
@@ -2661,7 +3166,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D20" s="33"/>
       <c r="E20" s="3">
         <v>1</v>
@@ -2673,7 +3178,7 @@
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D21" s="33"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
@@ -2685,7 +3190,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D22" s="33"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -2693,7 +3198,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D23" s="33"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -2701,7 +3206,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -2716,29 +3221,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1465D7-0629-463E-8924-948C52C85FC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -2746,102 +3251,102 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
         <v>86</v>
       </c>
@@ -2849,22 +3354,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
         <v>85</v>
       </c>
@@ -2872,12 +3377,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
         <v>41</v>
       </c>
@@ -2888,7 +3393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
         <v>42</v>
       </c>
@@ -2899,7 +3404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G43" s="39" t="s">
         <v>46</v>
       </c>
@@ -2907,7 +3412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G44" s="39" t="s">
         <v>49</v>
       </c>
@@ -2922,21 +3427,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BFE982-FCFA-47D8-94D0-C05A7028B15F}">
-  <dimension ref="A2:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" customWidth="1"/>
-    <col min="11" max="11" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
         <v>74</v>
@@ -2953,8 +3459,9 @@
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -2965,10 +3472,13 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="K3" s="41" t="s">
+        <v>94</v>
+      </c>
       <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -2976,10 +3486,13 @@
         <v>61</v>
       </c>
       <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>53</v>
       </c>
@@ -2987,13 +3500,16 @@
         <v>62</v>
       </c>
       <c r="K5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s">
         <v>65</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>53</v>
       </c>
@@ -3001,69 +3517,75 @@
         <v>64</v>
       </c>
       <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" t="s">
         <v>66</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
         <v>55</v>
       </c>
       <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>58</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>71</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -3075,24 +3597,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:GF90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AM11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AT4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="CL37" sqref="CL37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.453125" style="8"/>
-    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.453125" style="8"/>
-    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.453125" style="8"/>
-    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.453125" style="8"/>
-    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.453125" style="8"/>
+    <col min="1" max="56" width="1.5" style="8"/>
+    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.5" style="8"/>
+    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.5" style="8"/>
+    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.5" style="8"/>
+    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25836,24 +26358,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:GF90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="FH22" sqref="FH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.453125" style="8"/>
-    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.453125" style="8"/>
-    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.453125" style="8"/>
-    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.453125" style="8"/>
-    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.453125" style="8"/>
+    <col min="1" max="56" width="1.5" style="8"/>
+    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.5" style="8"/>
+    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.5" style="8"/>
+    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.5" style="8"/>
+    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48592,16 +49114,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CM88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="1.453125" style="8"/>
+    <col min="1" max="7" width="1.5" style="8"/>
     <col min="8" max="44" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="45" max="16384" width="1.453125" style="8"/>
+    <col min="45" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -59325,20 +59847,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="45.26953125" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -59349,7 +59871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -59358,7 +59880,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -59367,7 +59889,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -59381,7 +59903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -59389,7 +59911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -59397,12 +59919,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -1480,7 +1480,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1488,7 +1488,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3107"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3113"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1545,7 +1545,7 @@
             <xdr:cNvPr id="4" name="図 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1553,13 +1553,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3108"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3114"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1610,7 +1610,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4479AA11-8C34-4C2F-A339-B512DFD82F82}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1618,13 +1618,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3109"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3115"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -1840,7 +1840,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1914,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1987,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2053,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2111,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2196,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2254,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2339,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3224,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430C7598-E3F9-41EC-9310-6329DD823D22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="地図_外部設計" sheetId="12" r:id="rId1"/>
@@ -20,12 +19,13 @@
     <sheet name="地図イメージ２" sheetId="6" r:id="rId10"/>
     <sheet name="課題" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="177">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -1571,16 +1571,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>N×Mの卓マスを追加する</t>
-    <rPh sb="4" eb="5">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -1598,74 +1588,6 @@
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卓マス単位の機能</t>
-    <rPh sb="0" eb="1">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卓マスを選択し、N×Mを変更した卓マスに置き換えられる</t>
-    <rPh sb="0" eb="1">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卓マスを選択し、削除できる</t>
-    <rPh sb="0" eb="1">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他</t>
-    <rPh sb="0" eb="1">
-      <t>ホカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卓マスを選択し、非表示にできる</t>
-    <rPh sb="0" eb="1">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ヒヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1776,19 +1698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加する卓を選択できる</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>囲い卓</t>
     <rPh sb="0" eb="1">
       <t>カコ</t>
@@ -1822,163 +1731,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>やりたいこと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>壁卓は同作成するか？</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ドウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⇒卓マスを追加するときに横長卓を選択して追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１ディーラの卓マスが複数マスの場合をどうひょうげんするか？</t>
-    <rPh sb="6" eb="7">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⇒卓情報をJSONでもたせて、JSでそれを読み込んで卓マスのHTMLを生成させるようにすればいいかな・・・</t>
-    <rPh sb="1" eb="2">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>難しそうなので手作成にする</t>
-    <rPh sb="0" eb="1">
-      <t>ムズカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卓グループ列に卓グループが縦長しかないものがある</t>
-    <rPh sb="0" eb="1">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タテナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卓グループ列はTABLEタグを使ってるので、隣と高さがそろわない可能性があると思う</t>
-    <rPh sb="0" eb="1">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>トナリ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⇒多少そろってなくても、許容する</t>
-    <rPh sb="1" eb="3">
-      <t>タショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キョヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大体どの位置にあるのかがわかればよいので、卓マス単位での正確な位置を地図上で表現する必要はない</t>
-    <rPh sb="0" eb="2">
-      <t>ダイタイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>チズ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -2007,19 +1759,7 @@
       <t>タイショウ</t>
     </rPh>
     <rPh sb="48" eb="50">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>カ</t>
+      <t>ヒョウジヒョウジヒヒョウジキカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2112,12 +1852,254 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>隠す</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓グループ単位の機能</t>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N×Mの卓グループを追加する</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓グループを選択し、N×Mを変更した卓グループに置き換えられる</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓グループを選択し、削除できる</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓グループを選択し、非表示にできる</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（卓グループが空白をみることができる）</t>
+    <rPh sb="1" eb="2">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓グループ列単位の機能</t>
+    <rPh sb="5" eb="6">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓グループ列を追加できる</t>
+    <rPh sb="5" eb="6">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓グループ列を選択して追加できる</t>
+    <rPh sb="0" eb="1">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓グループ列を選択し、削除できる</t>
+    <rPh sb="5" eb="6">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホール卓単位の機能</t>
+    <rPh sb="3" eb="4">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示されている卓のみ対象とする</t>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓番を採番する</t>
+    <rPh sb="0" eb="1">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卓番の甲を画面から入力して採番んできる</t>
+    <rPh sb="0" eb="1">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採番後、各卓グループのセンター部に卓番の甲-乙が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採番後、各卓グループの卓マスに卓番の丙が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヘイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2156,8 +2138,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2209,18 +2199,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,7 +2310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2440,9 +2418,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2482,7 +2459,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D5B27D-93D4-4027-8C2C-D1E2C334846F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0D5B27D-93D4-4027-8C2C-D1E2C334846F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2490,7 +2467,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6156"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6163"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2545,7 +2522,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3CE9F0-7D9C-483E-8899-CE9D3499BC35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C3CE9F0-7D9C-483E-8899-CE9D3499BC35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2592,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7806D0A1-2258-4AF3-9D80-AE427CF8C419}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7806D0A1-2258-4AF3-9D80-AE427CF8C419}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2669,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DE51FE-CDB3-411D-B050-7D4CF6DBBFB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46DE51FE-CDB3-411D-B050-7D4CF6DBBFB9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2700,7 +2677,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13318"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13325"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2755,7 +2732,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54ED358-5AF9-4EBC-B950-78323E2B2B55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F54ED358-5AF9-4EBC-B950-78323E2B2B55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2802,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882FA458-5C1E-457C-A1C9-4792B9D28ED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{882FA458-5C1E-457C-A1C9-4792B9D28ED7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,7 +2879,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2910,7 +2887,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3140"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3161"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2967,7 +2944,7 @@
             <xdr:cNvPr id="4" name="図 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2975,7 +2952,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3141"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3162"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3032,7 +3009,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3040,7 +3017,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3142"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3163"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3095,7 +3072,7 @@
         <xdr:cNvPr id="2" name="下矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3132,7 @@
         <xdr:cNvPr id="6" name="下矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3215,7 +3192,7 @@
         <xdr:cNvPr id="7" name="下矢印 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,7 +3257,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D63E318-8FEF-4B73-9187-303B1E3E4C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D63E318-8FEF-4B73-9187-303B1E3E4C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,7 +3341,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3438,7 +3415,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,7 +3488,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3577,7 +3554,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3612,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,7 +3697,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3778,7 +3755,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3863,7 +3840,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3907,7 +3884,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3949,7 +3926,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3982,26 +3959,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4034,23 +3994,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4226,29 +4169,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4FE78B-B667-44B8-84A0-8FAF7D1D2EDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AH36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="2.36328125" style="67"/>
+    <col min="3" max="3" width="2.375" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C2" s="67" t="s">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C2" s="65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E4" t="s">
         <v>113</v>
       </c>
@@ -4256,40 +4199,40 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>8</v>
       </c>
@@ -4297,32 +4240,32 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.15">
       <c r="E17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C20" s="67" t="s">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="C20" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -4345,7 +4288,7 @@
       <c r="W22" s="31"/>
       <c r="X22" s="32"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D23" s="33"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -4368,7 +4311,7 @@
       <c r="W23" s="37"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D24" s="33"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
@@ -4391,7 +4334,7 @@
       <c r="W24" s="44"/>
       <c r="X24" s="34"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D25" s="33"/>
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
@@ -4414,7 +4357,7 @@
       <c r="W25" s="47"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D26" s="33"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
@@ -4440,7 +4383,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D27" s="33"/>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
@@ -4466,7 +4409,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D28" s="33"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -4489,7 +4432,7 @@
       <c r="W28" s="47"/>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D29" s="33"/>
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
@@ -4515,7 +4458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D30" s="33"/>
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
@@ -4541,7 +4484,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D31" s="33"/>
       <c r="E31" s="45"/>
       <c r="F31" s="46"/>
@@ -4564,7 +4507,7 @@
       <c r="W31" s="47"/>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.15">
       <c r="D32" s="33"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -4590,7 +4533,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="4:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D33" s="33"/>
       <c r="X33" s="34"/>
       <c r="AA33" t="s">
@@ -4600,7 +4543,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="4:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D34" s="33"/>
       <c r="E34" t="s">
         <v>102</v>
@@ -4616,11 +4559,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="4:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D35" s="33"/>
       <c r="X35" s="34"/>
     </row>
-    <row r="36" spans="4:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D36" s="36"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -4652,16 +4595,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CM88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="1.453125" style="8"/>
+    <col min="1" max="7" width="1.5" style="8"/>
     <col min="8" max="44" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="45" max="16384" width="1.453125" style="8"/>
+    <col min="45" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15385,20 +15328,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="45.26953125" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -15409,7 +15352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -15418,7 +15361,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -15427,7 +15370,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -15441,7 +15384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -15449,7 +15392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -15457,12 +15400,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -15474,31 +15417,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEA4249-273E-4274-A2ED-F9058F90133D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:X58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E36" sqref="E35:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -15521,7 +15464,7 @@
       <c r="W7" s="31"/>
       <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D8" s="33"/>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -15544,7 +15487,7 @@
       <c r="W8" s="37"/>
       <c r="X8" s="34"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D9" s="33"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43"/>
@@ -15567,7 +15510,7 @@
       <c r="W9" s="44"/>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D10" s="33"/>
       <c r="E10" s="45"/>
       <c r="F10" s="46"/>
@@ -15590,7 +15533,7 @@
       <c r="W10" s="47"/>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D11" s="33"/>
       <c r="E11" s="45"/>
       <c r="F11" s="46"/>
@@ -15613,7 +15556,7 @@
       <c r="W11" s="47"/>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D12" s="33"/>
       <c r="E12" s="45"/>
       <c r="F12" s="46"/>
@@ -15636,7 +15579,7 @@
       <c r="W12" s="47"/>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D13" s="33"/>
       <c r="E13" s="45"/>
       <c r="F13" s="46"/>
@@ -15659,7 +15602,7 @@
       <c r="W13" s="47"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D14" s="33"/>
       <c r="E14" s="45"/>
       <c r="F14" s="46"/>
@@ -15682,7 +15625,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D15" s="33"/>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -15705,7 +15648,7 @@
       <c r="W15" s="47"/>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D16" s="33"/>
       <c r="E16" s="45"/>
       <c r="F16" s="46"/>
@@ -15728,7 +15671,7 @@
       <c r="W16" s="47"/>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D17" s="33"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
@@ -15751,11 +15694,11 @@
       <c r="W17" s="50"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D18" s="33"/>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D19" s="33"/>
       <c r="E19" t="s">
         <v>102</v>
@@ -15765,11 +15708,11 @@
       </c>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D20" s="33"/>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -15792,107 +15735,107 @@
       <c r="W21" s="37"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.15">
       <c r="F31" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F42" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
       <c r="G43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
       <c r="G44" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="48" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D48" s="64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F50" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F51">
         <v>1</v>
       </c>
@@ -15900,7 +15843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F53">
         <v>2</v>
       </c>
@@ -15908,7 +15851,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F55">
         <v>3</v>
       </c>
@@ -15916,19 +15859,19 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F56" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F58" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -15940,255 +15883,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34CD2CF-6654-4216-A0E4-D16B3C02EBC0}">
-  <dimension ref="B2:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>159</v>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F12" s="66">
-        <v>3</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E13" s="64">
-        <v>2</v>
-      </c>
-      <c r="I13" s="64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="64">
-        <v>1</v>
-      </c>
-      <c r="I14" s="65">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>140</v>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E26" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D27" s="66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>136</v>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>152</v>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D30" s="66" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>153</v>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>154</v>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D34" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>155</v>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>139</v>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
-        <v>141</v>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>144</v>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="4" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="11:15" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="11:15" x14ac:dyDescent="0.15">
       <c r="L14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="11:15" x14ac:dyDescent="0.15">
       <c r="O15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
         <v>100</v>
       </c>
@@ -16207,22 +16141,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AL31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="10" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D2" s="30"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -16230,7 +16164,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
@@ -16266,7 +16200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D4" s="33"/>
       <c r="E4" s="3">
         <v>3</v>
@@ -16308,7 +16242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D5" s="33"/>
       <c r="E5" s="3">
         <v>2</v>
@@ -16353,7 +16287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D6" s="33"/>
       <c r="E6" s="3">
         <v>1</v>
@@ -16401,7 +16335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D7" s="33"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -16470,7 +16404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D8" s="33"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -16493,7 +16427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D9" s="33"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
@@ -16505,7 +16439,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D10" s="33"/>
       <c r="E10" s="3">
         <v>3</v>
@@ -16520,7 +16454,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D11" s="33"/>
       <c r="E11" s="3">
         <v>2</v>
@@ -16532,7 +16466,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D12" s="33"/>
       <c r="E12" s="3">
         <v>1</v>
@@ -16544,7 +16478,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D13" s="33"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
@@ -16556,7 +16490,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D14" s="33"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -16564,7 +16498,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D15" s="33"/>
       <c r="E15" s="35" t="s">
         <v>30</v>
@@ -16574,7 +16508,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:38" x14ac:dyDescent="0.15">
       <c r="D16" s="33"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -16582,7 +16516,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D17" s="33"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
@@ -16594,7 +16528,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D18" s="33"/>
       <c r="E18" s="3">
         <v>3</v>
@@ -16606,7 +16540,7 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D19" s="33"/>
       <c r="E19" s="3">
         <v>2</v>
@@ -16618,7 +16552,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D20" s="33"/>
       <c r="E20" s="3">
         <v>1</v>
@@ -16630,7 +16564,7 @@
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D21" s="33"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
@@ -16642,7 +16576,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D22" s="33"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -16650,7 +16584,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D23" s="33"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -16658,7 +16592,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -16666,7 +16600,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E27" s="3">
         <v>4</v>
       </c>
@@ -16687,7 +16621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D28" s="3">
         <v>3</v>
       </c>
@@ -16700,7 +16634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D29" s="3">
         <v>2</v>
       </c>
@@ -16713,7 +16647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.15">
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -16726,7 +16660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.15">
       <c r="E31" s="63">
         <f t="shared" ref="E31:G31" si="1">F31+1</f>
         <v>16</v>
@@ -16755,29 +16689,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -16785,102 +16719,102 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
         <v>86</v>
       </c>
@@ -16888,22 +16822,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
         <v>85</v>
       </c>
@@ -16911,12 +16845,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
         <v>41</v>
       </c>
@@ -16927,7 +16861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
         <v>42</v>
       </c>
@@ -16938,7 +16872,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G43" s="39" t="s">
         <v>46</v>
       </c>
@@ -16946,7 +16880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.15">
       <c r="G44" s="39" t="s">
         <v>49</v>
       </c>
@@ -16961,22 +16895,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" customWidth="1"/>
-    <col min="11" max="11" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
         <v>74</v>
@@ -16995,7 +16929,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -17012,7 +16946,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -17026,7 +16960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>53</v>
       </c>
@@ -17043,7 +16977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>53</v>
       </c>
@@ -17060,7 +16994,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
         <v>55</v>
       </c>
@@ -17071,7 +17005,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>56</v>
       </c>
@@ -17082,7 +17016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="G9" t="s">
         <v>57</v>
       </c>
@@ -17093,7 +17027,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H10" t="s">
         <v>60</v>
       </c>
@@ -17104,22 +17038,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -17131,24 +17065,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:GF90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="AT4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="CL37" sqref="CL37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.453125" style="8"/>
-    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.453125" style="8"/>
-    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.453125" style="8"/>
-    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.453125" style="8"/>
-    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.453125" style="8"/>
+    <col min="1" max="56" width="1.5" style="8"/>
+    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.5" style="8"/>
+    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.5" style="8"/>
+    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.5" style="8"/>
+    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39892,24 +39826,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:GF90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="FH22" sqref="FH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.453125" style="8"/>
-    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.453125" style="8"/>
-    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.453125" style="8"/>
-    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.453125" style="8"/>
-    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.453125" style="8"/>
+    <col min="1" max="56" width="1.5" style="8"/>
+    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.5" style="8"/>
+    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.5" style="8"/>
+    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.5" style="8"/>
+    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F31BC7-ACF9-4B3D-BF7E-7A0F2DA4095A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView minimized="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地図_外部設計" sheetId="12" r:id="rId1"/>
@@ -20,12 +21,12 @@
     <sheet name="地図イメージ２" sheetId="6" r:id="rId11"/>
     <sheet name="課題" sheetId="2" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="240">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -2913,16 +2914,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対応中</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>横長、縦長がまだ</t>
     <rPh sb="0" eb="2">
       <t>ヨコナガ</t>
@@ -3010,8 +3001,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3056,6 +3047,21 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3234,7 +3240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3352,6 +3358,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3396,7 +3404,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B0D5B27D-93D4-4027-8C2C-D1E2C334846F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3404,7 +3412,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6181"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6190"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3459,7 +3467,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C3CE9F0-7D9C-483E-8899-CE9D3499BC35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,7 +3537,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7806D0A1-2258-4AF3-9D80-AE427CF8C419}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3614,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{46DE51FE-CDB3-411D-B050-7D4CF6DBBFB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3614,7 +3622,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13343"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13352"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3669,7 +3677,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F54ED358-5AF9-4EBC-B950-78323E2B2B55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3739,7 +3747,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{882FA458-5C1E-457C-A1C9-4792B9D28ED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3814,7 +3822,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D63E318-8FEF-4B73-9187-303B1E3E4C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,7 +3898,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3950,7 +3964,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4010,7 +4030,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4"/>
+        <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4091,7 +4117,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D63E318-8FEF-4B73-9187-303B1E3E4C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4193,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4227,7 +4259,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4290,7 +4328,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D63E318-8FEF-4B73-9187-303B1E3E4C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4407,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D63E318-8FEF-4B73-9187-303B1E3E4C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4455,7 +4493,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4463,7 +4501,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3215"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3242"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4520,7 +4558,7 @@
             <xdr:cNvPr id="4" name="図 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4528,7 +4566,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3216"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3243"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4585,7 +4623,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4593,7 +4631,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3217"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3244"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4648,7 +4686,7 @@
         <xdr:cNvPr id="2" name="下矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4708,7 +4746,7 @@
         <xdr:cNvPr id="6" name="下矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4768,7 +4806,7 @@
         <xdr:cNvPr id="7" name="下矢印 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4833,7 +4871,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D63E318-8FEF-4B73-9187-303B1E3E4C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4917,7 +4955,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4991,7 +5029,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5064,7 +5102,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5168,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5188,7 +5226,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5273,7 +5311,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5331,7 +5369,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5416,7 +5454,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5460,7 +5498,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5502,7 +5540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5535,9 +5573,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5570,6 +5625,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5745,29 +5817,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AH36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="2.375" style="65"/>
+    <col min="3" max="3" width="2.36328125" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C2" s="65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>113</v>
       </c>
@@ -5775,40 +5847,40 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>8</v>
       </c>
@@ -5816,32 +5888,32 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -5864,7 +5936,7 @@
       <c r="W22" s="31"/>
       <c r="X22" s="32"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D23" s="33"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -5887,7 +5959,7 @@
       <c r="W23" s="37"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D24" s="33"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
@@ -5910,7 +5982,7 @@
       <c r="W24" s="44"/>
       <c r="X24" s="34"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D25" s="33"/>
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
@@ -5933,7 +6005,7 @@
       <c r="W25" s="47"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D26" s="33"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
@@ -5959,7 +6031,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D27" s="33"/>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
@@ -5985,7 +6057,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D28" s="33"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -6008,7 +6080,7 @@
       <c r="W28" s="47"/>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D29" s="33"/>
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
@@ -6034,7 +6106,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D30" s="33"/>
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
@@ -6060,7 +6132,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D31" s="33"/>
       <c r="E31" s="45"/>
       <c r="F31" s="46"/>
@@ -6083,7 +6155,7 @@
       <c r="W31" s="47"/>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D32" s="33"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -6109,7 +6181,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="4:34" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D33" s="33"/>
       <c r="X33" s="34"/>
       <c r="AA33" t="s">
@@ -6119,7 +6191,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="4:34" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D34" s="33"/>
       <c r="E34" t="s">
         <v>102</v>
@@ -6135,11 +6207,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="4:34" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D35" s="33"/>
       <c r="X35" s="34"/>
     </row>
-    <row r="36" spans="4:34" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D36" s="36"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -6171,24 +6243,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:GF90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="FH22" sqref="FH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.5" style="8"/>
-    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.5" style="8"/>
-    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.5" style="8"/>
-    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.5" style="8"/>
-    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.5" style="8"/>
+    <col min="1" max="56" width="1.453125" style="8"/>
+    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.453125" style="8"/>
+    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.453125" style="8"/>
+    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.453125" style="8"/>
+    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28927,16 +28999,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:CM88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="1.5" style="8"/>
+    <col min="1" max="7" width="1.453125" style="8"/>
     <col min="8" max="44" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="45" max="16384" width="1.5" style="8"/>
+    <col min="45" max="16384" width="1.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39660,20 +39732,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A13:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="45.26953125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -39684,7 +39756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -39693,7 +39765,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -39702,7 +39774,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -39716,7 +39788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -39724,7 +39796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -39732,12 +39804,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -39749,29 +39821,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:X58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -39794,7 +39866,7 @@
       <c r="W7" s="31"/>
       <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D8" s="33"/>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -39817,7 +39889,7 @@
       <c r="W8" s="37"/>
       <c r="X8" s="34"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D9" s="33"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43"/>
@@ -39840,7 +39912,7 @@
       <c r="W9" s="44"/>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D10" s="33"/>
       <c r="E10" s="45"/>
       <c r="F10" s="46"/>
@@ -39863,7 +39935,7 @@
       <c r="W10" s="47"/>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D11" s="33"/>
       <c r="E11" s="45"/>
       <c r="F11" s="46"/>
@@ -39886,7 +39958,7 @@
       <c r="W11" s="47"/>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D12" s="33"/>
       <c r="E12" s="45"/>
       <c r="F12" s="46"/>
@@ -39909,7 +39981,7 @@
       <c r="W12" s="47"/>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D13" s="33"/>
       <c r="E13" s="45"/>
       <c r="F13" s="46"/>
@@ -39932,7 +40004,7 @@
       <c r="W13" s="47"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D14" s="33"/>
       <c r="E14" s="45"/>
       <c r="F14" s="46"/>
@@ -39955,7 +40027,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D15" s="33"/>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -39978,7 +40050,7 @@
       <c r="W15" s="47"/>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D16" s="33"/>
       <c r="E16" s="45"/>
       <c r="F16" s="46"/>
@@ -40001,7 +40073,7 @@
       <c r="W16" s="47"/>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D17" s="33"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
@@ -40024,11 +40096,11 @@
       <c r="W17" s="50"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D18" s="33"/>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D19" s="33"/>
       <c r="E19" t="s">
         <v>102</v>
@@ -40038,11 +40110,11 @@
       </c>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D20" s="33"/>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -40065,107 +40137,107 @@
       <c r="W21" s="37"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D48" s="64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>1</v>
       </c>
@@ -40173,7 +40245,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F53">
         <v>2</v>
       </c>
@@ -40181,7 +40253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F55">
         <v>3</v>
       </c>
@@ -40189,17 +40261,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F58" t="s">
         <v>159</v>
       </c>
@@ -40213,35 +40285,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AE68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3" style="65"/>
     <col min="27" max="27" width="3" style="70"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B2" s="65" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B6" s="65" t="s">
         <v>109</v>
       </c>
@@ -40252,17 +40324,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C7" s="65" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>162</v>
       </c>
@@ -40270,54 +40342,54 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>169</v>
       </c>
-      <c r="AA10" s="70" t="s">
-        <v>231</v>
+      <c r="AA10" s="71" t="s">
+        <v>230</v>
       </c>
       <c r="AE10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>163</v>
       </c>
-      <c r="AA15" s="70" t="s">
+      <c r="AA15" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE15" t="s">
         <v>233</v>
       </c>
-      <c r="AE15" t="s">
-        <v>234</v>
-      </c>
     </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>164</v>
       </c>
@@ -40325,12 +40397,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>165</v>
       </c>
@@ -40338,20 +40410,20 @@
         <v>230</v>
       </c>
       <c r="AE21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>190</v>
       </c>
@@ -40359,7 +40431,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>191</v>
       </c>
@@ -40367,12 +40439,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>193</v>
       </c>
@@ -40380,33 +40452,33 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>194</v>
       </c>
-      <c r="AA29" s="70" t="s">
-        <v>231</v>
+      <c r="AA29" s="71" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>195</v>
       </c>
-      <c r="AA30" s="70" t="s">
-        <v>231</v>
+      <c r="AA30" s="72" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="65" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>168</v>
       </c>
@@ -40414,17 +40486,17 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D35" s="66" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>170</v>
       </c>
@@ -40432,109 +40504,109 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D38" s="66" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C41" s="65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>173</v>
       </c>
       <c r="AA42" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AE42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>178</v>
       </c>
       <c r="AA50" s="70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="51" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:27" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:27" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:27" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:27" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:27" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA57" s="70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
         <v>238</v>
       </c>
-      <c r="AA57" s="70" t="s">
-        <v>237</v>
-      </c>
     </row>
-    <row r="58" spans="4:27" x14ac:dyDescent="0.15">
-      <c r="E58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:27" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:27" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
         <v>185</v>
       </c>
@@ -40542,17 +40614,17 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:27" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="67" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:27" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
         <v>187</v>
       </c>
@@ -40560,7 +40632,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="4:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:27" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
         <v>188</v>
       </c>
@@ -40576,28 +40648,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Y46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3" style="65"/>
-    <col min="4" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="Q5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C6" s="67"/>
       <c r="D6" s="3">
         <v>4</v>
@@ -40623,7 +40695,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -40648,7 +40720,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -40664,7 +40736,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -40680,7 +40752,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="67"/>
       <c r="D10" s="63">
         <f t="shared" ref="D10:F10" si="1">E10+1</f>
@@ -40706,7 +40778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>203</v>
       </c>
@@ -40714,27 +40786,27 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O13" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="67"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -40754,7 +40826,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -40776,7 +40848,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>2</v>
       </c>
@@ -40801,7 +40873,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>1</v>
       </c>
@@ -40817,7 +40889,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="67"/>
       <c r="D22" s="3">
         <v>14</v>
@@ -40834,7 +40906,7 @@
       </c>
       <c r="I22" s="67"/>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>221</v>
       </c>
@@ -40842,7 +40914,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D26" s="3">
         <v>4</v>
       </c>
@@ -40863,7 +40935,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D27" s="51"/>
       <c r="E27" s="54"/>
       <c r="F27" s="55"/>
@@ -40876,7 +40948,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D28" s="52"/>
       <c r="E28" s="57"/>
       <c r="F28" s="58"/>
@@ -40889,7 +40961,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D29" s="53"/>
       <c r="E29" s="60"/>
       <c r="F29" s="61"/>
@@ -40902,17 +40974,17 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="P30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="D32" s="3">
         <v>4</v>
       </c>
@@ -40933,7 +41005,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D33" s="51"/>
       <c r="E33" s="54"/>
       <c r="F33" s="55"/>
@@ -40946,7 +41018,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34" s="52"/>
       <c r="E34" s="57"/>
       <c r="F34" s="58"/>
@@ -40959,7 +41031,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D35" s="53"/>
       <c r="E35" s="60"/>
       <c r="F35" s="61"/>
@@ -40972,10 +41044,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37" s="65"/>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C46" s="65"/>
     </row>
   </sheetData>
@@ -40987,76 +41059,76 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="K4:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="11:15" x14ac:dyDescent="0.2">
       <c r="O15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>100</v>
       </c>
@@ -41075,22 +41147,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D2:AL31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="10" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D2" s="30"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -41098,7 +41170,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
@@ -41134,7 +41206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D4" s="33"/>
       <c r="E4" s="3">
         <v>3</v>
@@ -41176,7 +41248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D5" s="33"/>
       <c r="E5" s="3">
         <v>2</v>
@@ -41221,7 +41293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D6" s="33"/>
       <c r="E6" s="3">
         <v>1</v>
@@ -41269,7 +41341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D7" s="33"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -41338,7 +41410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D8" s="33"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -41361,7 +41433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D9" s="33"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
@@ -41373,7 +41445,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D10" s="33"/>
       <c r="E10" s="3">
         <v>3</v>
@@ -41388,7 +41460,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D11" s="33"/>
       <c r="E11" s="3">
         <v>2</v>
@@ -41400,7 +41472,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D12" s="33"/>
       <c r="E12" s="3">
         <v>1</v>
@@ -41412,7 +41484,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D13" s="33"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
@@ -41424,7 +41496,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D14" s="33"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -41432,7 +41504,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D15" s="33"/>
       <c r="E15" s="35" t="s">
         <v>30</v>
@@ -41442,7 +41514,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D16" s="33"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -41450,7 +41522,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="33"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
@@ -41462,7 +41534,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="33"/>
       <c r="E18" s="3">
         <v>3</v>
@@ -41474,7 +41546,7 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="33"/>
       <c r="E19" s="3">
         <v>2</v>
@@ -41486,7 +41558,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="33"/>
       <c r="E20" s="3">
         <v>1</v>
@@ -41498,7 +41570,7 @@
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="33"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
@@ -41510,7 +41582,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="33"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -41518,7 +41590,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="33"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -41526,7 +41598,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -41534,7 +41606,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E27" s="3">
         <v>4</v>
       </c>
@@ -41555,7 +41627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="3">
         <v>3</v>
       </c>
@@ -41568,7 +41640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29" s="3">
         <v>2</v>
       </c>
@@ -41581,7 +41653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -41594,7 +41666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E31" s="63">
         <f t="shared" ref="E31:G31" si="1">F31+1</f>
         <v>16</v>
@@ -41623,29 +41695,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -41653,102 +41725,102 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>86</v>
       </c>
@@ -41756,22 +41828,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>85</v>
       </c>
@@ -41779,12 +41851,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>41</v>
       </c>
@@ -41795,7 +41867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>42</v>
       </c>
@@ -41806,7 +41878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G43" s="39" t="s">
         <v>46</v>
       </c>
@@ -41814,7 +41886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G44" s="39" t="s">
         <v>49</v>
       </c>
@@ -41829,22 +41901,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
         <v>74</v>
@@ -41863,7 +41935,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -41880,7 +41952,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -41894,7 +41966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>53</v>
       </c>
@@ -41911,7 +41983,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>53</v>
       </c>
@@ -41928,7 +42000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>55</v>
       </c>
@@ -41939,7 +42011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>56</v>
       </c>
@@ -41950,7 +42022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>57</v>
       </c>
@@ -41961,7 +42033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>60</v>
       </c>
@@ -41972,22 +42044,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -41999,24 +42071,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:GF90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="AT4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="CL37" sqref="CL37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.5" style="8"/>
-    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.5" style="8"/>
-    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.5" style="8"/>
-    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.5" style="8"/>
-    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.5" style="8"/>
+    <col min="1" max="56" width="1.453125" style="8"/>
+    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.453125" style="8"/>
+    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.453125" style="8"/>
+    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.453125" style="8"/>
+    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="253">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -3018,6 +3018,142 @@
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ対応</t>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改善</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ホール卓全体に卓グループを追加した際に、卓グループ列の選択にラベルがきいていない</t>
+    <rPh sb="4" eb="5">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原因調査中</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・卓グループ列の対象チェックボックスの選択幅を選択しやすいよう広げたい</t>
+    <rPh sb="1" eb="2">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・genMap.jsの卓グループ、卓グループ列、ホール卓単位の処理を管理しやすくするため</t>
+    <rPh sb="11" eb="12">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前空間を整理したい</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3452,7 +3588,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6195"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6197"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3662,7 +3798,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13357"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13359"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4541,7 +4677,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3257"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3263"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4606,7 +4742,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3258"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3264"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4671,7 +4807,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3259"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3265"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -63053,10 +63189,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG68"/>
+  <dimension ref="B2:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB40" sqref="AB40"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AC79" sqref="AC79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -63382,62 +63518,106 @@
         <v>237</v>
       </c>
       <c r="AC57" s="70" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="4:29" x14ac:dyDescent="0.15">
       <c r="E58" t="s">
         <v>238</v>
       </c>
-      <c r="AC58" s="70" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="59" spans="4:29" x14ac:dyDescent="0.15">
       <c r="E59" t="s">
         <v>184</v>
       </c>
       <c r="AC59" s="70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="61" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="D61" t="s">
+    <row r="63" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E62" t="s">
+    <row r="64" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="E64" t="s">
         <v>185</v>
       </c>
-      <c r="AC62" s="70" t="s">
+      <c r="AC64" s="70" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="D65" t="s">
+    <row r="67" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="D66" t="s">
+    <row r="68" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E67" t="s">
+    <row r="69" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="E69" t="s">
         <v>187</v>
       </c>
-      <c r="AC67" s="70" t="s">
+      <c r="AC69" s="70" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E68" t="s">
+    <row r="70" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="E70" t="s">
         <v>188</v>
       </c>
-      <c r="AC68" s="70" t="s">
+      <c r="AC70" s="70" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C72" s="65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D73" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC73" s="70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="C76" s="65" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D77" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC77" s="70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="79" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="D79" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC79" s="70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="E80" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="252">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -3001,16 +3001,6 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応中</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3580,7 +3570,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3588,7 +3578,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6197"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6203"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3643,7 +3633,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,7 +3703,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3780,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3798,7 +3788,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13359"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13365"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3853,7 +3843,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3923,7 +3913,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3998,7 +3988,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4077,7 +4067,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4143,7 +4133,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4209,7 +4199,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4293,7 +4283,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,7 +4362,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4428,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4494,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4583,7 +4573,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4669,7 +4659,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4677,7 +4667,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3263"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3281"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4734,7 +4724,7 @@
             <xdr:cNvPr id="4" name="図 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4742,7 +4732,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3264"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3282"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4799,7 +4789,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4807,7 +4797,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3265"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3283"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4862,7 +4852,7 @@
         <xdr:cNvPr id="2" name="下矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4922,7 +4912,7 @@
         <xdr:cNvPr id="6" name="下矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4982,7 +4972,7 @@
         <xdr:cNvPr id="7" name="下矢印 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5047,7 +5037,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5131,7 +5121,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5205,7 +5195,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,7 +5268,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5344,7 +5334,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5402,7 +5392,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5487,7 +5477,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5545,7 +5535,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5630,7 +5620,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -63191,8 +63181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AC79" sqref="AC79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC73" sqref="AC73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -63433,7 +63423,7 @@
         <v>172</v>
       </c>
       <c r="AC44" s="70" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="3:33" x14ac:dyDescent="0.15">
@@ -63465,7 +63455,7 @@
         <v>196</v>
       </c>
       <c r="AC48" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="4:29" x14ac:dyDescent="0.15">
@@ -63481,15 +63471,12 @@
         <v>182</v>
       </c>
       <c r="AC51" s="70" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E52" t="s">
+      <c r="E52" s="66" t="s">
         <v>179</v>
-      </c>
-      <c r="AC52" s="70" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="53" spans="4:29" x14ac:dyDescent="0.15">
@@ -63505,7 +63492,7 @@
         <v>181</v>
       </c>
       <c r="AC54" s="70" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="4:29" x14ac:dyDescent="0.15">
@@ -63531,7 +63518,7 @@
         <v>184</v>
       </c>
       <c r="AC59" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="4:29" x14ac:dyDescent="0.15">
@@ -63575,41 +63562,41 @@
     </row>
     <row r="72" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C72" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="3:29" x14ac:dyDescent="0.15">
       <c r="D73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AC73" s="70" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="3:29" x14ac:dyDescent="0.15">
       <c r="D74" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" t="s">
         <v>248</v>
-      </c>
-      <c r="E74" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="76" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C76" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="3:29" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC77" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="3:29" x14ac:dyDescent="0.15">
       <c r="D79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC79" s="70" t="s">
         <v>231</v>
@@ -63617,7 +63604,7 @@
     </row>
     <row r="80" spans="3:29" x14ac:dyDescent="0.15">
       <c r="E80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -3570,7 +3570,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3578,7 +3578,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6203"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6205"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3633,7 +3633,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3703,7 +3703,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3780,7 +3780,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3788,7 +3788,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13365"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13367"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3843,7 +3843,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3913,7 +3913,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3988,7 +3988,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4067,7 +4067,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,7 +4133,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4199,7 +4199,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4283,7 +4283,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,7 +4362,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4428,7 +4428,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4494,7 +4494,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4573,7 +4573,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4659,7 +4659,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4667,7 +4667,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3281"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3287"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4724,7 +4724,7 @@
             <xdr:cNvPr id="4" name="図 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4732,7 +4732,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3282"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3288"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4789,7 +4789,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4797,7 +4797,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3283"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3289"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4852,7 +4852,7 @@
         <xdr:cNvPr id="2" name="下矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4912,7 +4912,7 @@
         <xdr:cNvPr id="6" name="下矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4972,7 +4972,7 @@
         <xdr:cNvPr id="7" name="下矢印 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +5037,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5121,7 +5121,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5195,7 +5195,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5268,7 +5268,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5334,7 +5334,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,7 +5392,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5477,7 +5477,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5535,7 +5535,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5620,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -63181,8 +63181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC73" sqref="AC73"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E54E7E-D7E5-433F-A6A6-1C955A008900}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地図_外部設計" sheetId="12" r:id="rId1"/>
@@ -21,12 +22,12 @@
     <sheet name="地図イメージ２" sheetId="6" r:id="rId12"/>
     <sheet name="課題" sheetId="2" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="258">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -2509,81 +2510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一番上、TDを1つずつ取得して左からidを採番する</t>
-    <rPh sb="0" eb="2">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サイバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一番下、TDを1つずつ取得して左からidを採番する（一番上の採番と逆）</t>
-    <rPh sb="0" eb="2">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ギャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>間、TDを1つずつ取得して、一番左と一番右だけに採番する</t>
-    <rPh sb="0" eb="1">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サイバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>５×７マス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2900,13 +2826,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>すぐできそう、ラジオボタンで選択させる</t>
     <rPh sb="14" eb="16">
       <t>センタク</t>
@@ -2944,19 +2863,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一部対応済</t>
-    <rPh sb="0" eb="2">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホール卓全体に追加したい卓グループの行数と列数を入力し、</t>
     <rPh sb="3" eb="4">
       <t>タク</t>
@@ -3005,13 +2911,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -3057,13 +2956,6 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3147,12 +3039,113 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>※０９１５優先度下げ対応しない</t>
+    <rPh sb="5" eb="8">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番上</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>、TDを1つずつ取得して左からidを採番する</t>
+  </si>
+  <si>
+    <t>中間</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>、TDを1つずつ取得して、一番左と一番右だけに採番する</t>
+  </si>
+  <si>
+    <t>一番下</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>、TDを1つずつ取得して左からidを採番する（一番上の採番と逆）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_takuIdのもちかた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>takuIdのもちかた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通し番号のイメージ</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示、spanタグ内の値</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3192,14 +3185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3208,7 +3193,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3396,7 +3396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3505,7 +3505,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3513,9 +3512,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3526,6 +3522,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3570,7 +3572,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3578,7 +3580,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6205"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6209"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3633,7 +3635,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3703,7 +3705,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3780,7 +3782,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3788,7 +3790,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13367"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13371"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3843,7 +3845,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3913,7 +3915,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3988,7 +3990,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4067,7 +4069,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4133,7 +4135,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4199,7 +4201,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4269,13 +4271,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>88776</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>102366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>112349</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>58617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4283,7 +4285,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4348,13 +4350,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>214314</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>17858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4362,7 +4364,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4414,13 +4416,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>208358</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4428,7 +4430,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4480,13 +4482,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>88776</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>102366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>112349</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>58617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4494,7 +4496,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4559,13 +4561,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>88776</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>102366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>112349</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>58617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4573,7 +4575,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4583,6 +4585,164 @@
         <a:xfrm>
           <a:off x="767432" y="5108944"/>
           <a:ext cx="1095136" cy="301532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>－</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>27</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88776</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112349</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>58617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E20FA15-19D7-49D9-B7C5-45CB98DB88E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="718254" y="3084105"/>
+          <a:ext cx="995399" cy="287555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>－</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>27</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88776</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112349</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>58617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5A21EE-AEBE-422D-941D-D5DF864BC633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="718254" y="3084105"/>
+          <a:ext cx="995399" cy="287555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4659,7 +4819,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4667,7 +4827,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3287"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3299"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4724,7 +4884,7 @@
             <xdr:cNvPr id="4" name="図 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4732,7 +4892,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3288"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3300"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4789,7 +4949,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4797,7 +4957,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3289"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3301"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4852,7 +5012,7 @@
         <xdr:cNvPr id="2" name="下矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4912,7 +5072,7 @@
         <xdr:cNvPr id="6" name="下矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4972,7 +5132,7 @@
         <xdr:cNvPr id="7" name="下矢印 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +5197,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5121,7 +5281,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5195,7 +5355,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5268,7 +5428,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5334,7 +5494,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,7 +5552,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5477,7 +5637,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5535,7 +5695,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5780,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5664,7 +5824,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5706,7 +5866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5739,9 +5899,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5774,6 +5951,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5949,29 +6143,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AH36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="2.375" style="65"/>
+    <col min="3" max="3" width="2.36328125" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C2" s="65" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>113</v>
       </c>
@@ -5979,40 +6173,40 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>8</v>
       </c>
@@ -6020,32 +6214,32 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -6068,7 +6262,7 @@
       <c r="W22" s="31"/>
       <c r="X22" s="32"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D23" s="33"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -6091,7 +6285,7 @@
       <c r="W23" s="37"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D24" s="33"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
@@ -6114,7 +6308,7 @@
       <c r="W24" s="44"/>
       <c r="X24" s="34"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D25" s="33"/>
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
@@ -6137,7 +6331,7 @@
       <c r="W25" s="47"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D26" s="33"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
@@ -6163,7 +6357,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D27" s="33"/>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
@@ -6189,7 +6383,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D28" s="33"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -6212,7 +6406,7 @@
       <c r="W28" s="47"/>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D29" s="33"/>
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
@@ -6238,7 +6432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D30" s="33"/>
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
@@ -6264,7 +6458,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D31" s="33"/>
       <c r="E31" s="45"/>
       <c r="F31" s="46"/>
@@ -6287,7 +6481,7 @@
       <c r="W31" s="47"/>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="D32" s="33"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -6313,7 +6507,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="4:34" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D33" s="33"/>
       <c r="X33" s="34"/>
       <c r="AA33" t="s">
@@ -6323,7 +6517,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="4:34" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D34" s="33"/>
       <c r="E34" t="s">
         <v>102</v>
@@ -6339,11 +6533,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="4:34" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D35" s="33"/>
       <c r="X35" s="34"/>
     </row>
-    <row r="36" spans="4:34" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:34" x14ac:dyDescent="0.2">
       <c r="D36" s="36"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -6375,24 +6569,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:GF90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="AT4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="CL37" sqref="CL37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.5" style="8"/>
-    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.5" style="8"/>
-    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.5" style="8"/>
-    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.5" style="8"/>
-    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.5" style="8"/>
+    <col min="1" max="56" width="1.453125" style="8"/>
+    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.453125" style="8"/>
+    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.453125" style="8"/>
+    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.453125" style="8"/>
+    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29136,24 +29330,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:GF90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="FH22" sqref="FH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.5" style="8"/>
-    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.5" style="8"/>
-    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.5" style="8"/>
-    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.5" style="8"/>
-    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.5" style="8"/>
+    <col min="1" max="56" width="1.453125" style="8"/>
+    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.453125" style="8"/>
+    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.453125" style="8"/>
+    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.453125" style="8"/>
+    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -51892,16 +52086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:CM88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="1.5" style="8"/>
+    <col min="1" max="7" width="1.453125" style="8"/>
     <col min="8" max="44" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="45" max="16384" width="1.5" style="8"/>
+    <col min="45" max="16384" width="1.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -62625,20 +62819,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A13:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="45.26953125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -62649,7 +62843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -62658,7 +62852,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -62667,7 +62861,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -62681,7 +62875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -62689,7 +62883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -62697,12 +62891,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -62714,29 +62908,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:X58"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -62759,7 +62953,7 @@
       <c r="W7" s="31"/>
       <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D8" s="33"/>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -62782,7 +62976,7 @@
       <c r="W8" s="37"/>
       <c r="X8" s="34"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D9" s="33"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43"/>
@@ -62805,7 +62999,7 @@
       <c r="W9" s="44"/>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D10" s="33"/>
       <c r="E10" s="45"/>
       <c r="F10" s="46"/>
@@ -62828,7 +63022,7 @@
       <c r="W10" s="47"/>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D11" s="33"/>
       <c r="E11" s="45"/>
       <c r="F11" s="46"/>
@@ -62851,7 +63045,7 @@
       <c r="W11" s="47"/>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D12" s="33"/>
       <c r="E12" s="45"/>
       <c r="F12" s="46"/>
@@ -62874,7 +63068,7 @@
       <c r="W12" s="47"/>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D13" s="33"/>
       <c r="E13" s="45"/>
       <c r="F13" s="46"/>
@@ -62897,7 +63091,7 @@
       <c r="W13" s="47"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D14" s="33"/>
       <c r="E14" s="45"/>
       <c r="F14" s="46"/>
@@ -62920,7 +63114,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D15" s="33"/>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -62943,7 +63137,7 @@
       <c r="W15" s="47"/>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D16" s="33"/>
       <c r="E16" s="45"/>
       <c r="F16" s="46"/>
@@ -62966,7 +63160,7 @@
       <c r="W16" s="47"/>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D17" s="33"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
@@ -62989,11 +63183,11 @@
       <c r="W17" s="50"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D18" s="33"/>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D19" s="33"/>
       <c r="E19" t="s">
         <v>102</v>
@@ -63003,11 +63197,11 @@
       </c>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D20" s="33"/>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -63030,107 +63224,107 @@
       <c r="W21" s="37"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D48" s="64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>1</v>
       </c>
@@ -63138,7 +63332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F53">
         <v>2</v>
       </c>
@@ -63146,7 +63340,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F55">
         <v>3</v>
       </c>
@@ -63154,17 +63348,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F58" t="s">
         <v>159</v>
       </c>
@@ -63178,433 +63372,452 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AG80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="3" style="65"/>
-    <col min="29" max="29" width="3" style="70"/>
+    <col min="1" max="1" width="3" style="79"/>
+    <col min="2" max="2" width="3" style="80"/>
+    <col min="3" max="28" width="3" style="79"/>
+    <col min="29" max="29" width="3" style="81"/>
+    <col min="30" max="32" width="3" style="79"/>
+    <col min="33" max="33" width="3" style="83"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B2" s="65" t="s">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B2" s="80" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="C3" s="79" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="C4" s="79" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="B6" s="65" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B6" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="AC6" s="70" t="s">
+      <c r="AC6" s="81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="C7" s="80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="D8" s="79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="E9" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC9" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="E10" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC10" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG10" s="83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="F11" s="79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="F12" s="79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="F13" s="79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="D14" s="79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="E15" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC15" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG15" s="83" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="C7" s="65" t="s">
-        <v>161</v>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D17" s="79" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="D8" t="s">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E18" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC18" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D20" s="79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E21" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC21" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG21" s="83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E22" s="79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D23" s="79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E24" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC24" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG24" s="84" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E25" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC25" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG25" s="84" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D27" s="79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E28" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC28" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E29" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC29" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E30" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC30" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C32" s="80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D33" s="79" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="E9" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC9" s="70" t="s">
-        <v>230</v>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E34" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC34" s="81" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="E10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC10" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG10" t="s">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D35" s="82" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D36" s="79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E37" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC37" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D38" s="82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C41" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D42" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC42" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG42" s="83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E44" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC44" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E45" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC45" s="81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E46" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC46" s="81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E47" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC47" s="81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E48" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC48" s="81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D50" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC50" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E51" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC51" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E52" s="82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E53" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC53" s="81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E54" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC54" s="81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D56" s="79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E57" s="79" t="s">
         <v>232</v>
       </c>
+      <c r="AC57" s="81" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="F11" t="s">
-        <v>146</v>
+    <row r="58" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E58" s="79" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="F12" t="s">
-        <v>147</v>
+    <row r="59" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E59" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC59" s="81" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="F13" t="s">
-        <v>148</v>
+    <row r="63" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D63" s="79" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
-        <v>138</v>
+    <row r="64" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="E64" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC64" s="81" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="E15" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC15" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>233</v>
+    <row r="67" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D67" s="79" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>137</v>
+    <row r="68" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D68" s="79" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E18" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC18" s="70" t="s">
-        <v>230</v>
+    <row r="69" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E69" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC69" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG69" s="84" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>160</v>
+    <row r="70" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E70" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC70" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG70" s="84" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC21" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>234</v>
+    <row r="72" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C72" s="80" t="s">
+        <v>237</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E22" t="s">
-        <v>166</v>
+    <row r="73" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D73" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC73" s="81" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D23" t="s">
-        <v>189</v>
+    <row r="74" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D74" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="E74" s="79" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E24" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC24" s="70" t="s">
-        <v>231</v>
+    <row r="76" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C76" s="80" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E25" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC25" s="70" t="s">
-        <v>231</v>
+    <row r="77" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D77" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC77" s="81" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D27" t="s">
-        <v>192</v>
+    <row r="79" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="D79" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC79" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG79" s="84" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC28" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E29" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC29" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E30" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC30" s="72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="C32" s="65" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E34" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC34" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D35" s="66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E37" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC37" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D38" s="66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="C41" s="65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D42" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC42" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E44" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC44" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E45" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC45" s="70" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E46" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC46" s="70" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E47" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC47" s="70" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="E48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC48" s="70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="D50" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC50" s="70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E51" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC51" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E52" s="66" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E53" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC53" s="70" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E54" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC54" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="D56" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E57" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC57" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E59" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC59" s="70" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="D63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="4:29" x14ac:dyDescent="0.15">
-      <c r="E64" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC64" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="D67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="D68" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="E69" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC69" s="70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="70" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="E70" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC70" s="70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="72" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="C72" s="65" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="D73" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC73" s="70" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="74" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="D74" t="s">
-        <v>247</v>
-      </c>
-      <c r="E74" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="C76" s="65" t="s">
+    <row r="80" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="E80" s="79" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="77" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="D77" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC77" s="70" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="D79" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC79" s="70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="80" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="E80" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -63615,31 +63828,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:Y60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:AF21"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3" style="65"/>
-    <col min="4" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="Q5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C6" s="67"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C6" s="66"/>
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -63659,12 +63872,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="66"/>
       <c r="N6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -63680,16 +63893,16 @@
         <v>198</v>
       </c>
       <c r="Q7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S7" t="s">
         <v>30</v>
       </c>
       <c r="U7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -63702,10 +63915,10 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -63721,8 +63934,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C10" s="67"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C10" s="66"/>
       <c r="D10" s="63">
         <f t="shared" ref="D10:F10" si="1">E10+1</f>
         <v>16</v>
@@ -63742,148 +63955,160 @@
       <c r="H10" s="3">
         <v>12</v>
       </c>
-      <c r="I10" s="67"/>
+      <c r="I10" s="66"/>
       <c r="N10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O13" t="s">
-        <v>200</v>
+        <v>247</v>
+      </c>
+      <c r="R13" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O14" t="s">
-        <v>202</v>
+        <v>249</v>
+      </c>
+      <c r="R14" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O15" t="s">
-        <v>201</v>
+        <v>251</v>
+      </c>
+      <c r="R15" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C18" s="67"/>
-      <c r="D18" s="3">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C19" s="66"/>
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G19" s="68">
         <v>7</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="67"/>
-      <c r="N18" t="s">
+      <c r="H19" s="68"/>
+      <c r="I19" s="66"/>
+      <c r="N19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="3">
+        <v>8</v>
+      </c>
+      <c r="O20" t="s">
+        <v>205</v>
+      </c>
+      <c r="R20" t="s">
+        <v>206</v>
+      </c>
+      <c r="V20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="3">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
+        <v>204</v>
+      </c>
+      <c r="R21" t="s">
+        <v>207</v>
+      </c>
+      <c r="V21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
+      <c r="N22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="3">
-        <v>8</v>
-      </c>
-      <c r="O19" t="s">
-        <v>208</v>
-      </c>
-      <c r="R19" t="s">
-        <v>209</v>
-      </c>
-      <c r="V19" t="s">
-        <v>224</v>
-      </c>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C23" s="66"/>
+      <c r="D23" s="3">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3">
+        <v>12</v>
+      </c>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67">
+        <v>11</v>
+      </c>
+      <c r="I23" s="66"/>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="3">
-        <v>9</v>
-      </c>
-      <c r="O20" t="s">
-        <v>207</v>
-      </c>
-      <c r="R20" t="s">
-        <v>210</v>
-      </c>
-      <c r="V20" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>225</v>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>253</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="3">
-        <v>10</v>
-      </c>
-      <c r="N21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C22" s="67"/>
-      <c r="D22" s="3">
-        <v>14</v>
-      </c>
-      <c r="E22" s="3">
-        <v>13</v>
-      </c>
-      <c r="F22" s="3">
-        <v>12</v>
-      </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68">
-        <v>11</v>
-      </c>
-      <c r="I22" s="67"/>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="D25" t="s">
-        <v>221</v>
-      </c>
-      <c r="N25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C26" s="66"/>
       <c r="D26" s="3">
         <v>4</v>
       </c>
@@ -63893,18 +64118,21 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="68">
         <v>7</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="68">
         <v>8</v>
       </c>
-      <c r="I26" s="67"/>
+      <c r="I26" s="66"/>
       <c r="N26" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
       <c r="D27" s="51"/>
       <c r="E27" s="54"/>
       <c r="F27" s="55"/>
@@ -63913,11 +64141,11 @@
       <c r="I27" s="3">
         <v>9</v>
       </c>
-      <c r="O27" t="s">
-        <v>213</v>
-      </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
       <c r="D28" s="52"/>
       <c r="E28" s="57"/>
       <c r="F28" s="58"/>
@@ -63926,11 +64154,11 @@
       <c r="I28" s="3">
         <v>10</v>
       </c>
-      <c r="O28" t="s">
-        <v>214</v>
-      </c>
     </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
       <c r="D29" s="53"/>
       <c r="E29" s="60"/>
       <c r="F29" s="61"/>
@@ -63939,85 +64167,251 @@
       <c r="I29" s="3">
         <v>11</v>
       </c>
-      <c r="P29" t="s">
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C30" s="66"/>
+      <c r="D30" s="3">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>14</v>
+      </c>
+      <c r="G30" s="67">
+        <v>13</v>
+      </c>
+      <c r="H30" s="67">
+        <v>12</v>
+      </c>
+      <c r="I30" s="66"/>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C33" s="66"/>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>6</v>
+      </c>
+      <c r="G33" s="68">
+        <v>7</v>
+      </c>
+      <c r="H33" s="68">
+        <v>7</v>
+      </c>
+      <c r="I33" s="66"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="53"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="66"/>
+      <c r="D37" s="3">
+        <v>14</v>
+      </c>
+      <c r="E37" s="3">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3">
+        <v>12</v>
+      </c>
+      <c r="G37" s="67">
+        <v>11</v>
+      </c>
+      <c r="H37" s="67">
+        <v>11</v>
+      </c>
+      <c r="I37" s="66"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+      <c r="N39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>6</v>
+      </c>
+      <c r="G40" s="68">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3">
+        <v>8</v>
+      </c>
+      <c r="I40" s="66"/>
+      <c r="N40" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D41" s="51"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="3">
+        <v>9</v>
+      </c>
+      <c r="O41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D42" s="52"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="3">
+        <v>10</v>
+      </c>
+      <c r="O42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D43" s="53"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="3">
+        <v>11</v>
+      </c>
+      <c r="P43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D46" s="3">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6</v>
+      </c>
+      <c r="G46" s="68">
+        <v>7</v>
+      </c>
+      <c r="H46" s="67">
+        <v>8</v>
+      </c>
+      <c r="I46" s="66"/>
+      <c r="N46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D47" s="51"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="3">
+        <v>9</v>
+      </c>
+      <c r="O47" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="P30" t="s">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D48" s="52"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="3">
+        <v>10</v>
+      </c>
+      <c r="O48" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="D31" t="s">
-        <v>222</v>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D49" s="53"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="3">
+        <v>11</v>
+      </c>
+      <c r="O49" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="D32" s="3">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>6</v>
-      </c>
-      <c r="G32" s="69">
-        <v>7</v>
-      </c>
-      <c r="H32" s="68">
-        <v>8</v>
-      </c>
-      <c r="I32" s="67"/>
-      <c r="N32" t="s">
-        <v>217</v>
-      </c>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C51" s="65"/>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D33" s="51"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="3">
-        <v>9</v>
-      </c>
-      <c r="O33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D34" s="52"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="3">
-        <v>10</v>
-      </c>
-      <c r="O34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D35" s="53"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="3">
-        <v>11</v>
-      </c>
-      <c r="O35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C37" s="65"/>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C46" s="65"/>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C60" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -64028,84 +64422,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="E5:U10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="5:21" x14ac:dyDescent="0.15">
-      <c r="E5" s="73"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
+    <row r="5" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="71"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
     </row>
-    <row r="6" spans="5:21" x14ac:dyDescent="0.15">
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
+    <row r="6" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
     </row>
-    <row r="7" spans="5:21" x14ac:dyDescent="0.15">
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="78"/>
+    <row r="7" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
     </row>
-    <row r="8" spans="5:21" x14ac:dyDescent="0.15">
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="78"/>
+    <row r="8" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
     </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.15">
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
+    <row r="9" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
     </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.15">
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81"/>
+    <row r="10" spans="5:21" x14ac:dyDescent="0.2">
+      <c r="E10" s="75"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -64115,76 +64509,76 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="K4:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="11:15" x14ac:dyDescent="0.2">
       <c r="O15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>100</v>
       </c>
@@ -64203,22 +64597,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="D2:AL31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="10" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D2" s="30"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -64226,7 +64620,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
@@ -64262,7 +64656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D4" s="33"/>
       <c r="E4" s="3">
         <v>3</v>
@@ -64304,7 +64698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D5" s="33"/>
       <c r="E5" s="3">
         <v>2</v>
@@ -64349,7 +64743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D6" s="33"/>
       <c r="E6" s="3">
         <v>1</v>
@@ -64397,7 +64791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D7" s="33"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -64466,7 +64860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D8" s="33"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -64489,7 +64883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D9" s="33"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
@@ -64501,7 +64895,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D10" s="33"/>
       <c r="E10" s="3">
         <v>3</v>
@@ -64516,7 +64910,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D11" s="33"/>
       <c r="E11" s="3">
         <v>2</v>
@@ -64528,7 +64922,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D12" s="33"/>
       <c r="E12" s="3">
         <v>1</v>
@@ -64540,7 +64934,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D13" s="33"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
@@ -64552,7 +64946,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D14" s="33"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -64560,7 +64954,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D15" s="33"/>
       <c r="E15" s="35" t="s">
         <v>30</v>
@@ -64570,7 +64964,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D16" s="33"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -64578,7 +64972,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="33"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
@@ -64590,7 +64984,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="33"/>
       <c r="E18" s="3">
         <v>3</v>
@@ -64602,7 +64996,7 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="33"/>
       <c r="E19" s="3">
         <v>2</v>
@@ -64614,7 +65008,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="33"/>
       <c r="E20" s="3">
         <v>1</v>
@@ -64626,7 +65020,7 @@
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="33"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
@@ -64638,7 +65032,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="33"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -64646,7 +65040,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="33"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -64654,7 +65048,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -64662,7 +65056,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E27" s="3">
         <v>4</v>
       </c>
@@ -64683,7 +65077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="3">
         <v>3</v>
       </c>
@@ -64696,7 +65090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29" s="3">
         <v>2</v>
       </c>
@@ -64709,7 +65103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -64722,7 +65116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E31" s="63">
         <f t="shared" ref="E31:G31" si="1">F31+1</f>
         <v>16</v>
@@ -64751,29 +65145,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -64781,102 +65175,102 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>86</v>
       </c>
@@ -64884,22 +65278,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>85</v>
       </c>
@@ -64907,12 +65301,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>41</v>
       </c>
@@ -64923,7 +65317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>42</v>
       </c>
@@ -64934,7 +65328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G43" s="39" t="s">
         <v>46</v>
       </c>
@@ -64942,7 +65336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G44" s="39" t="s">
         <v>49</v>
       </c>
@@ -64957,22 +65351,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
         <v>74</v>
@@ -64991,7 +65385,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -65008,7 +65402,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -65022,7 +65416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>53</v>
       </c>
@@ -65039,7 +65433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>53</v>
       </c>
@@ -65056,7 +65450,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>55</v>
       </c>
@@ -65067,7 +65461,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>56</v>
       </c>
@@ -65078,7 +65472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>57</v>
       </c>
@@ -65089,7 +65483,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>60</v>
       </c>
@@ -65100,22 +65494,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>53</v>
       </c>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E34E2C-5FC9-4221-80D9-84FC84D70175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="地図_外部設計" sheetId="12" r:id="rId1"/>
     <sheet name="地図_内部設計" sheetId="14" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId3"/>
-    <sheet name="地図ジェネレータ" sheetId="15" r:id="rId4"/>
-    <sheet name="対応１" sheetId="16" r:id="rId5"/>
-    <sheet name="作り方" sheetId="1" r:id="rId6"/>
-    <sheet name="作り方＿イメージ１" sheetId="8" r:id="rId7"/>
-    <sheet name="0831作成" sheetId="11" r:id="rId8"/>
-    <sheet name="地図＿タグ構成" sheetId="10" r:id="rId9"/>
-    <sheet name="地図イメージ3" sheetId="7" r:id="rId10"/>
-    <sheet name="地図イメージ１" sheetId="5" r:id="rId11"/>
-    <sheet name="地図イメージ２" sheetId="6" r:id="rId12"/>
-    <sheet name="課題" sheetId="2" r:id="rId13"/>
+    <sheet name="地図ジェネレータの配置" sheetId="18" r:id="rId3"/>
+    <sheet name="work⇒" sheetId="19" r:id="rId4"/>
+    <sheet name="地図ジェネレータ" sheetId="15" r:id="rId5"/>
+    <sheet name="対応１" sheetId="16" r:id="rId6"/>
+    <sheet name="作り方" sheetId="1" r:id="rId7"/>
+    <sheet name="作り方＿イメージ１" sheetId="8" r:id="rId8"/>
+    <sheet name="0831作成" sheetId="11" r:id="rId9"/>
+    <sheet name="地図＿タグ構成" sheetId="10" r:id="rId10"/>
+    <sheet name="地図イメージ3" sheetId="7" r:id="rId11"/>
+    <sheet name="地図イメージ１" sheetId="5" r:id="rId12"/>
+    <sheet name="地図イメージ２" sheetId="6" r:id="rId13"/>
+    <sheet name="課題" sheetId="2" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="286">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -1238,25 +1238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入りのディーラについて、対応する卓マスを色づける</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※左参照</t>
     <rPh sb="1" eb="2">
       <t>ヒダリ</t>
@@ -3164,90 +3145,254 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入りの作品のディーラの位置を、地図上で色づけ表示する</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
+    <t>地図自動生成.html</t>
+    <rPh sb="0" eb="2">
       <t>チズ</t>
     </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
+    <rPh sb="2" eb="4">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入りのホールがなくても、ボタンすべて活性</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カッセイ</t>
-    </rPh>
+    <t>ホール６.html</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入りディーラのいるホールを初期表示する。</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
+    <t>jqueryXXX.js</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ただし８～７ホールと６～４ホールにまたがる場合は、８～７ホールを優先してだす。</t>
+    <t>map.js</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JSONで受け取った内容を解析してJSで表示</t>
-    <rPh sb="5" eb="6">
+    <t>map.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>∟</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>generate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何となくサーバーで分けてやるとかっこよさそう</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きな静的ファイルを作成するので、サーバーをわけたほうが負荷が減りそう</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案１</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサーバーで作成した地図をAPサーバーが読み込む</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案２</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apサーバーで地図の作成、地図の表示を行う</t>
+    <rPh sb="7" eb="9">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地図の作成をローカルでやるよりWEB上ででき、管理者の機能としたらかっこよさそう！！</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分けると面倒そうだし、まとめたほうがいいのでは？</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・お気に入りのディーラについて、対応する卓マスを色づける</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・JSONで受け取った内容を解析してJSで表示する</t>
+    <rPh sb="6" eb="7">
       <t>ウ</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="8" eb="9">
       <t>ト</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="11" eb="13">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="14" eb="16">
       <t>カイセキ</t>
     </rPh>
-    <rPh sb="20" eb="22">
+    <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・お気に入りディーラのいるホールを初期表示する</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・お気に入りのホールがなくても、ボタンすべて活性する</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし８～７ホールと６～４ホールにまたがる場合は、８～７ホールを優先してだす</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3325,7 +3470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3389,6 +3534,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3500,7 +3657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3623,6 +3780,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3667,7 +3826,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3675,7 +3834,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6241"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6247"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3730,7 +3889,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3800,7 +3959,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,7 +4036,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3885,7 +4044,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13403"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13409"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3940,7 +4099,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4010,7 +4169,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4069,6 +4228,177 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073926" y="6548230"/>
+          <a:ext cx="3393799" cy="319295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Apache</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>652255</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>150330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="6515100"/>
+          <a:ext cx="3395455" cy="321780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Tomcat</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3528391" y="5160066"/>
+          <a:ext cx="2339009" cy="334616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>88776</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -4085,7 +4415,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4164,7 +4494,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4230,7 +4560,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4296,7 +4626,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4380,7 +4710,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4459,7 +4789,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4855,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4591,7 +4921,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4670,7 +5000,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4749,7 +5079,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E20FA15-19D7-49D9-B7C5-45CB98DB88E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E20FA15-19D7-49D9-B7C5-45CB98DB88E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,7 +5158,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5A21EE-AEBE-422D-941D-D5DF864BC633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C5A21EE-AEBE-422D-941D-D5DF864BC633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4892,7 +5222,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -4914,7 +5244,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4922,7 +5252,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3395"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3413"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4979,7 +5309,7 @@
             <xdr:cNvPr id="4" name="図 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4987,7 +5317,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3396"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3414"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5044,7 +5374,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5052,7 +5382,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3397"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3415"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5107,7 +5437,7 @@
         <xdr:cNvPr id="2" name="下矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5167,7 +5497,7 @@
         <xdr:cNvPr id="6" name="下矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5227,7 +5557,7 @@
         <xdr:cNvPr id="7" name="下矢印 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5272,7 +5602,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5292,7 +5622,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5356,7 +5686,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5376,7 +5706,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5430,7 +5760,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5450,7 +5780,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5523,7 +5853,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5589,7 +5919,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5647,7 +5977,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5732,7 +6062,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5790,7 +6120,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5875,7 +6205,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5919,7 +6249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5961,7 +6291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5994,26 +6324,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6046,23 +6359,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6238,103 +6534,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AH36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AA56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="2.36328125" style="65"/>
+    <col min="3" max="3" width="2.375" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:12">
       <c r="C2" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:12">
       <c r="D3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="E4" t="s">
         <v>112</v>
       </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" t="s">
-        <v>114</v>
+    <row r="5" spans="3:12">
+      <c r="E5" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
+    <row r="7" spans="3:12">
+      <c r="D7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12">
       <c r="E8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:12">
       <c r="D10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:12">
       <c r="E11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:12">
       <c r="E12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:12">
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:12">
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:12">
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:12">
       <c r="E16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24">
       <c r="E17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24">
       <c r="E18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:24">
       <c r="C20" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24">
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -6357,7 +6651,7 @@
       <c r="W22" s="31"/>
       <c r="X22" s="32"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24">
       <c r="D23" s="33"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -6380,7 +6674,7 @@
       <c r="W23" s="37"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24">
       <c r="D24" s="33"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
@@ -6403,7 +6697,7 @@
       <c r="W24" s="44"/>
       <c r="X24" s="34"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24">
       <c r="D25" s="33"/>
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
@@ -6426,7 +6720,7 @@
       <c r="W25" s="47"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:24">
       <c r="D26" s="33"/>
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
@@ -6448,11 +6742,8 @@
       <c r="V26" s="46"/>
       <c r="W26" s="47"/>
       <c r="X26" s="34"/>
-      <c r="Z26" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24">
       <c r="D27" s="33"/>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
@@ -6474,11 +6765,8 @@
       <c r="V27" s="46"/>
       <c r="W27" s="47"/>
       <c r="X27" s="34"/>
-      <c r="AA27" t="s">
-        <v>108</v>
-      </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24">
       <c r="D28" s="33"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -6501,7 +6789,7 @@
       <c r="W28" s="47"/>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:24">
       <c r="D29" s="33"/>
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
@@ -6523,11 +6811,8 @@
       <c r="V29" s="46"/>
       <c r="W29" s="47"/>
       <c r="X29" s="34"/>
-      <c r="Z29" t="s">
-        <v>104</v>
-      </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24">
       <c r="D30" s="33"/>
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
@@ -6549,11 +6834,8 @@
       <c r="V30" s="46"/>
       <c r="W30" s="47"/>
       <c r="X30" s="34"/>
-      <c r="AA30" t="s">
-        <v>107</v>
-      </c>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:24">
       <c r="D31" s="33"/>
       <c r="E31" s="45"/>
       <c r="F31" s="46"/>
@@ -6576,7 +6858,7 @@
       <c r="W31" s="47"/>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:24">
       <c r="D32" s="33"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
@@ -6598,21 +6880,12 @@
       <c r="V32" s="49"/>
       <c r="W32" s="50"/>
       <c r="X32" s="34"/>
-      <c r="Z32" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="33" spans="4:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:27">
       <c r="D33" s="33"/>
       <c r="X33" s="34"/>
-      <c r="AA33" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>110</v>
-      </c>
     </row>
-    <row r="34" spans="4:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:27">
       <c r="D34" s="33"/>
       <c r="E34" t="s">
         <v>102</v>
@@ -6621,18 +6894,12 @@
         <v>103</v>
       </c>
       <c r="X34" s="34"/>
-      <c r="AA34" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="35" spans="4:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:27">
       <c r="D35" s="33"/>
       <c r="X35" s="34"/>
     </row>
-    <row r="36" spans="4:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:27">
       <c r="D36" s="36"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -6655,6 +6922,85 @@
       <c r="W36" s="37"/>
       <c r="X36" s="38"/>
     </row>
+    <row r="38" spans="4:27">
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="4:27">
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="4:27">
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="4:27">
+      <c r="E43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="4:27">
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="4:27">
+      <c r="F45" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="4:27">
+      <c r="G46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="4:27">
+      <c r="F47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="4:27">
+      <c r="AA48" s="75"/>
+    </row>
+    <row r="49" spans="4:12">
+      <c r="E49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12">
+      <c r="F51" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12">
+      <c r="F52" s="75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12">
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="4:12">
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="4:12">
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+      <c r="L56" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6664,28 +7010,194 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M14"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:GF90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AT4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CL37" sqref="CL37"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1"/>
   <cols>
-    <col min="1" max="56" width="1.453125" style="8"/>
-    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.453125" style="8"/>
-    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.453125" style="8"/>
-    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.453125" style="8"/>
-    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.453125" style="8"/>
+    <col min="1" max="56" width="1.5" style="8"/>
+    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.5" style="8"/>
+    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.5" style="8"/>
+    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.5" style="8"/>
+    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="2" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
@@ -6693,14 +7205,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="5" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="6" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
@@ -6873,9 +7385,9 @@
       <c r="FZ6" s="10"/>
       <c r="GA6" s="10"/>
     </row>
-    <row r="7" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="8" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="9" spans="2:188" ht="9" customHeight="1">
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -7059,7 +7571,7 @@
       <c r="GE9" s="12"/>
       <c r="GF9" s="13"/>
     </row>
-    <row r="10" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:188" ht="9" customHeight="1">
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -7265,7 +7777,7 @@
       <c r="GE10" s="15"/>
       <c r="GF10" s="16"/>
     </row>
-    <row r="11" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:188" ht="9" customHeight="1">
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -7449,7 +7961,7 @@
       <c r="GE11" s="15"/>
       <c r="GF11" s="16"/>
     </row>
-    <row r="12" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:188" ht="9" customHeight="1">
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -7798,7 +8310,7 @@
       <c r="GE12" s="15"/>
       <c r="GF12" s="16"/>
     </row>
-    <row r="13" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:188" ht="9" customHeight="1">
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -8018,7 +8530,7 @@
       <c r="GE13" s="15"/>
       <c r="GF13" s="16"/>
     </row>
-    <row r="14" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:188" ht="9" customHeight="1">
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -8247,7 +8759,7 @@
       <c r="GE14" s="15"/>
       <c r="GF14" s="16"/>
     </row>
-    <row r="15" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:188" ht="9" customHeight="1">
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -8476,7 +8988,7 @@
       <c r="GE15" s="15"/>
       <c r="GF15" s="16"/>
     </row>
-    <row r="16" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:188" ht="9" customHeight="1">
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -8708,7 +9220,7 @@
       <c r="GE16" s="15"/>
       <c r="GF16" s="16"/>
     </row>
-    <row r="17" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:188" ht="9" customHeight="1">
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -9048,7 +9560,7 @@
       <c r="GE17" s="15"/>
       <c r="GF17" s="16"/>
     </row>
-    <row r="18" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:188" ht="9" customHeight="1">
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -9232,7 +9744,7 @@
       <c r="GE18" s="15"/>
       <c r="GF18" s="16"/>
     </row>
-    <row r="19" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:188" ht="9" customHeight="1">
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -9654,7 +10166,7 @@
       <c r="GE19" s="15"/>
       <c r="GF19" s="16"/>
     </row>
-    <row r="20" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:188" ht="9" customHeight="1">
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -9894,7 +10406,7 @@
       <c r="GE20" s="15"/>
       <c r="GF20" s="16"/>
     </row>
-    <row r="21" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:188" ht="9" customHeight="1">
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -10148,7 +10660,7 @@
       <c r="GE21" s="15"/>
       <c r="GF21" s="16"/>
     </row>
-    <row r="22" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:188" ht="9" customHeight="1">
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -10402,7 +10914,7 @@
       <c r="GE22" s="15"/>
       <c r="GF22" s="16"/>
     </row>
-    <row r="23" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:188" ht="9" customHeight="1">
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -10656,7 +11168,7 @@
       <c r="GE23" s="15"/>
       <c r="GF23" s="16"/>
     </row>
-    <row r="24" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:188" ht="9" customHeight="1">
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -11078,7 +11590,7 @@
       <c r="GE24" s="15"/>
       <c r="GF24" s="16"/>
     </row>
-    <row r="25" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:188" ht="9" customHeight="1">
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -11265,7 +11777,7 @@
       <c r="GE25" s="15"/>
       <c r="GF25" s="16"/>
     </row>
-    <row r="26" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:188" ht="9" customHeight="1">
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -11689,7 +12201,7 @@
       <c r="GD26" s="15"/>
       <c r="GF26" s="16"/>
     </row>
-    <row r="27" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:188" ht="9" customHeight="1">
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -11931,7 +12443,7 @@
       <c r="GD27" s="15"/>
       <c r="GF27" s="16"/>
     </row>
-    <row r="28" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:188" ht="9" customHeight="1">
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -12187,7 +12699,7 @@
       <c r="GD28" s="15"/>
       <c r="GF28" s="16"/>
     </row>
-    <row r="29" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:188" ht="9" customHeight="1">
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -12446,7 +12958,7 @@
       <c r="GD29" s="15"/>
       <c r="GF29" s="16"/>
     </row>
-    <row r="30" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:188" ht="9" customHeight="1">
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -12705,7 +13217,7 @@
       <c r="GD30" s="15"/>
       <c r="GF30" s="16"/>
     </row>
-    <row r="31" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:188" ht="9" customHeight="1">
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -13126,7 +13638,7 @@
       <c r="GD31" s="15"/>
       <c r="GF31" s="16"/>
     </row>
-    <row r="32" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:188" ht="9" customHeight="1">
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -13310,7 +13822,7 @@
       <c r="GE32" s="15"/>
       <c r="GF32" s="16"/>
     </row>
-    <row r="33" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:188" ht="9" customHeight="1">
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -13698,7 +14210,7 @@
       <c r="GE33" s="6"/>
       <c r="GF33" s="16"/>
     </row>
-    <row r="34" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:188" ht="9" customHeight="1">
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -13929,7 +14441,7 @@
       </c>
       <c r="GF34" s="16"/>
     </row>
-    <row r="35" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:188" ht="9" customHeight="1">
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -14171,7 +14683,7 @@
       </c>
       <c r="GF35" s="16"/>
     </row>
-    <row r="36" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:188" ht="9" customHeight="1">
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -14415,7 +14927,7 @@
       </c>
       <c r="GF36" s="16"/>
     </row>
-    <row r="37" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:188" ht="9" customHeight="1">
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -14659,7 +15171,7 @@
       </c>
       <c r="GF37" s="16"/>
     </row>
-    <row r="38" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:188" ht="9" customHeight="1">
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -15033,7 +15545,7 @@
       </c>
       <c r="GF38" s="16"/>
     </row>
-    <row r="39" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:188" ht="9" customHeight="1">
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -15217,7 +15729,7 @@
       <c r="GE39" s="15"/>
       <c r="GF39" s="16"/>
     </row>
-    <row r="40" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="6:188" ht="9" customHeight="1">
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -15641,7 +16153,7 @@
       </c>
       <c r="GF40" s="16"/>
     </row>
-    <row r="41" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="6:188" ht="9" customHeight="1">
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -15881,7 +16393,7 @@
       <c r="GE41" s="15"/>
       <c r="GF41" s="16"/>
     </row>
-    <row r="42" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="6:188" ht="9" customHeight="1">
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -16135,7 +16647,7 @@
       <c r="GE42" s="15"/>
       <c r="GF42" s="16"/>
     </row>
-    <row r="43" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:188" ht="9" customHeight="1">
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -16389,7 +16901,7 @@
       <c r="GE43" s="15"/>
       <c r="GF43" s="16"/>
     </row>
-    <row r="44" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="6:188" ht="9" customHeight="1">
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -16643,7 +17155,7 @@
       <c r="GE44" s="15"/>
       <c r="GF44" s="16"/>
     </row>
-    <row r="45" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="6:188" ht="9" customHeight="1">
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -17065,7 +17577,7 @@
       <c r="GE45" s="15"/>
       <c r="GF45" s="16"/>
     </row>
-    <row r="46" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:188" ht="9" customHeight="1">
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -17249,7 +17761,7 @@
       <c r="GE46" s="15"/>
       <c r="GF46" s="16"/>
     </row>
-    <row r="47" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="6:188" ht="9" customHeight="1">
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -17671,7 +18183,7 @@
       <c r="GE47" s="15"/>
       <c r="GF47" s="16"/>
     </row>
-    <row r="48" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="6:188" ht="9" customHeight="1">
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -17911,7 +18423,7 @@
       <c r="GE48" s="15"/>
       <c r="GF48" s="16"/>
     </row>
-    <row r="49" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="6:188" ht="9" customHeight="1">
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -18165,7 +18677,7 @@
       <c r="GE49" s="15"/>
       <c r="GF49" s="16"/>
     </row>
-    <row r="50" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="6:188" ht="9" customHeight="1">
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -18419,7 +18931,7 @@
       <c r="GE50" s="15"/>
       <c r="GF50" s="16"/>
     </row>
-    <row r="51" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="6:188" ht="9" customHeight="1">
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -18673,7 +19185,7 @@
       <c r="GE51" s="15"/>
       <c r="GF51" s="16"/>
     </row>
-    <row r="52" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="6:188" ht="9" customHeight="1">
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -19095,7 +19607,7 @@
       <c r="GE52" s="15"/>
       <c r="GF52" s="16"/>
     </row>
-    <row r="53" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="6:188" ht="9" customHeight="1">
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -19279,7 +19791,7 @@
       <c r="GE53" s="15"/>
       <c r="GF53" s="16"/>
     </row>
-    <row r="54" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="6:188" ht="9" customHeight="1">
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -19701,7 +20213,7 @@
       <c r="GE54" s="15"/>
       <c r="GF54" s="16"/>
     </row>
-    <row r="55" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="6:188" ht="9" customHeight="1">
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -19941,7 +20453,7 @@
       <c r="GE55" s="15"/>
       <c r="GF55" s="16"/>
     </row>
-    <row r="56" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="6:188" ht="9" customHeight="1">
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -20195,7 +20707,7 @@
       <c r="GE56" s="15"/>
       <c r="GF56" s="16"/>
     </row>
-    <row r="57" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="6:188" ht="9" customHeight="1">
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -20449,7 +20961,7 @@
       <c r="GE57" s="15"/>
       <c r="GF57" s="16"/>
     </row>
-    <row r="58" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="6:188" ht="9" customHeight="1">
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -20703,7 +21215,7 @@
       <c r="GE58" s="15"/>
       <c r="GF58" s="16"/>
     </row>
-    <row r="59" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="6:188" ht="9" customHeight="1">
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -21125,7 +21637,7 @@
       <c r="GE59" s="15"/>
       <c r="GF59" s="16"/>
     </row>
-    <row r="60" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="6:188" ht="9" customHeight="1">
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -21309,7 +21821,7 @@
       <c r="GE60" s="15"/>
       <c r="GF60" s="16"/>
     </row>
-    <row r="61" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="6:188" ht="9" customHeight="1">
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -21699,7 +22211,7 @@
       </c>
       <c r="GF61" s="16"/>
     </row>
-    <row r="62" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="6:188" ht="9" customHeight="1">
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -21931,7 +22443,7 @@
       <c r="GE62" s="15"/>
       <c r="GF62" s="16"/>
     </row>
-    <row r="63" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="6:188" ht="9" customHeight="1">
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -22175,7 +22687,7 @@
       <c r="GE63" s="15"/>
       <c r="GF63" s="16"/>
     </row>
-    <row r="64" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="6:188" ht="9" customHeight="1">
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -22419,7 +22931,7 @@
       <c r="GE64" s="15"/>
       <c r="GF64" s="16"/>
     </row>
-    <row r="65" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="6:188" ht="9" customHeight="1">
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -22663,7 +23175,7 @@
       <c r="GE65" s="15"/>
       <c r="GF65" s="16"/>
     </row>
-    <row r="66" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="6:188" ht="9" customHeight="1">
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -23051,7 +23563,7 @@
       <c r="GE66" s="15"/>
       <c r="GF66" s="16"/>
     </row>
-    <row r="67" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="6:188" ht="9" customHeight="1">
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -23235,7 +23747,7 @@
       <c r="GE67" s="15"/>
       <c r="GF67" s="16"/>
     </row>
-    <row r="68" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="6:188" ht="9" customHeight="1">
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -23674,7 +24186,7 @@
       <c r="GE68" s="15"/>
       <c r="GF68" s="16"/>
     </row>
-    <row r="69" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="6:188" ht="9" customHeight="1">
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -23918,7 +24430,7 @@
       <c r="GE69" s="15"/>
       <c r="GF69" s="16"/>
     </row>
-    <row r="70" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="6:188" ht="9" customHeight="1">
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -24179,7 +24691,7 @@
       </c>
       <c r="GF70" s="16"/>
     </row>
-    <row r="71" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="6:188" ht="9" customHeight="1">
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -24440,7 +24952,7 @@
       </c>
       <c r="GF71" s="16"/>
     </row>
-    <row r="72" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="6:188" ht="9" customHeight="1">
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -24701,7 +25213,7 @@
       </c>
       <c r="GF72" s="16"/>
     </row>
-    <row r="73" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="6:188" ht="9" customHeight="1">
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -25142,7 +25654,7 @@
       </c>
       <c r="GF73" s="16"/>
     </row>
-    <row r="74" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="6:188" ht="9" customHeight="1">
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -25329,7 +25841,7 @@
       <c r="GE74" s="15"/>
       <c r="GF74" s="16"/>
     </row>
-    <row r="75" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="6:188" ht="9" customHeight="1">
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -25754,7 +26266,7 @@
       <c r="GE75" s="15"/>
       <c r="GF75" s="16"/>
     </row>
-    <row r="76" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="6:188" ht="9" customHeight="1">
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -25997,7 +26509,7 @@
       <c r="GE76" s="15"/>
       <c r="GF76" s="16"/>
     </row>
-    <row r="77" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="6:188" ht="9" customHeight="1">
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -26254,7 +26766,7 @@
       <c r="GE77" s="15"/>
       <c r="GF77" s="16"/>
     </row>
-    <row r="78" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="6:188" ht="9" customHeight="1">
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -26514,7 +27026,7 @@
       <c r="GE78" s="15"/>
       <c r="GF78" s="16"/>
     </row>
-    <row r="79" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="6:188" ht="9" customHeight="1">
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -26774,7 +27286,7 @@
       <c r="GE79" s="15"/>
       <c r="GF79" s="16"/>
     </row>
-    <row r="80" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="6:188" ht="9" customHeight="1">
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -27200,7 +27712,7 @@
       <c r="GE80" s="15"/>
       <c r="GF80" s="16"/>
     </row>
-    <row r="81" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="6:188" ht="9" customHeight="1">
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -27384,7 +27896,7 @@
       <c r="GE81" s="15"/>
       <c r="GF81" s="16"/>
     </row>
-    <row r="82" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="6:188" ht="9" customHeight="1">
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -27687,7 +28199,7 @@
       <c r="GE82" s="15"/>
       <c r="GF82" s="16"/>
     </row>
-    <row r="83" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="6:188" ht="9" customHeight="1">
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -27899,7 +28411,7 @@
       <c r="GE83" s="15"/>
       <c r="GF83" s="16"/>
     </row>
-    <row r="84" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="6:188" ht="9" customHeight="1">
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -28118,7 +28630,7 @@
       <c r="GE84" s="15"/>
       <c r="GF84" s="16"/>
     </row>
-    <row r="85" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="6:188" ht="9" customHeight="1">
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -28337,7 +28849,7 @@
       <c r="GE85" s="15"/>
       <c r="GF85" s="16"/>
     </row>
-    <row r="86" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="6:188" ht="9" customHeight="1">
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -28556,7 +29068,7 @@
       <c r="GE86" s="15"/>
       <c r="GF86" s="16"/>
     </row>
-    <row r="87" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="6:188" ht="9" customHeight="1">
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -28859,7 +29371,7 @@
       <c r="GE87" s="15"/>
       <c r="GF87" s="16"/>
     </row>
-    <row r="88" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="6:188" ht="9" customHeight="1">
       <c r="F88" s="14"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -29043,7 +29555,7 @@
       <c r="GE88" s="15"/>
       <c r="GF88" s="16"/>
     </row>
-    <row r="89" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="6:188" ht="9" customHeight="1">
       <c r="F89" s="14"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -29232,7 +29744,7 @@
       <c r="GE89" s="15"/>
       <c r="GF89" s="16"/>
     </row>
-    <row r="90" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="6:188" ht="9" customHeight="1">
       <c r="F90" s="18"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
@@ -29424,41 +29936,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:GF90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="FH22" sqref="FH22"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1"/>
   <cols>
-    <col min="1" max="56" width="1.453125" style="8"/>
-    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.453125" style="8"/>
-    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.453125" style="8"/>
-    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.453125" style="8"/>
-    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.453125" style="8"/>
+    <col min="1" max="56" width="1.5" style="8"/>
+    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.5" style="8"/>
+    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.5" style="8"/>
+    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.5" style="8"/>
+    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="2" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="5" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="6" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
@@ -29631,9 +30141,9 @@
       <c r="FZ6" s="10"/>
       <c r="GA6" s="10"/>
     </row>
-    <row r="7" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="8" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="9" spans="2:188" ht="9" customHeight="1">
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -29817,7 +30327,7 @@
       <c r="GE9" s="12"/>
       <c r="GF9" s="13"/>
     </row>
-    <row r="10" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:188" ht="9" customHeight="1">
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -30023,7 +30533,7 @@
       <c r="GE10" s="15"/>
       <c r="GF10" s="16"/>
     </row>
-    <row r="11" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:188" ht="9" customHeight="1">
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -30207,7 +30717,7 @@
       <c r="GE11" s="15"/>
       <c r="GF11" s="16"/>
     </row>
-    <row r="12" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:188" ht="9" customHeight="1">
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -30556,7 +31066,7 @@
       <c r="GE12" s="15"/>
       <c r="GF12" s="16"/>
     </row>
-    <row r="13" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:188" ht="9" customHeight="1">
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -30776,7 +31286,7 @@
       <c r="GE13" s="15"/>
       <c r="GF13" s="16"/>
     </row>
-    <row r="14" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:188" ht="9" customHeight="1">
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -31005,7 +31515,7 @@
       <c r="GE14" s="15"/>
       <c r="GF14" s="16"/>
     </row>
-    <row r="15" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:188" ht="9" customHeight="1">
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -31234,7 +31744,7 @@
       <c r="GE15" s="15"/>
       <c r="GF15" s="16"/>
     </row>
-    <row r="16" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:188" ht="9" customHeight="1">
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -31466,7 +31976,7 @@
       <c r="GE16" s="15"/>
       <c r="GF16" s="16"/>
     </row>
-    <row r="17" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:188" ht="9" customHeight="1">
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -31806,7 +32316,7 @@
       <c r="GE17" s="15"/>
       <c r="GF17" s="16"/>
     </row>
-    <row r="18" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:188" ht="9" customHeight="1">
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -31990,7 +32500,7 @@
       <c r="GE18" s="15"/>
       <c r="GF18" s="16"/>
     </row>
-    <row r="19" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:188" ht="9" customHeight="1">
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -32412,7 +32922,7 @@
       <c r="GE19" s="15"/>
       <c r="GF19" s="16"/>
     </row>
-    <row r="20" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:188" ht="9" customHeight="1">
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -32652,7 +33162,7 @@
       <c r="GE20" s="15"/>
       <c r="GF20" s="16"/>
     </row>
-    <row r="21" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:188" ht="9" customHeight="1">
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -32906,7 +33416,7 @@
       <c r="GE21" s="15"/>
       <c r="GF21" s="16"/>
     </row>
-    <row r="22" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:188" ht="9" customHeight="1">
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -33160,7 +33670,7 @@
       <c r="GE22" s="15"/>
       <c r="GF22" s="16"/>
     </row>
-    <row r="23" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:188" ht="9" customHeight="1">
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -33414,7 +33924,7 @@
       <c r="GE23" s="15"/>
       <c r="GF23" s="16"/>
     </row>
-    <row r="24" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:188" ht="9" customHeight="1">
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -33836,7 +34346,7 @@
       <c r="GE24" s="15"/>
       <c r="GF24" s="16"/>
     </row>
-    <row r="25" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:188" ht="9" customHeight="1">
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -34023,7 +34533,7 @@
       <c r="GE25" s="15"/>
       <c r="GF25" s="16"/>
     </row>
-    <row r="26" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:188" ht="9" customHeight="1">
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -34447,7 +34957,7 @@
       <c r="GD26" s="15"/>
       <c r="GF26" s="16"/>
     </row>
-    <row r="27" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:188" ht="9" customHeight="1">
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -34689,7 +35199,7 @@
       <c r="GD27" s="15"/>
       <c r="GF27" s="16"/>
     </row>
-    <row r="28" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:188" ht="9" customHeight="1">
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -34945,7 +35455,7 @@
       <c r="GD28" s="15"/>
       <c r="GF28" s="16"/>
     </row>
-    <row r="29" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:188" ht="9" customHeight="1">
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -35204,7 +35714,7 @@
       <c r="GD29" s="15"/>
       <c r="GF29" s="16"/>
     </row>
-    <row r="30" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:188" ht="9" customHeight="1">
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -35463,7 +35973,7 @@
       <c r="GD30" s="15"/>
       <c r="GF30" s="16"/>
     </row>
-    <row r="31" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:188" ht="9" customHeight="1">
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -35884,7 +36394,7 @@
       <c r="GD31" s="15"/>
       <c r="GF31" s="16"/>
     </row>
-    <row r="32" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:188" ht="9" customHeight="1">
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -36068,7 +36578,7 @@
       <c r="GE32" s="15"/>
       <c r="GF32" s="16"/>
     </row>
-    <row r="33" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:188" ht="9" customHeight="1">
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -36456,7 +36966,7 @@
       <c r="GE33" s="6"/>
       <c r="GF33" s="16"/>
     </row>
-    <row r="34" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:188" ht="9" customHeight="1">
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -36687,7 +37197,7 @@
       </c>
       <c r="GF34" s="16"/>
     </row>
-    <row r="35" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:188" ht="9" customHeight="1">
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -36929,7 +37439,7 @@
       </c>
       <c r="GF35" s="16"/>
     </row>
-    <row r="36" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:188" ht="9" customHeight="1">
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -37173,7 +37683,7 @@
       </c>
       <c r="GF36" s="16"/>
     </row>
-    <row r="37" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:188" ht="9" customHeight="1">
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -37417,7 +37927,7 @@
       </c>
       <c r="GF37" s="16"/>
     </row>
-    <row r="38" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:188" ht="9" customHeight="1">
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -37791,7 +38301,7 @@
       </c>
       <c r="GF38" s="16"/>
     </row>
-    <row r="39" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:188" ht="9" customHeight="1">
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -37975,7 +38485,7 @@
       <c r="GE39" s="15"/>
       <c r="GF39" s="16"/>
     </row>
-    <row r="40" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="6:188" ht="9" customHeight="1">
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -38399,7 +38909,7 @@
       </c>
       <c r="GF40" s="16"/>
     </row>
-    <row r="41" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="6:188" ht="9" customHeight="1">
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -38639,7 +39149,7 @@
       <c r="GE41" s="15"/>
       <c r="GF41" s="16"/>
     </row>
-    <row r="42" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="6:188" ht="9" customHeight="1">
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -38893,7 +39403,7 @@
       <c r="GE42" s="15"/>
       <c r="GF42" s="16"/>
     </row>
-    <row r="43" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:188" ht="9" customHeight="1">
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -39147,7 +39657,7 @@
       <c r="GE43" s="15"/>
       <c r="GF43" s="16"/>
     </row>
-    <row r="44" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="6:188" ht="9" customHeight="1">
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -39401,7 +39911,7 @@
       <c r="GE44" s="15"/>
       <c r="GF44" s="16"/>
     </row>
-    <row r="45" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="6:188" ht="9" customHeight="1">
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -39823,7 +40333,7 @@
       <c r="GE45" s="15"/>
       <c r="GF45" s="16"/>
     </row>
-    <row r="46" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:188" ht="9" customHeight="1">
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -40007,7 +40517,7 @@
       <c r="GE46" s="15"/>
       <c r="GF46" s="16"/>
     </row>
-    <row r="47" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="6:188" ht="9" customHeight="1">
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -40429,7 +40939,7 @@
       <c r="GE47" s="15"/>
       <c r="GF47" s="16"/>
     </row>
-    <row r="48" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="6:188" ht="9" customHeight="1">
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -40669,7 +41179,7 @@
       <c r="GE48" s="15"/>
       <c r="GF48" s="16"/>
     </row>
-    <row r="49" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="6:188" ht="9" customHeight="1">
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -40923,7 +41433,7 @@
       <c r="GE49" s="15"/>
       <c r="GF49" s="16"/>
     </row>
-    <row r="50" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="6:188" ht="9" customHeight="1">
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -41177,7 +41687,7 @@
       <c r="GE50" s="15"/>
       <c r="GF50" s="16"/>
     </row>
-    <row r="51" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="6:188" ht="9" customHeight="1">
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -41431,7 +41941,7 @@
       <c r="GE51" s="15"/>
       <c r="GF51" s="16"/>
     </row>
-    <row r="52" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="6:188" ht="9" customHeight="1">
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -41853,7 +42363,7 @@
       <c r="GE52" s="15"/>
       <c r="GF52" s="16"/>
     </row>
-    <row r="53" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="6:188" ht="9" customHeight="1">
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -42037,7 +42547,7 @@
       <c r="GE53" s="15"/>
       <c r="GF53" s="16"/>
     </row>
-    <row r="54" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="6:188" ht="9" customHeight="1">
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -42459,7 +42969,7 @@
       <c r="GE54" s="15"/>
       <c r="GF54" s="16"/>
     </row>
-    <row r="55" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="6:188" ht="9" customHeight="1">
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -42699,7 +43209,7 @@
       <c r="GE55" s="15"/>
       <c r="GF55" s="16"/>
     </row>
-    <row r="56" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="6:188" ht="9" customHeight="1">
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -42953,7 +43463,7 @@
       <c r="GE56" s="15"/>
       <c r="GF56" s="16"/>
     </row>
-    <row r="57" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="6:188" ht="9" customHeight="1">
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -43207,7 +43717,7 @@
       <c r="GE57" s="15"/>
       <c r="GF57" s="16"/>
     </row>
-    <row r="58" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="6:188" ht="9" customHeight="1">
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -43461,7 +43971,7 @@
       <c r="GE58" s="15"/>
       <c r="GF58" s="16"/>
     </row>
-    <row r="59" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="6:188" ht="9" customHeight="1">
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -43883,7 +44393,7 @@
       <c r="GE59" s="15"/>
       <c r="GF59" s="16"/>
     </row>
-    <row r="60" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="6:188" ht="9" customHeight="1">
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -44067,7 +44577,7 @@
       <c r="GE60" s="15"/>
       <c r="GF60" s="16"/>
     </row>
-    <row r="61" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="6:188" ht="9" customHeight="1">
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -44457,7 +44967,7 @@
       </c>
       <c r="GF61" s="16"/>
     </row>
-    <row r="62" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="6:188" ht="9" customHeight="1">
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -44689,7 +45199,7 @@
       <c r="GE62" s="15"/>
       <c r="GF62" s="16"/>
     </row>
-    <row r="63" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="6:188" ht="9" customHeight="1">
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -44933,7 +45443,7 @@
       <c r="GE63" s="15"/>
       <c r="GF63" s="16"/>
     </row>
-    <row r="64" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="6:188" ht="9" customHeight="1">
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -45177,7 +45687,7 @@
       <c r="GE64" s="15"/>
       <c r="GF64" s="16"/>
     </row>
-    <row r="65" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="6:188" ht="9" customHeight="1">
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -45421,7 +45931,7 @@
       <c r="GE65" s="15"/>
       <c r="GF65" s="16"/>
     </row>
-    <row r="66" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="6:188" ht="9" customHeight="1">
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -45809,7 +46319,7 @@
       <c r="GE66" s="15"/>
       <c r="GF66" s="16"/>
     </row>
-    <row r="67" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="6:188" ht="9" customHeight="1">
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -45993,7 +46503,7 @@
       <c r="GE67" s="15"/>
       <c r="GF67" s="16"/>
     </row>
-    <row r="68" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="6:188" ht="9" customHeight="1">
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -46432,7 +46942,7 @@
       <c r="GE68" s="15"/>
       <c r="GF68" s="16"/>
     </row>
-    <row r="69" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="6:188" ht="9" customHeight="1">
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -46676,7 +47186,7 @@
       <c r="GE69" s="15"/>
       <c r="GF69" s="16"/>
     </row>
-    <row r="70" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="6:188" ht="9" customHeight="1">
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -46937,7 +47447,7 @@
       </c>
       <c r="GF70" s="16"/>
     </row>
-    <row r="71" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="6:188" ht="9" customHeight="1">
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -47198,7 +47708,7 @@
       </c>
       <c r="GF71" s="16"/>
     </row>
-    <row r="72" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="6:188" ht="9" customHeight="1">
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -47459,7 +47969,7 @@
       </c>
       <c r="GF72" s="16"/>
     </row>
-    <row r="73" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="6:188" ht="9" customHeight="1">
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -47900,7 +48410,7 @@
       </c>
       <c r="GF73" s="16"/>
     </row>
-    <row r="74" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="6:188" ht="9" customHeight="1">
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -48087,7 +48597,7 @@
       <c r="GE74" s="15"/>
       <c r="GF74" s="16"/>
     </row>
-    <row r="75" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="6:188" ht="9" customHeight="1">
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -48512,7 +49022,7 @@
       <c r="GE75" s="15"/>
       <c r="GF75" s="16"/>
     </row>
-    <row r="76" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="6:188" ht="9" customHeight="1">
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -48755,7 +49265,7 @@
       <c r="GE76" s="15"/>
       <c r="GF76" s="16"/>
     </row>
-    <row r="77" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="6:188" ht="9" customHeight="1">
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -49012,7 +49522,7 @@
       <c r="GE77" s="15"/>
       <c r="GF77" s="16"/>
     </row>
-    <row r="78" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="6:188" ht="9" customHeight="1">
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -49272,7 +49782,7 @@
       <c r="GE78" s="15"/>
       <c r="GF78" s="16"/>
     </row>
-    <row r="79" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="6:188" ht="9" customHeight="1">
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -49532,7 +50042,7 @@
       <c r="GE79" s="15"/>
       <c r="GF79" s="16"/>
     </row>
-    <row r="80" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="6:188" ht="9" customHeight="1">
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -49958,7 +50468,7 @@
       <c r="GE80" s="15"/>
       <c r="GF80" s="16"/>
     </row>
-    <row r="81" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="6:188" ht="9" customHeight="1">
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -50142,7 +50652,7 @@
       <c r="GE81" s="15"/>
       <c r="GF81" s="16"/>
     </row>
-    <row r="82" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="6:188" ht="9" customHeight="1">
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -50445,7 +50955,7 @@
       <c r="GE82" s="15"/>
       <c r="GF82" s="16"/>
     </row>
-    <row r="83" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="6:188" ht="9" customHeight="1">
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -50657,7 +51167,7 @@
       <c r="GE83" s="15"/>
       <c r="GF83" s="16"/>
     </row>
-    <row r="84" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="6:188" ht="9" customHeight="1">
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -50876,7 +51386,7 @@
       <c r="GE84" s="15"/>
       <c r="GF84" s="16"/>
     </row>
-    <row r="85" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="6:188" ht="9" customHeight="1">
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -51095,7 +51605,7 @@
       <c r="GE85" s="15"/>
       <c r="GF85" s="16"/>
     </row>
-    <row r="86" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="6:188" ht="9" customHeight="1">
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -51314,7 +51824,7 @@
       <c r="GE86" s="15"/>
       <c r="GF86" s="16"/>
     </row>
-    <row r="87" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="6:188" ht="9" customHeight="1">
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -51617,7 +52127,7 @@
       <c r="GE87" s="15"/>
       <c r="GF87" s="16"/>
     </row>
-    <row r="88" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="6:188" ht="9" customHeight="1">
       <c r="F88" s="14"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -51801,7 +52311,7 @@
       <c r="GE88" s="15"/>
       <c r="GF88" s="16"/>
     </row>
-    <row r="89" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="6:188" ht="9" customHeight="1">
       <c r="F89" s="14"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -51990,7 +52500,7 @@
       <c r="GE89" s="15"/>
       <c r="GF89" s="16"/>
     </row>
-    <row r="90" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="6:188" ht="9" customHeight="1">
       <c r="F90" s="18"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
@@ -52180,33 +52690,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CM88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="1.453125" style="8"/>
+    <col min="1" max="7" width="1.5" style="8"/>
     <col min="8" max="44" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="45" max="16384" width="1.453125" style="8"/>
+    <col min="45" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="2" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="5" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="6" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
@@ -52290,9 +52800,9 @@
       <c r="CI6" s="10"/>
       <c r="CJ6" s="10"/>
     </row>
-    <row r="7" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="8" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="9" spans="2:91" ht="9" customHeight="1">
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -52380,7 +52890,7 @@
       <c r="CL9" s="12"/>
       <c r="CM9" s="13"/>
     </row>
-    <row r="10" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:91" ht="9" customHeight="1">
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -52468,7 +52978,7 @@
       <c r="CL10" s="15"/>
       <c r="CM10" s="16"/>
     </row>
-    <row r="11" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:91" ht="9" customHeight="1">
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -52643,7 +53153,7 @@
       <c r="CL11" s="15"/>
       <c r="CM11" s="16"/>
     </row>
-    <row r="12" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:91" ht="9" customHeight="1">
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -52751,7 +53261,7 @@
       <c r="CL12" s="15"/>
       <c r="CM12" s="16"/>
     </row>
-    <row r="13" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:91" ht="9" customHeight="1">
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -52864,7 +53374,7 @@
       <c r="CL13" s="15"/>
       <c r="CM13" s="16"/>
     </row>
-    <row r="14" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:91" ht="9" customHeight="1">
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -52977,7 +53487,7 @@
       <c r="CL14" s="15"/>
       <c r="CM14" s="16"/>
     </row>
-    <row r="15" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:91" ht="9" customHeight="1">
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -53090,7 +53600,7 @@
       <c r="CL15" s="15"/>
       <c r="CM15" s="16"/>
     </row>
-    <row r="16" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:91" ht="9" customHeight="1">
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -53263,7 +53773,7 @@
       <c r="CL16" s="15"/>
       <c r="CM16" s="16"/>
     </row>
-    <row r="17" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:91" ht="9" customHeight="1">
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -53351,7 +53861,7 @@
       <c r="CL17" s="15"/>
       <c r="CM17" s="16"/>
     </row>
-    <row r="18" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:91" ht="9" customHeight="1">
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -53541,7 +54051,7 @@
       <c r="CL18" s="15"/>
       <c r="CM18" s="16"/>
     </row>
-    <row r="19" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:91" ht="9" customHeight="1">
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -53653,7 +54163,7 @@
       <c r="CL19" s="15"/>
       <c r="CM19" s="16"/>
     </row>
-    <row r="20" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:91" ht="9" customHeight="1">
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -53771,7 +54281,7 @@
       <c r="CL20" s="15"/>
       <c r="CM20" s="16"/>
     </row>
-    <row r="21" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:91" ht="9" customHeight="1">
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -53889,7 +54399,7 @@
       <c r="CL21" s="15"/>
       <c r="CM21" s="16"/>
     </row>
-    <row r="22" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:91" ht="9" customHeight="1">
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -54007,7 +54517,7 @@
       <c r="CL22" s="15"/>
       <c r="CM22" s="16"/>
     </row>
-    <row r="23" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:91" ht="9" customHeight="1">
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -54197,7 +54707,7 @@
       <c r="CL23" s="15"/>
       <c r="CM23" s="16"/>
     </row>
-    <row r="24" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:91" ht="9" customHeight="1">
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -54285,7 +54795,7 @@
       <c r="CL24" s="15"/>
       <c r="CM24" s="16"/>
     </row>
-    <row r="25" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:91" ht="9" customHeight="1">
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -54475,7 +54985,7 @@
       <c r="CL25" s="15"/>
       <c r="CM25" s="16"/>
     </row>
-    <row r="26" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:91" ht="9" customHeight="1">
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -54587,7 +55097,7 @@
       <c r="CL26" s="15"/>
       <c r="CM26" s="16"/>
     </row>
-    <row r="27" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:91" ht="9" customHeight="1">
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -54705,7 +55215,7 @@
       <c r="CL27" s="15"/>
       <c r="CM27" s="16"/>
     </row>
-    <row r="28" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:91" ht="9" customHeight="1">
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -54823,7 +55333,7 @@
       <c r="CL28" s="15"/>
       <c r="CM28" s="16"/>
     </row>
-    <row r="29" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:91" ht="9" customHeight="1">
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -54941,7 +55451,7 @@
       <c r="CL29" s="15"/>
       <c r="CM29" s="16"/>
     </row>
-    <row r="30" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:91" ht="9" customHeight="1">
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -55131,7 +55641,7 @@
       <c r="CL30" s="15"/>
       <c r="CM30" s="16"/>
     </row>
-    <row r="31" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:91" ht="9" customHeight="1">
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -55219,7 +55729,7 @@
       <c r="CL31" s="15"/>
       <c r="CM31" s="16"/>
     </row>
-    <row r="32" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:91" ht="9" customHeight="1">
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -55409,7 +55919,7 @@
       <c r="CL32" s="15"/>
       <c r="CM32" s="16"/>
     </row>
-    <row r="33" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:91" ht="9" customHeight="1">
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -55517,7 +56027,7 @@
       <c r="CL33" s="15"/>
       <c r="CM33" s="16"/>
     </row>
-    <row r="34" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:91" ht="9" customHeight="1">
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -55630,7 +56140,7 @@
       <c r="CL34" s="15"/>
       <c r="CM34" s="16"/>
     </row>
-    <row r="35" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:91" ht="9" customHeight="1">
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -55745,7 +56255,7 @@
       <c r="CL35" s="15"/>
       <c r="CM35" s="16"/>
     </row>
-    <row r="36" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:91" ht="9" customHeight="1">
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -55860,7 +56370,7 @@
       <c r="CL36" s="15"/>
       <c r="CM36" s="16"/>
     </row>
-    <row r="37" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:91" ht="9" customHeight="1">
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -56033,7 +56543,7 @@
       <c r="CL37" s="15"/>
       <c r="CM37" s="16"/>
     </row>
-    <row r="38" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:91" ht="9" customHeight="1">
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -56121,7 +56631,7 @@
       <c r="CL38" s="15"/>
       <c r="CM38" s="16"/>
     </row>
-    <row r="39" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:91" ht="9" customHeight="1">
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -56328,7 +56838,7 @@
       <c r="CL39" s="15"/>
       <c r="CM39" s="16"/>
     </row>
-    <row r="40" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="6:91" ht="9" customHeight="1">
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -56444,7 +56954,7 @@
       <c r="CL40" s="15"/>
       <c r="CM40" s="16"/>
     </row>
-    <row r="41" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="6:91" ht="9" customHeight="1">
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -56567,7 +57077,7 @@
       <c r="CL41" s="15"/>
       <c r="CM41" s="16"/>
     </row>
-    <row r="42" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="6:91" ht="9" customHeight="1">
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -56690,7 +57200,7 @@
       <c r="CL42" s="15"/>
       <c r="CM42" s="16"/>
     </row>
-    <row r="43" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:91" ht="9" customHeight="1">
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -56813,7 +57323,7 @@
       <c r="CL43" s="15"/>
       <c r="CM43" s="16"/>
     </row>
-    <row r="44" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="6:91" ht="9" customHeight="1">
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -57020,7 +57530,7 @@
       <c r="CL44" s="15"/>
       <c r="CM44" s="16"/>
     </row>
-    <row r="45" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="6:91" ht="9" customHeight="1">
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -57108,7 +57618,7 @@
       <c r="CL45" s="15"/>
       <c r="CM45" s="16"/>
     </row>
-    <row r="46" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:91" ht="9" customHeight="1">
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -57315,7 +57825,7 @@
       <c r="CL46" s="15"/>
       <c r="CM46" s="16"/>
     </row>
-    <row r="47" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="6:91" ht="9" customHeight="1">
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -57431,7 +57941,7 @@
       <c r="CL47" s="15"/>
       <c r="CM47" s="16"/>
     </row>
-    <row r="48" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="6:91" ht="9" customHeight="1">
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -57554,7 +58064,7 @@
       <c r="CL48" s="15"/>
       <c r="CM48" s="16"/>
     </row>
-    <row r="49" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="6:91" ht="9" customHeight="1">
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -57677,7 +58187,7 @@
       <c r="CL49" s="15"/>
       <c r="CM49" s="16"/>
     </row>
-    <row r="50" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="6:91" ht="9" customHeight="1">
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -57800,7 +58310,7 @@
       <c r="CL50" s="15"/>
       <c r="CM50" s="16"/>
     </row>
-    <row r="51" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="6:91" ht="9" customHeight="1">
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -58007,7 +58517,7 @@
       <c r="CL51" s="15"/>
       <c r="CM51" s="16"/>
     </row>
-    <row r="52" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="6:91" ht="9" customHeight="1">
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -58095,7 +58605,7 @@
       <c r="CL52" s="15"/>
       <c r="CM52" s="16"/>
     </row>
-    <row r="53" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="6:91" ht="9" customHeight="1">
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -58302,7 +58812,7 @@
       <c r="CL53" s="15"/>
       <c r="CM53" s="16"/>
     </row>
-    <row r="54" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="6:91" ht="9" customHeight="1">
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -58418,7 +58928,7 @@
       <c r="CL54" s="15"/>
       <c r="CM54" s="16"/>
     </row>
-    <row r="55" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="6:91" ht="9" customHeight="1">
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -58541,7 +59051,7 @@
       <c r="CL55" s="15"/>
       <c r="CM55" s="16"/>
     </row>
-    <row r="56" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="6:91" ht="9" customHeight="1">
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -58664,7 +59174,7 @@
       <c r="CL56" s="15"/>
       <c r="CM56" s="16"/>
     </row>
-    <row r="57" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="6:91" ht="9" customHeight="1">
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -58787,7 +59297,7 @@
       <c r="CL57" s="15"/>
       <c r="CM57" s="16"/>
     </row>
-    <row r="58" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="6:91" ht="9" customHeight="1">
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -58994,7 +59504,7 @@
       <c r="CL58" s="15"/>
       <c r="CM58" s="16"/>
     </row>
-    <row r="59" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="6:91" ht="9" customHeight="1">
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -59082,7 +59592,7 @@
       <c r="CL59" s="15"/>
       <c r="CM59" s="16"/>
     </row>
-    <row r="60" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="6:91" ht="9" customHeight="1">
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -59272,7 +59782,7 @@
       <c r="CL60" s="15"/>
       <c r="CM60" s="16"/>
     </row>
-    <row r="61" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="6:91" ht="9" customHeight="1">
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -59384,7 +59894,7 @@
       <c r="CL61" s="15"/>
       <c r="CM61" s="16"/>
     </row>
-    <row r="62" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="6:91" ht="9" customHeight="1">
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -59502,7 +60012,7 @@
       <c r="CL62" s="15"/>
       <c r="CM62" s="16"/>
     </row>
-    <row r="63" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="6:91" ht="9" customHeight="1">
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -59620,7 +60130,7 @@
       <c r="CL63" s="15"/>
       <c r="CM63" s="16"/>
     </row>
-    <row r="64" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="6:91" ht="9" customHeight="1">
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -59738,7 +60248,7 @@
       <c r="CL64" s="15"/>
       <c r="CM64" s="16"/>
     </row>
-    <row r="65" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="6:91" ht="9" customHeight="1">
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -59928,7 +60438,7 @@
       <c r="CL65" s="15"/>
       <c r="CM65" s="16"/>
     </row>
-    <row r="66" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="6:91" ht="9" customHeight="1">
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -60016,7 +60526,7 @@
       <c r="CL66" s="15"/>
       <c r="CM66" s="16"/>
     </row>
-    <row r="67" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="6:91" ht="9" customHeight="1">
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -60223,7 +60733,7 @@
       <c r="CL67" s="15"/>
       <c r="CM67" s="16"/>
     </row>
-    <row r="68" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="6:91" ht="9" customHeight="1">
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -60339,7 +60849,7 @@
       <c r="CL68" s="15"/>
       <c r="CM68" s="16"/>
     </row>
-    <row r="69" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="6:91" ht="9" customHeight="1">
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -60462,7 +60972,7 @@
       <c r="CL69" s="15"/>
       <c r="CM69" s="16"/>
     </row>
-    <row r="70" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="6:91" ht="9" customHeight="1">
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -60585,7 +61095,7 @@
       <c r="CL70" s="15"/>
       <c r="CM70" s="16"/>
     </row>
-    <row r="71" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="6:91" ht="9" customHeight="1">
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -60708,7 +61218,7 @@
       <c r="CL71" s="15"/>
       <c r="CM71" s="16"/>
     </row>
-    <row r="72" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="6:91" ht="9" customHeight="1">
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -60915,7 +61425,7 @@
       <c r="CL72" s="15"/>
       <c r="CM72" s="16"/>
     </row>
-    <row r="73" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="6:91" ht="9" customHeight="1">
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -61003,7 +61513,7 @@
       <c r="CL73" s="15"/>
       <c r="CM73" s="16"/>
     </row>
-    <row r="74" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="6:91" ht="9" customHeight="1">
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -61210,7 +61720,7 @@
       <c r="CL74" s="15"/>
       <c r="CM74" s="16"/>
     </row>
-    <row r="75" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="6:91" ht="9" customHeight="1">
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -61326,7 +61836,7 @@
       <c r="CL75" s="15"/>
       <c r="CM75" s="16"/>
     </row>
-    <row r="76" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="6:91" ht="9" customHeight="1">
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -61449,7 +61959,7 @@
       <c r="CL76" s="15"/>
       <c r="CM76" s="16"/>
     </row>
-    <row r="77" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="6:91" ht="9" customHeight="1">
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -61572,7 +62082,7 @@
       <c r="CL77" s="15"/>
       <c r="CM77" s="16"/>
     </row>
-    <row r="78" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="6:91" ht="9" customHeight="1">
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -61695,7 +62205,7 @@
       <c r="CL78" s="15"/>
       <c r="CM78" s="16"/>
     </row>
-    <row r="79" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="6:91" ht="9" customHeight="1">
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -61902,7 +62412,7 @@
       <c r="CL79" s="15"/>
       <c r="CM79" s="16"/>
     </row>
-    <row r="80" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="6:91" ht="9" customHeight="1">
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -61990,7 +62500,7 @@
       <c r="CL80" s="15"/>
       <c r="CM80" s="16"/>
     </row>
-    <row r="81" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="6:91" ht="9" customHeight="1">
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -62146,7 +62656,7 @@
       <c r="CL81" s="15"/>
       <c r="CM81" s="16"/>
     </row>
-    <row r="82" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="6:91" ht="9" customHeight="1">
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -62250,7 +62760,7 @@
       <c r="CL82" s="15"/>
       <c r="CM82" s="16"/>
     </row>
-    <row r="83" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="6:91" ht="9" customHeight="1">
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -62358,7 +62868,7 @@
       <c r="CL83" s="15"/>
       <c r="CM83" s="16"/>
     </row>
-    <row r="84" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="6:91" ht="9" customHeight="1">
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -62466,7 +62976,7 @@
       <c r="CL84" s="15"/>
       <c r="CM84" s="16"/>
     </row>
-    <row r="85" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="6:91" ht="9" customHeight="1">
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -62574,7 +63084,7 @@
       <c r="CL85" s="15"/>
       <c r="CM85" s="16"/>
     </row>
-    <row r="86" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="6:91" ht="9" customHeight="1">
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -62730,7 +63240,7 @@
       <c r="CL86" s="15"/>
       <c r="CM86" s="16"/>
     </row>
-    <row r="87" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="6:91" ht="9" customHeight="1">
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -62818,7 +63328,7 @@
       <c r="CL87" s="15"/>
       <c r="CM87" s="16"/>
     </row>
-    <row r="88" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="6:91" ht="9" customHeight="1">
       <c r="F88" s="18"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
@@ -62913,21 +63423,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="45.26953125" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -62938,7 +63448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40.5">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -62947,7 +63457,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="54">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -62956,7 +63466,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="94.5">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -62970,7 +63480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -62978,7 +63488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -62986,12 +63496,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -63003,31 +63513,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:X58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:24">
       <c r="C2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:24">
       <c r="D3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24">
+      <c r="D4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:24">
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -63050,7 +63558,7 @@
       <c r="W7" s="31"/>
       <c r="X7" s="32"/>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:24">
       <c r="D8" s="33"/>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
@@ -63073,7 +63581,7 @@
       <c r="W8" s="37"/>
       <c r="X8" s="34"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:24">
       <c r="D9" s="33"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43"/>
@@ -63096,7 +63604,7 @@
       <c r="W9" s="44"/>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:24">
       <c r="D10" s="33"/>
       <c r="E10" s="45"/>
       <c r="F10" s="46"/>
@@ -63119,7 +63627,7 @@
       <c r="W10" s="47"/>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:24">
       <c r="D11" s="33"/>
       <c r="E11" s="45"/>
       <c r="F11" s="46"/>
@@ -63142,7 +63650,7 @@
       <c r="W11" s="47"/>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:24">
       <c r="D12" s="33"/>
       <c r="E12" s="45"/>
       <c r="F12" s="46"/>
@@ -63165,7 +63673,7 @@
       <c r="W12" s="47"/>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:24">
       <c r="D13" s="33"/>
       <c r="E13" s="45"/>
       <c r="F13" s="46"/>
@@ -63188,7 +63696,7 @@
       <c r="W13" s="47"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:24">
       <c r="D14" s="33"/>
       <c r="E14" s="45"/>
       <c r="F14" s="46"/>
@@ -63211,7 +63719,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:24">
       <c r="D15" s="33"/>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -63234,7 +63742,7 @@
       <c r="W15" s="47"/>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:24">
       <c r="D16" s="33"/>
       <c r="E16" s="45"/>
       <c r="F16" s="46"/>
@@ -63257,7 +63765,7 @@
       <c r="W16" s="47"/>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24">
       <c r="D17" s="33"/>
       <c r="E17" s="48"/>
       <c r="F17" s="49"/>
@@ -63280,11 +63788,11 @@
       <c r="W17" s="50"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24">
       <c r="D18" s="33"/>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24">
       <c r="D19" s="33"/>
       <c r="E19" t="s">
         <v>102</v>
@@ -63294,11 +63802,11 @@
       </c>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:24">
       <c r="D20" s="33"/>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24">
       <c r="D21" s="36"/>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
@@ -63321,143 +63829,143 @@
       <c r="W21" s="37"/>
       <c r="X21" s="38"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24">
       <c r="C23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24">
       <c r="D24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24">
+      <c r="E25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
+    <row r="26" spans="3:24">
+      <c r="E26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+    <row r="28" spans="3:24">
+      <c r="E28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>124</v>
+    <row r="30" spans="3:24">
+      <c r="D30" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
+    <row r="31" spans="3:24">
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24">
+      <c r="F32" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
+    <row r="34" spans="4:7">
+      <c r="D34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>152</v>
+    <row r="35" spans="4:7">
+      <c r="E35" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
+    <row r="36" spans="4:7">
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="F39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="E41" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
-        <v>137</v>
+    <row r="42" spans="4:7">
+      <c r="F42" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>138</v>
+    <row r="43" spans="4:7">
+      <c r="G43" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
-        <v>139</v>
+    <row r="44" spans="4:7">
+      <c r="G44" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G43" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:7" s="64" customFormat="1">
       <c r="D48" s="64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:7">
       <c r="E49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:7">
       <c r="F50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:7">
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:7">
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:7">
       <c r="F55">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:7">
       <c r="F56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="F58" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F58" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -63469,78 +63977,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153CEC39-D8BD-4BB7-8B6B-7E584E9ACE2A}">
-  <dimension ref="B2:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="C7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="D9" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="D10" s="73" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="73"/>
+      <c r="I10" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="I11" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="D12" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="L12" s="77"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="D13" s="73"/>
+      <c r="E13" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="73"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="L14" s="77"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="I15" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="I16" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="J16" s="76" t="s">
         <v>259</v>
       </c>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>260</v>
-      </c>
+    <row r="17" spans="2:12">
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="18" spans="2:12">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76" t="s">
         <v>262</v>
       </c>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="19" spans="2:12">
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76" t="s">
         <v>263</v>
       </c>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>261</v>
-      </c>
+    <row r="20" spans="2:12">
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="75" t="s">
-        <v>264</v>
-      </c>
+    <row r="21" spans="2:12">
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="75"/>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>276</v>
+      </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>258</v>
+    <row r="25" spans="2:12">
+      <c r="C25" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>262</v>
+    <row r="26" spans="2:12">
+      <c r="C26" t="s">
+        <v>280</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="75" t="s">
-        <v>264</v>
+    <row r="27" spans="2:12">
+      <c r="C27" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG80"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="69"/>
     <col min="2" max="2" width="3" style="70"/>
@@ -63550,435 +64224,435 @@
     <col min="33" max="33" width="3" style="73"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33">
       <c r="B2" s="70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33">
+      <c r="C3" s="69" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="C3" s="69" t="s">
-        <v>132</v>
+    <row r="4" spans="2:33">
+      <c r="C4" s="69" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="C4" s="69" t="s">
+    <row r="6" spans="2:33">
+      <c r="B6" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC6" s="71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33">
+      <c r="C7" s="70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33">
+      <c r="D8" s="69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33">
+      <c r="E9" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC9" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33">
+      <c r="E10" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC10" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG10" s="73" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33">
+      <c r="F11" s="69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33">
+      <c r="F12" s="69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33">
+      <c r="F13" s="69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33">
+      <c r="D14" s="69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33">
+      <c r="E15" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC15" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG15" s="73" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="3:33">
+      <c r="D17" s="69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="3:33">
+      <c r="E18" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC18" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="3:33">
+      <c r="D20" s="69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33">
+      <c r="E21" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC21" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG21" s="73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33">
+      <c r="E22" s="69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33">
+      <c r="D23" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33">
+      <c r="E24" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC24" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG24" s="74" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33">
+      <c r="E25" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC25" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG25" s="74" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33">
+      <c r="D27" s="69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33">
+      <c r="E28" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC28" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33">
+      <c r="E29" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC29" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33">
+      <c r="E30" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC30" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33">
+      <c r="C32" s="70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="3:33">
+      <c r="D33" s="69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="3:33">
+      <c r="E34" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC34" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="3:33">
+      <c r="D35" s="72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="3:33">
+      <c r="D36" s="69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="3:33">
+      <c r="E37" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC37" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="3:33">
+      <c r="D38" s="72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="3:33">
+      <c r="C41" s="70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="3:33">
+      <c r="D42" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC42" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG42" s="73" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="3:33">
+      <c r="E44" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC44" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="3:33">
+      <c r="E45" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC45" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="3:33">
+      <c r="E46" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC46" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="3:33">
+      <c r="E47" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC47" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="3:33">
+      <c r="E48" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC48" s="71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="4:29">
+      <c r="D50" s="69" t="s">
         <v>175</v>
       </c>
+      <c r="AC50" s="71" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B6" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC6" s="71" t="s">
+    <row r="51" spans="4:29">
+      <c r="E51" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC51" s="71" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="C7" s="70" t="s">
-        <v>159</v>
+    <row r="52" spans="4:29">
+      <c r="E52" s="72" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D8" s="69" t="s">
+    <row r="53" spans="4:29">
+      <c r="E53" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC53" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="4:29">
+      <c r="E54" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC54" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="4:29">
+      <c r="D56" s="69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="4:29">
+      <c r="E57" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC57" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="4:29">
+      <c r="E58" s="69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="4:29">
+      <c r="E59" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC59" s="71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="4:29">
+      <c r="D63" s="69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="E9" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC9" s="71" t="s">
-        <v>225</v>
+    <row r="64" spans="4:29">
+      <c r="E64" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC64" s="71" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="E10" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC10" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG10" s="73" t="s">
-        <v>226</v>
+    <row r="67" spans="3:33">
+      <c r="D67" s="69" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="F11" s="69" t="s">
-        <v>144</v>
+    <row r="68" spans="3:33">
+      <c r="D68" s="69" t="s">
+        <v>231</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="F12" s="69" t="s">
-        <v>145</v>
+    <row r="69" spans="3:33">
+      <c r="E69" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC69" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG69" s="74" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="F13" s="69" t="s">
-        <v>146</v>
+    <row r="70" spans="3:33">
+      <c r="E70" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC70" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG70" s="74" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="D14" s="69" t="s">
-        <v>136</v>
+    <row r="72" spans="3:33">
+      <c r="C72" s="70" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="E15" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC15" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG15" s="73" t="s">
-        <v>227</v>
+    <row r="73" spans="3:33">
+      <c r="D73" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC73" s="71" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D17" s="69" t="s">
-        <v>135</v>
+    <row r="74" spans="3:33">
+      <c r="D74" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" s="69" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E18" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC18" s="71" t="s">
-        <v>225</v>
+    <row r="76" spans="3:33">
+      <c r="C76" s="70" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D20" s="69" t="s">
-        <v>158</v>
+    <row r="77" spans="3:33">
+      <c r="D77" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC77" s="71" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E21" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC21" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG21" s="73" t="s">
-        <v>228</v>
+    <row r="79" spans="3:33">
+      <c r="D79" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC79" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG79" s="74" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E22" s="69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D23" s="69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E24" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC24" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG24" s="74" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E25" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC25" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG25" s="74" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D27" s="69" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E28" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC28" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E29" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC29" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E30" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC30" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C32" s="70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D33" s="69" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E34" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC34" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D35" s="72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D36" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E37" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC37" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D38" s="72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C41" s="70" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D42" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC42" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG42" s="73" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E44" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC44" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E45" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC45" s="71" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E46" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC46" s="71" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E47" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC47" s="71" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E48" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC48" s="71" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D50" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC50" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E51" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC51" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E52" s="72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E53" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC53" s="71" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E54" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC54" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D56" s="69" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E57" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC57" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E58" s="69" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="59" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E59" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC59" s="71" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="D63" s="69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="4:29" x14ac:dyDescent="0.2">
-      <c r="E64" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC64" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D67" s="69" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D68" s="69" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E69" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC69" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG69" s="74" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E70" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC70" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG70" s="74" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C72" s="70" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D73" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC73" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D74" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="E74" s="69" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="C76" s="70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D77" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC77" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="79" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="D79" s="69" t="s">
+    <row r="80" spans="3:33">
+      <c r="E80" s="69" t="s">
         <v>241</v>
-      </c>
-      <c r="AC79" s="71" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG79" s="74" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" spans="3:33" x14ac:dyDescent="0.2">
-      <c r="E80" s="69" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -63988,31 +64662,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y60"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="3" style="65"/>
-    <col min="4" max="9" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="Q5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="C6" s="66"/>
       <c r="D6" s="3">
         <v>4</v>
@@ -64035,10 +64707,10 @@
       </c>
       <c r="I6" s="66"/>
       <c r="N6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -64051,19 +64723,19 @@
         <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S7" t="s">
         <v>30</v>
       </c>
       <c r="U7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -64076,10 +64748,10 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -64092,10 +64764,10 @@
         <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="C10" s="66"/>
       <c r="D10" s="63">
         <f t="shared" ref="D10:F10" si="1">E10+1</f>
@@ -64118,52 +64790,52 @@
       </c>
       <c r="I10" s="66"/>
       <c r="N10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="C12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="O13" t="s">
+        <v>244</v>
+      </c>
+      <c r="R13" t="s">
         <v>245</v>
       </c>
-      <c r="R13" t="s">
+    </row>
+    <row r="14" spans="1:21">
+      <c r="O14" t="s">
         <v>246</v>
       </c>
+      <c r="R14" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="O14" t="s">
-        <v>247</v>
-      </c>
-      <c r="R14" t="s">
+    <row r="15" spans="1:21">
+      <c r="O15" t="s">
         <v>248</v>
       </c>
+      <c r="R15" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="O15" t="s">
-        <v>249</v>
-      </c>
-      <c r="R15" t="s">
-        <v>250</v>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>222</v>
+    <row r="18" spans="3:25">
+      <c r="C18" t="s">
+        <v>253</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25">
       <c r="C19" s="66"/>
       <c r="D19" s="3">
         <v>4</v>
@@ -64180,10 +64852,10 @@
       <c r="H19" s="68"/>
       <c r="I19" s="66"/>
       <c r="N19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:25">
       <c r="C20" s="3">
         <v>3</v>
       </c>
@@ -64196,16 +64868,16 @@
         <v>8</v>
       </c>
       <c r="O20" t="s">
+        <v>202</v>
+      </c>
+      <c r="R20" t="s">
         <v>203</v>
       </c>
-      <c r="R20" t="s">
-        <v>204</v>
-      </c>
       <c r="V20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25">
       <c r="C21" s="3">
         <v>2</v>
       </c>
@@ -64218,19 +64890,19 @@
         <v>9</v>
       </c>
       <c r="O21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" t="s">
         <v>219</v>
       </c>
-      <c r="Y21" t="s">
-        <v>220</v>
-      </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25">
       <c r="C22" s="3">
         <v>1</v>
       </c>
@@ -64243,10 +64915,10 @@
         <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25">
       <c r="C23" s="66"/>
       <c r="D23" s="3">
         <v>14</v>
@@ -64263,12 +64935,12 @@
       </c>
       <c r="I23" s="66"/>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25">
       <c r="C25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:25">
       <c r="C26" s="66"/>
       <c r="D26" s="3">
         <v>4</v>
@@ -64287,10 +64959,10 @@
       </c>
       <c r="I26" s="66"/>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25">
       <c r="C27" s="3">
         <v>3</v>
       </c>
@@ -64303,7 +64975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25">
       <c r="C28" s="3">
         <v>2</v>
       </c>
@@ -64316,7 +64988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:25">
       <c r="C29" s="3">
         <v>1</v>
       </c>
@@ -64329,7 +65001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25">
       <c r="C30" s="66"/>
       <c r="D30" s="3">
         <v>16</v>
@@ -64348,12 +65020,12 @@
       </c>
       <c r="I30" s="66"/>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:25">
       <c r="C32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:16">
       <c r="C33" s="66"/>
       <c r="D33" s="3">
         <v>4</v>
@@ -64372,7 +65044,7 @@
       </c>
       <c r="I33" s="66"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:16">
       <c r="C34" s="3">
         <v>3</v>
       </c>
@@ -64385,7 +65057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:16">
       <c r="C35" s="3">
         <v>2</v>
       </c>
@@ -64398,7 +65070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:16">
       <c r="C36" s="3">
         <v>1</v>
       </c>
@@ -64411,7 +65083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:16">
       <c r="C37" s="66"/>
       <c r="D37" s="3">
         <v>14</v>
@@ -64430,15 +65102,15 @@
       </c>
       <c r="I37" s="66"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:16">
       <c r="D39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:16">
       <c r="D40" s="3">
         <v>4</v>
       </c>
@@ -64456,10 +65128,10 @@
       </c>
       <c r="I40" s="66"/>
       <c r="N40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:16">
       <c r="D41" s="51"/>
       <c r="E41" s="54"/>
       <c r="F41" s="55"/>
@@ -64469,10 +65141,10 @@
         <v>9</v>
       </c>
       <c r="O41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:16">
       <c r="D42" s="52"/>
       <c r="E42" s="57"/>
       <c r="F42" s="58"/>
@@ -64482,10 +65154,10 @@
         <v>10</v>
       </c>
       <c r="O42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:16">
       <c r="D43" s="53"/>
       <c r="E43" s="60"/>
       <c r="F43" s="61"/>
@@ -64495,20 +65167,20 @@
         <v>11</v>
       </c>
       <c r="P43" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="P44" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="P44" t="s">
-        <v>211</v>
+    <row r="45" spans="3:16">
+      <c r="D45" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:16">
       <c r="D46" s="3">
         <v>4</v>
       </c>
@@ -64526,10 +65198,10 @@
       </c>
       <c r="I46" s="66"/>
       <c r="N46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:16">
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
       <c r="F47" s="55"/>
@@ -64539,10 +65211,10 @@
         <v>9</v>
       </c>
       <c r="O47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:16">
       <c r="D48" s="52"/>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -64552,10 +65224,10 @@
         <v>10</v>
       </c>
       <c r="O48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15">
       <c r="D49" s="53"/>
       <c r="E49" s="60"/>
       <c r="F49" s="61"/>
@@ -64565,13 +65237,13 @@
         <v>11</v>
       </c>
       <c r="O49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:15">
       <c r="C51" s="65"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15">
       <c r="C60" s="65"/>
     </row>
   </sheetData>
@@ -64582,77 +65254,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI48" sqref="AI48"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:15">
       <c r="K4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:15">
       <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:15">
       <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="11:15">
       <c r="L8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="11:15">
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="11:15">
       <c r="L11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="11:15">
       <c r="L12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="11:15">
       <c r="L13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="11:15">
       <c r="L14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="11:15">
       <c r="O15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:11">
       <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:11">
       <c r="K18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="11:11">
       <c r="K27" t="s">
         <v>100</v>
       </c>
@@ -64670,23 +65340,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AL31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:J31"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="10" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:38">
       <c r="D2" s="30"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -64694,7 +65362,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:38">
       <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
@@ -64730,7 +65398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:38">
       <c r="D4" s="33"/>
       <c r="E4" s="3">
         <v>3</v>
@@ -64772,7 +65440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:38">
       <c r="D5" s="33"/>
       <c r="E5" s="3">
         <v>2</v>
@@ -64817,7 +65485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:38">
       <c r="D6" s="33"/>
       <c r="E6" s="3">
         <v>1</v>
@@ -64865,7 +65533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:38">
       <c r="D7" s="33"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -64934,7 +65602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:38">
       <c r="D8" s="33"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -64957,7 +65625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:38">
       <c r="D9" s="33"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
@@ -64969,7 +65637,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:38">
       <c r="D10" s="33"/>
       <c r="E10" s="3">
         <v>3</v>
@@ -64984,7 +65652,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:38">
       <c r="D11" s="33"/>
       <c r="E11" s="3">
         <v>2</v>
@@ -64996,7 +65664,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:38">
       <c r="D12" s="33"/>
       <c r="E12" s="3">
         <v>1</v>
@@ -65008,7 +65676,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:38">
       <c r="D13" s="33"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
@@ -65020,7 +65688,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:38">
       <c r="D14" s="33"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -65028,7 +65696,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:38">
       <c r="D15" s="33"/>
       <c r="E15" s="35" t="s">
         <v>30</v>
@@ -65038,7 +65706,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:38">
       <c r="D16" s="33"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -65046,7 +65714,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:10">
       <c r="D17" s="33"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
@@ -65058,7 +65726,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:10">
       <c r="D18" s="33"/>
       <c r="E18" s="3">
         <v>3</v>
@@ -65070,7 +65738,7 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:10">
       <c r="D19" s="33"/>
       <c r="E19" s="3">
         <v>2</v>
@@ -65082,7 +65750,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:10">
       <c r="D20" s="33"/>
       <c r="E20" s="3">
         <v>1</v>
@@ -65094,7 +65762,7 @@
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:10">
       <c r="D21" s="33"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
@@ -65106,7 +65774,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:10">
       <c r="D22" s="33"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -65114,7 +65782,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:10">
       <c r="D23" s="33"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -65122,7 +65790,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:10">
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -65130,7 +65798,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:10">
       <c r="E27" s="3">
         <v>4</v>
       </c>
@@ -65151,7 +65819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:10">
       <c r="D28" s="3">
         <v>3</v>
       </c>
@@ -65164,7 +65832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:10">
       <c r="D29" s="3">
         <v>2</v>
       </c>
@@ -65177,7 +65845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:10">
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -65190,7 +65858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:10">
       <c r="E31" s="63">
         <f t="shared" ref="E31:G31" si="1">F31+1</f>
         <v>16</v>
@@ -65218,30 +65886,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -65249,102 +65915,102 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="D7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
       <c r="C8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4">
       <c r="C13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6">
       <c r="E24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6">
       <c r="F25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6">
       <c r="F26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6">
       <c r="E27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6">
       <c r="D30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6">
       <c r="E31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6">
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:9">
       <c r="E34" t="s">
         <v>86</v>
       </c>
@@ -65352,22 +66018,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:9">
       <c r="G35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:9">
       <c r="G36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:9">
       <c r="G37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:9">
       <c r="E38" t="s">
         <v>85</v>
       </c>
@@ -65375,12 +66041,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:9">
       <c r="D40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:9">
       <c r="E41" t="s">
         <v>41</v>
       </c>
@@ -65391,7 +66057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:9">
       <c r="E42" t="s">
         <v>42</v>
       </c>
@@ -65402,7 +66068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:9">
       <c r="G43" s="39" t="s">
         <v>46</v>
       </c>
@@ -65410,182 +66076,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:9">
       <c r="G44" s="39" t="s">
         <v>49</v>
       </c>
       <c r="I44" t="s">
         <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:M14"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" customWidth="1"/>
-    <col min="11" max="11" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3E0562-68FB-44A3-BBB2-4EAA145AC5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032B5C5-1313-452C-84CC-F7B365737262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地図_外部設計" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="374">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -4086,6 +4086,68 @@
     <t>0930時点のもの</t>
     <rPh sb="4" eb="6">
       <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・usr_detail_fav_productsテーブルから取得したものを
+　ユーザーIDとお気に入りディーラが１対１の情報が取得できるようにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">現状のテーブル定義だと取得しづらいので、テーブル定義から見直す
+無理なら以下のような感じ？
+・Logicクラスで整形する
+・SQLで取得、自動生成対象外
+</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4368,7 +4430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4504,6 +4566,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -4557,7 +4620,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6255"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6272"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5255,7 +5318,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13417"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13434"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5465,7 +5528,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s28674"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s28691"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5925,7 +5988,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s27650"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s27667"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7023,7 +7086,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3437"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3488"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7088,7 +7151,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3438"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3489"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7153,7 +7216,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3439"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3490"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7854,24 +7917,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:X57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="2.375" style="65"/>
+    <col min="3" max="3" width="2.36328125" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C2" s="65" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>107</v>
       </c>
@@ -7879,45 +7944,45 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>109</v>
       </c>
@@ -7925,7 +7990,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>64</v>
       </c>
@@ -7933,7 +7998,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>62</v>
       </c>
@@ -7941,7 +8006,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>61</v>
       </c>
@@ -7949,12 +8014,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -7977,7 +8042,7 @@
       <c r="W22" s="31"/>
       <c r="X22" s="32"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D23" s="33"/>
       <c r="E23" s="77" t="s">
         <v>269</v>
@@ -8012,7 +8077,7 @@
       <c r="W23" s="35"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D24" s="33"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -8035,7 +8100,7 @@
       <c r="W24" s="35"/>
       <c r="X24" s="34"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D25" s="33"/>
       <c r="E25" s="35" t="s">
         <v>269</v>
@@ -8060,7 +8125,7 @@
       <c r="W25" s="35"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D26" s="33"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -8083,7 +8148,7 @@
       <c r="W26" s="35"/>
       <c r="X26" s="34"/>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D27" s="33"/>
       <c r="E27" s="42"/>
       <c r="F27" s="43"/>
@@ -8106,7 +8171,7 @@
       <c r="W27" s="44"/>
       <c r="X27" s="34"/>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D28" s="33"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -8129,7 +8194,7 @@
       <c r="W28" s="47"/>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D29" s="33"/>
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
@@ -8152,7 +8217,7 @@
       <c r="W29" s="47"/>
       <c r="X29" s="34"/>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D30" s="33"/>
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
@@ -8175,7 +8240,7 @@
       <c r="W30" s="47"/>
       <c r="X30" s="34"/>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D31" s="33"/>
       <c r="E31" s="45"/>
       <c r="F31" s="46"/>
@@ -8198,7 +8263,7 @@
       <c r="W31" s="47"/>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D32" s="33"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
@@ -8221,7 +8286,7 @@
       <c r="W32" s="47"/>
       <c r="X32" s="34"/>
     </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D33" s="33"/>
       <c r="E33" s="45"/>
       <c r="F33" s="46"/>
@@ -8244,7 +8309,7 @@
       <c r="W33" s="47"/>
       <c r="X33" s="34"/>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D34" s="33"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
@@ -8267,7 +8332,7 @@
       <c r="W34" s="47"/>
       <c r="X34" s="34"/>
     </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D35" s="33"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -8290,11 +8355,11 @@
       <c r="W35" s="50"/>
       <c r="X35" s="34"/>
     </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D36" s="33"/>
       <c r="X36" s="34"/>
     </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D37" s="36"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -8317,62 +8382,74 @@
       <c r="W37" s="37"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="4:24" x14ac:dyDescent="0.15">
-      <c r="E43" s="84" t="s">
+    <row r="43" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="E43" s="85" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="44" spans="4:24" x14ac:dyDescent="0.15">
-      <c r="F44" s="84" t="s">
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+    </row>
+    <row r="44" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="E44" s="85"/>
+      <c r="F44" s="85" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.15">
-      <c r="G45" s="84" t="s">
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+    </row>
+    <row r="45" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="46" spans="4:24" x14ac:dyDescent="0.15">
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+    </row>
+    <row r="46" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E47" s="84" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="48" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F48" s="84" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
         <v>268</v>
       </c>
@@ -8380,7 +8457,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
         <v>270</v>
       </c>
@@ -8388,7 +8465,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>272</v>
       </c>
@@ -8396,7 +8473,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
         <v>274</v>
       </c>
@@ -8404,7 +8481,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
         <v>276</v>
       </c>
@@ -8412,7 +8489,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E57" s="35" t="s">
         <v>334</v>
       </c>
@@ -8436,14 +8513,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>137</v>
       </c>
@@ -8451,7 +8528,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>329</v>
       </c>
@@ -8459,7 +8536,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C8" s="65"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
@@ -8483,7 +8560,7 @@
       <c r="W8" s="31"/>
       <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C9" s="65"/>
       <c r="D9" s="33"/>
       <c r="E9" s="77" t="s">
@@ -8519,7 +8596,7 @@
       <c r="W9" s="35"/>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C10" s="65"/>
       <c r="D10" s="33"/>
       <c r="E10" s="35"/>
@@ -8543,7 +8620,7 @@
       <c r="W10" s="35"/>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C11" s="65"/>
       <c r="D11" s="33"/>
       <c r="E11" s="35" t="s">
@@ -8569,7 +8646,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C12" s="65"/>
       <c r="D12" s="33"/>
       <c r="E12" s="35"/>
@@ -8593,7 +8670,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C13" s="65"/>
       <c r="D13" s="33"/>
       <c r="E13" s="42"/>
@@ -8617,7 +8694,7 @@
       <c r="W13" s="44"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C14" s="65"/>
       <c r="D14" s="33"/>
       <c r="E14" s="45"/>
@@ -8641,7 +8718,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C15" s="65"/>
       <c r="D15" s="33"/>
       <c r="E15" s="45"/>
@@ -8665,7 +8742,7 @@
       <c r="W15" s="47"/>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C16" s="65"/>
       <c r="D16" s="33"/>
       <c r="E16" s="45"/>
@@ -8689,7 +8766,7 @@
       <c r="W16" s="47"/>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="65"/>
       <c r="D17" s="33"/>
       <c r="E17" s="45"/>
@@ -8713,7 +8790,7 @@
       <c r="W17" s="47"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="65"/>
       <c r="D18" s="33"/>
       <c r="E18" s="45"/>
@@ -8737,7 +8814,7 @@
       <c r="W18" s="47"/>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="65"/>
       <c r="D19" s="33"/>
       <c r="E19" s="45"/>
@@ -8761,7 +8838,7 @@
       <c r="W19" s="47"/>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="65"/>
       <c r="D20" s="33"/>
       <c r="E20" s="45"/>
@@ -8785,7 +8862,7 @@
       <c r="W20" s="47"/>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="65"/>
       <c r="D21" s="33"/>
       <c r="E21" s="48"/>
@@ -8809,12 +8886,12 @@
       <c r="W21" s="50"/>
       <c r="X21" s="34"/>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="65"/>
       <c r="D22" s="33"/>
       <c r="X22" s="34"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="65"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
@@ -8838,165 +8915,165 @@
       <c r="W23" s="37"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="65"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E46" s="80" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D66" s="64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F69">
         <v>1</v>
       </c>
@@ -9004,7 +9081,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F71">
         <v>2</v>
       </c>
@@ -9012,7 +9089,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F73">
         <v>3</v>
       </c>
@@ -9020,17 +9097,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
         <v>145</v>
       </c>
@@ -9052,23 +9129,23 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="3" style="65"/>
-    <col min="4" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="Q5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C6" s="66"/>
       <c r="D6" s="3">
         <v>4</v>
@@ -9094,7 +9171,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -9119,7 +9196,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -9135,7 +9212,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -9151,7 +9228,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="66"/>
       <c r="D10" s="63">
         <f t="shared" ref="D10:F10" si="1">E10+1</f>
@@ -9177,7 +9254,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>186</v>
       </c>
@@ -9185,7 +9262,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O13" t="s">
         <v>233</v>
       </c>
@@ -9193,7 +9270,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O14" t="s">
         <v>235</v>
       </c>
@@ -9201,7 +9278,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O15" t="s">
         <v>237</v>
       </c>
@@ -9209,17 +9286,17 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="66"/>
       <c r="D19" s="3">
         <v>4</v>
@@ -9239,7 +9316,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>3</v>
       </c>
@@ -9261,7 +9338,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>2</v>
       </c>
@@ -9286,7 +9363,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>1</v>
       </c>
@@ -9302,7 +9379,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="66"/>
       <c r="D23" s="3">
         <v>14</v>
@@ -9319,12 +9396,12 @@
       </c>
       <c r="I23" s="66"/>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="66"/>
       <c r="D26" s="3">
         <v>4</v>
@@ -9346,7 +9423,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>3</v>
       </c>
@@ -9359,7 +9436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>2</v>
       </c>
@@ -9372,7 +9449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
         <v>1</v>
       </c>
@@ -9385,7 +9462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="66"/>
       <c r="D30" s="3">
         <v>16</v>
@@ -9404,12 +9481,12 @@
       </c>
       <c r="I30" s="66"/>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C33" s="66"/>
       <c r="D33" s="3">
         <v>4</v>
@@ -9428,7 +9505,7 @@
       </c>
       <c r="I33" s="66"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>3</v>
       </c>
@@ -9441,7 +9518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
         <v>2</v>
       </c>
@@ -9454,7 +9531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
         <v>1</v>
       </c>
@@ -9467,7 +9544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C37" s="66"/>
       <c r="D37" s="3">
         <v>14</v>
@@ -9486,7 +9563,7 @@
       </c>
       <c r="I37" s="66"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>204</v>
       </c>
@@ -9494,7 +9571,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D40" s="3">
         <v>4</v>
       </c>
@@ -9515,7 +9592,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D41" s="51"/>
       <c r="E41" s="54"/>
       <c r="F41" s="55"/>
@@ -9528,7 +9605,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D42" s="52"/>
       <c r="E42" s="57"/>
       <c r="F42" s="58"/>
@@ -9541,7 +9618,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D43" s="53"/>
       <c r="E43" s="60"/>
       <c r="F43" s="61"/>
@@ -9554,17 +9631,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
       <c r="P44" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D46" s="3">
         <v>4</v>
       </c>
@@ -9585,7 +9662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
       <c r="F47" s="55"/>
@@ -9598,7 +9675,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D48" s="52"/>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -9611,7 +9688,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D49" s="53"/>
       <c r="E49" s="60"/>
       <c r="F49" s="61"/>
@@ -9624,10 +9701,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="65"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="65"/>
     </row>
   </sheetData>
@@ -9644,69 +9721,69 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="11:15" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="11:15" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="11:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="11:15" x14ac:dyDescent="0.2">
       <c r="O15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>100</v>
       </c>
@@ -9732,15 +9809,15 @@
       <selection activeCell="D27" sqref="D27:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="10" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D2" s="30"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -9748,7 +9825,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
@@ -9784,7 +9861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D4" s="33"/>
       <c r="E4" s="3">
         <v>3</v>
@@ -9826,7 +9903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D5" s="33"/>
       <c r="E5" s="3">
         <v>2</v>
@@ -9871,7 +9948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D6" s="33"/>
       <c r="E6" s="3">
         <v>1</v>
@@ -9919,7 +9996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D7" s="33"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -9988,7 +10065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D8" s="33"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -10011,7 +10088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D9" s="33"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
@@ -10023,7 +10100,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D10" s="33"/>
       <c r="E10" s="3">
         <v>3</v>
@@ -10038,7 +10115,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D11" s="33"/>
       <c r="E11" s="3">
         <v>2</v>
@@ -10050,7 +10127,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D12" s="33"/>
       <c r="E12" s="3">
         <v>1</v>
@@ -10062,7 +10139,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D13" s="33"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
@@ -10074,7 +10151,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D14" s="33"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -10082,7 +10159,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D15" s="33"/>
       <c r="E15" s="35" t="s">
         <v>30</v>
@@ -10092,7 +10169,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="4:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:38" x14ac:dyDescent="0.2">
       <c r="D16" s="33"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -10100,7 +10177,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="33"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
@@ -10112,7 +10189,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="33"/>
       <c r="E18" s="3">
         <v>3</v>
@@ -10124,7 +10201,7 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" s="33"/>
       <c r="E19" s="3">
         <v>2</v>
@@ -10136,7 +10213,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="33"/>
       <c r="E20" s="3">
         <v>1</v>
@@ -10148,7 +10225,7 @@
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="33"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
@@ -10160,7 +10237,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D22" s="33"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -10168,7 +10245,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="33"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -10176,7 +10253,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -10184,7 +10261,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E27" s="3">
         <v>4</v>
       </c>
@@ -10205,7 +10282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="3">
         <v>3</v>
       </c>
@@ -10218,7 +10295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D29" s="3">
         <v>2</v>
       </c>
@@ -10231,7 +10308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -10244,7 +10321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E31" s="63">
         <f t="shared" ref="E31:G31" si="1">F31+1</f>
         <v>16</v>
@@ -10278,22 +10355,22 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -10301,102 +10378,102 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>86</v>
       </c>
@@ -10404,22 +10481,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>85</v>
       </c>
@@ -10427,12 +10504,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>41</v>
       </c>
@@ -10443,7 +10520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>42</v>
       </c>
@@ -10454,7 +10531,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G43" s="39" t="s">
         <v>46</v>
       </c>
@@ -10462,7 +10539,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G44" s="39" t="s">
         <v>49</v>
       </c>
@@ -10482,15 +10559,15 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" customWidth="1"/>
+    <col min="11" max="11" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
         <v>74</v>
@@ -10509,7 +10586,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -10526,7 +10603,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -10540,7 +10617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>53</v>
       </c>
@@ -10557,7 +10634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>53</v>
       </c>
@@ -10574,7 +10651,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>55</v>
       </c>
@@ -10585,7 +10662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>56</v>
       </c>
@@ -10596,7 +10673,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
         <v>57</v>
       </c>
@@ -10607,7 +10684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>60</v>
       </c>
@@ -10618,22 +10695,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -10650,17 +10727,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.5" style="8"/>
-    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.5" style="8"/>
-    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.5" style="8"/>
-    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.5" style="8"/>
-    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.5" style="8"/>
+    <col min="1" max="56" width="1.453125" style="8"/>
+    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.453125" style="8"/>
+    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.453125" style="8"/>
+    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.453125" style="8"/>
+    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33409,17 +33486,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="56" width="1.5" style="8"/>
-    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.5" style="8"/>
-    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.5" style="8"/>
-    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.5" style="8"/>
-    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.5" style="8"/>
+    <col min="1" max="56" width="1.453125" style="8"/>
+    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.453125" style="8"/>
+    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.453125" style="8"/>
+    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.453125" style="8"/>
+    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -56163,11 +56240,11 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="1.5" style="8"/>
+    <col min="1" max="7" width="1.453125" style="8"/>
     <col min="8" max="44" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="45" max="16384" width="1.5" style="8"/>
+    <col min="45" max="16384" width="1.453125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -66898,13 +66975,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="2" max="2" width="45.26953125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -66915,7 +66992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -66924,7 +67001,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -66933,7 +67010,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -66947,7 +67024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -66955,7 +67032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -66963,12 +67040,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -66983,18 +67060,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>137</v>
       </c>
@@ -67002,7 +67079,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>329</v>
       </c>
@@ -67010,7 +67087,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C8" s="65"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
@@ -67034,7 +67111,7 @@
       <c r="W8" s="31"/>
       <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C9" s="65"/>
       <c r="D9" s="33"/>
       <c r="E9" s="77" t="s">
@@ -67070,7 +67147,7 @@
       <c r="W9" s="35"/>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C10" s="65"/>
       <c r="D10" s="33"/>
       <c r="E10" s="35"/>
@@ -67094,7 +67171,7 @@
       <c r="W10" s="35"/>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C11" s="65"/>
       <c r="D11" s="33"/>
       <c r="E11" s="35" t="s">
@@ -67120,7 +67197,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C12" s="65"/>
       <c r="D12" s="33"/>
       <c r="E12" s="35"/>
@@ -67144,7 +67221,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C13" s="65"/>
       <c r="D13" s="33"/>
       <c r="E13" s="42"/>
@@ -67168,7 +67245,7 @@
       <c r="W13" s="44"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C14" s="65"/>
       <c r="D14" s="33"/>
       <c r="E14" s="45"/>
@@ -67192,7 +67269,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C15" s="65"/>
       <c r="D15" s="33"/>
       <c r="E15" s="45"/>
@@ -67216,7 +67293,7 @@
       <c r="W15" s="47"/>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C16" s="65"/>
       <c r="D16" s="33"/>
       <c r="E16" s="45"/>
@@ -67240,7 +67317,7 @@
       <c r="W16" s="47"/>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="65"/>
       <c r="D17" s="33"/>
       <c r="E17" s="45"/>
@@ -67264,7 +67341,7 @@
       <c r="W17" s="47"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="65"/>
       <c r="D18" s="33"/>
       <c r="E18" s="45"/>
@@ -67288,7 +67365,7 @@
       <c r="W18" s="47"/>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="65"/>
       <c r="D19" s="33"/>
       <c r="E19" s="45"/>
@@ -67312,7 +67389,7 @@
       <c r="W19" s="47"/>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="65"/>
       <c r="D20" s="33"/>
       <c r="E20" s="45"/>
@@ -67336,7 +67413,7 @@
       <c r="W20" s="47"/>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="65"/>
       <c r="D21" s="33"/>
       <c r="E21" s="48"/>
@@ -67360,12 +67437,12 @@
       <c r="W21" s="50"/>
       <c r="X21" s="34"/>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="65"/>
       <c r="D22" s="33"/>
       <c r="X22" s="34"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="65"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
@@ -67389,115 +67466,214 @@
       <c r="W23" s="37"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="65"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="E28" s="84" t="s">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="E28" s="85" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="E30" t="s">
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="E30" s="85" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.15">
-      <c r="E31" t="s">
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="E31" s="85" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E33" s="85" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E34" s="84" t="s">
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E34" s="85" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E36" t="s">
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E36" s="85" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E40" s="84" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E44" s="80" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G54" t="s">
         <v>131</v>
       </c>
@@ -67517,24 +67693,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A511F513-637B-4B84-970E-2281EF201BE3}">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.453125" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="79" t="s">
         <v>306</v>
       </c>
@@ -67554,7 +67732,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>307</v>
       </c>
@@ -67574,7 +67752,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>308</v>
       </c>
@@ -67594,7 +67772,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>309</v>
       </c>
@@ -67614,7 +67792,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -67622,7 +67800,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -67630,12 +67808,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>297</v>
       </c>
@@ -67652,9 +67830,9 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>105</v>
       </c>
@@ -67662,12 +67840,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C4" s="80" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>368</v>
       </c>
@@ -67675,7 +67853,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C7" s="80" t="s">
         <v>369</v>
       </c>
@@ -67692,21 +67870,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE31061-81C2-45B6-B589-7EFF4EE6287B}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="A19:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="68.75" style="81" customWidth="1"/>
-    <col min="6" max="6" width="41.875" customWidth="1"/>
-    <col min="7" max="7" width="37.375" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" customWidth="1"/>
+    <col min="5" max="5" width="68.7265625" style="81" customWidth="1"/>
+    <col min="6" max="6" width="41.90625" customWidth="1"/>
+    <col min="7" max="7" width="37.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="79" t="s">
         <v>11</v>
       </c>
@@ -67726,7 +67904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="26" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
@@ -67743,9 +67921,9 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B18" si="0">ROW()-3</f>
+        <f t="shared" ref="B5:B19" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -67760,7 +67938,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="26" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -67777,7 +67955,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -67794,7 +67972,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -67811,7 +67989,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -67828,7 +68006,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -67845,7 +68023,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -67864,7 +68042,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -67881,7 +68059,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -67898,7 +68076,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7" ht="26" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -67915,7 +68093,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -67926,7 +68104,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -67943,7 +68121,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -67960,7 +68138,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="39" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -67977,13 +68155,56 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1"/>
+    <row r="19" spans="2:7" ht="78" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>373</v>
+      </c>
       <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -67999,7 +68220,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68014,7 +68235,7 @@
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="69"/>
     <col min="2" max="2" width="3" style="70"/>
@@ -68024,22 +68245,22 @@
     <col min="33" max="33" width="3" style="73"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="70" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C3" s="69" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C4" s="69" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" s="70" t="s">
         <v>105</v>
       </c>
@@ -68050,17 +68271,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C7" s="70" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D8" s="69" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="E9" s="69" t="s">
         <v>148</v>
       </c>
@@ -68068,7 +68289,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="E10" s="69" t="s">
         <v>155</v>
       </c>
@@ -68079,27 +68300,27 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="F11" s="69" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="F12" s="69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="F13" s="69" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="D14" s="69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="E15" s="69" t="s">
         <v>149</v>
       </c>
@@ -68110,12 +68331,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D17" s="69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E18" s="69" t="s">
         <v>150</v>
       </c>
@@ -68123,12 +68344,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D20" s="69" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E21" s="69" t="s">
         <v>151</v>
       </c>
@@ -68139,17 +68360,17 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E22" s="69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D23" s="69" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E24" s="69" t="s">
         <v>176</v>
       </c>
@@ -68160,7 +68381,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E25" s="69" t="s">
         <v>177</v>
       </c>
@@ -68171,12 +68392,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D27" s="69" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E28" s="69" t="s">
         <v>179</v>
       </c>
@@ -68184,7 +68405,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E29" s="69" t="s">
         <v>180</v>
       </c>
@@ -68192,7 +68413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E30" s="69" t="s">
         <v>181</v>
       </c>
@@ -68200,17 +68421,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="70" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D33" s="69" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E34" s="69" t="s">
         <v>154</v>
       </c>
@@ -68218,17 +68439,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D35" s="72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D36" s="69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E37" s="69" t="s">
         <v>156</v>
       </c>
@@ -68236,17 +68457,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D38" s="72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C41" s="70" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D42" s="69" t="s">
         <v>159</v>
       </c>
@@ -68257,7 +68478,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E44" s="69" t="s">
         <v>158</v>
       </c>
@@ -68265,7 +68486,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E45" s="69" t="s">
         <v>160</v>
       </c>
@@ -68273,7 +68494,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E46" s="69" t="s">
         <v>161</v>
       </c>
@@ -68281,7 +68502,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E47" s="69" t="s">
         <v>162</v>
       </c>
@@ -68289,7 +68510,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E48" s="69" t="s">
         <v>182</v>
       </c>
@@ -68297,7 +68518,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D50" s="69" t="s">
         <v>164</v>
       </c>
@@ -68305,7 +68526,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E51" s="69" t="s">
         <v>168</v>
       </c>
@@ -68313,12 +68534,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E52" s="72" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E53" s="69" t="s">
         <v>166</v>
       </c>
@@ -68326,7 +68547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E54" s="69" t="s">
         <v>167</v>
       </c>
@@ -68334,12 +68555,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D56" s="69" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E57" s="69" t="s">
         <v>218</v>
       </c>
@@ -68347,12 +68568,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E58" s="69" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E59" s="69" t="s">
         <v>170</v>
       </c>
@@ -68360,12 +68581,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D63" s="69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="4:29" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:29" x14ac:dyDescent="0.2">
       <c r="E64" s="69" t="s">
         <v>171</v>
       </c>
@@ -68373,17 +68594,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D67" s="69" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D68" s="69" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E69" s="69" t="s">
         <v>173</v>
       </c>
@@ -68394,7 +68615,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E70" s="69" t="s">
         <v>174</v>
       </c>
@@ -68405,12 +68626,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C72" s="70" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D73" s="69" t="s">
         <v>225</v>
       </c>
@@ -68418,7 +68639,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D74" s="69" t="s">
         <v>226</v>
       </c>
@@ -68426,12 +68647,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C76" s="70" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D77" s="69" t="s">
         <v>228</v>
       </c>
@@ -68439,7 +68660,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:33" x14ac:dyDescent="0.2">
       <c r="D79" s="69" t="s">
         <v>229</v>
       </c>
@@ -68450,7 +68671,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:33" x14ac:dyDescent="0.2">
       <c r="E80" s="69" t="s">
         <v>230</v>
       </c>
@@ -68470,22 +68691,22 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="2.375" style="65"/>
+    <col min="3" max="3" width="2.36328125" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C2" s="65" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>107</v>
       </c>
@@ -68493,45 +68714,45 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>109</v>
       </c>
@@ -68539,7 +68760,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>64</v>
       </c>
@@ -68547,7 +68768,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>62</v>
       </c>
@@ -68555,7 +68776,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>61</v>
       </c>
@@ -68563,12 +68784,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -68591,7 +68812,7 @@
       <c r="W22" s="31"/>
       <c r="X22" s="32"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D23" s="33"/>
       <c r="E23" s="77" t="s">
         <v>269</v>
@@ -68626,7 +68847,7 @@
       <c r="W23" s="35"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D24" s="33"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -68649,7 +68870,7 @@
       <c r="W24" s="35"/>
       <c r="X24" s="34"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D25" s="33"/>
       <c r="E25" s="35" t="s">
         <v>269</v>
@@ -68674,7 +68895,7 @@
       <c r="W25" s="35"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D26" s="33"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -68697,7 +68918,7 @@
       <c r="W26" s="35"/>
       <c r="X26" s="34"/>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D27" s="33"/>
       <c r="E27" s="42"/>
       <c r="F27" s="43"/>
@@ -68720,7 +68941,7 @@
       <c r="W27" s="44"/>
       <c r="X27" s="34"/>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D28" s="33"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -68743,7 +68964,7 @@
       <c r="W28" s="47"/>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D29" s="33"/>
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
@@ -68766,7 +68987,7 @@
       <c r="W29" s="47"/>
       <c r="X29" s="34"/>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D30" s="33"/>
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
@@ -68789,7 +69010,7 @@
       <c r="W30" s="47"/>
       <c r="X30" s="34"/>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D31" s="33"/>
       <c r="E31" s="45"/>
       <c r="F31" s="46"/>
@@ -68812,7 +69033,7 @@
       <c r="W31" s="47"/>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="D32" s="33"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
@@ -68835,7 +69056,7 @@
       <c r="W32" s="47"/>
       <c r="X32" s="34"/>
     </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D33" s="33"/>
       <c r="E33" s="45"/>
       <c r="F33" s="46"/>
@@ -68858,7 +69079,7 @@
       <c r="W33" s="47"/>
       <c r="X33" s="34"/>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D34" s="33"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
@@ -68881,7 +69102,7 @@
       <c r="W34" s="47"/>
       <c r="X34" s="34"/>
     </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D35" s="33"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -68904,11 +69125,11 @@
       <c r="W35" s="50"/>
       <c r="X35" s="34"/>
     </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D36" s="33"/>
       <c r="X36" s="34"/>
     </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D37" s="36"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -68931,67 +69152,67 @@
       <c r="W37" s="37"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:24" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:24" x14ac:dyDescent="0.2">
       <c r="G47" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="4:24" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:24" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>268</v>
       </c>
@@ -68999,7 +69220,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
         <v>270</v>
       </c>
@@ -69007,7 +69228,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
         <v>272</v>
       </c>
@@ -69015,7 +69236,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
         <v>274</v>
       </c>
@@ -69023,7 +69244,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
         <v>276</v>
       </c>
@@ -69031,7 +69252,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E59" s="35" t="s">
         <v>293</v>
       </c>
@@ -69053,39 +69274,39 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D9" s="73" t="s">
         <v>254</v>
       </c>
@@ -69098,7 +69319,7 @@
       <c r="K9" s="75"/>
       <c r="L9" s="75"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D10" s="73" t="s">
         <v>255</v>
       </c>
@@ -69113,7 +69334,7 @@
       <c r="K10" s="75"/>
       <c r="L10" s="75"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
@@ -69126,7 +69347,7 @@
       <c r="K11" s="76"/>
       <c r="L11" s="76"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D12" s="73" t="s">
         <v>257</v>
       </c>
@@ -69139,7 +69360,7 @@
       </c>
       <c r="L12" s="76"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D13" s="73"/>
       <c r="E13" s="73" t="s">
         <v>256</v>
@@ -69152,7 +69373,7 @@
       <c r="K13" s="76"/>
       <c r="L13" s="76"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
@@ -69163,7 +69384,7 @@
       </c>
       <c r="L14" s="76"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -69174,7 +69395,7 @@
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
@@ -69187,7 +69408,7 @@
       <c r="K16" s="75"/>
       <c r="L16" s="75"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
@@ -69198,7 +69419,7 @@
       <c r="K17" s="75"/>
       <c r="L17" s="75"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
@@ -69209,7 +69430,7 @@
       <c r="K18" s="75"/>
       <c r="L18" s="75"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
@@ -69220,7 +69441,7 @@
       <c r="K19" s="75"/>
       <c r="L19" s="75"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D20" s="73"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
@@ -69229,7 +69450,7 @@
       <c r="K20" s="75"/>
       <c r="L20" s="75"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
@@ -69238,22 +69459,22 @@
       <c r="K21" s="75"/>
       <c r="L21" s="75"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>264</v>
       </c>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032B5C5-1313-452C-84CC-F7B365737262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="地図_外部設計" sheetId="12" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="地図イメージ２" sheetId="6" r:id="rId18"/>
     <sheet name="課題" sheetId="2" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3827,28 +3826,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すべてのホールのHTMLを一度に読み込むとJSPが大きすぎてサーバーエラーが発生するので、インクルードを分岐している</t>
-    <rPh sb="13" eb="15">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ブンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・サーバー側で初期表示時で表示するホールを判断し、JSP側にパラメータを渡して表示を切り替える。</t>
     <rPh sb="5" eb="6">
       <t>ガワ</t>
@@ -4151,12 +4128,34 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>※すべてのホールのHTMLを一度に読み込むとJSPが大きすぎてサーバーエラーが発生するので、インクルードを分岐している</t>
+    <rPh sb="14" eb="16">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4612,7 +4611,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4620,7 +4619,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6272"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6276"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4675,7 +4674,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4745,7 +4744,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4820,7 +4819,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4893,7 +4892,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4959,7 +4958,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5017,7 +5016,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5102,7 +5101,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5160,7 +5159,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5245,7 +5244,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5310,7 +5309,7 @@
             <xdr:cNvPr id="8" name="図 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDAEA79-C544-4376-8391-1C0CC7690CE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDAEA79-C544-4376-8391-1C0CC7690CE9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5318,7 +5317,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13434"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13438"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5373,7 +5372,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411B6A99-01AE-428E-9E7B-A4E6BFDC9118}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{411B6A99-01AE-428E-9E7B-A4E6BFDC9118}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5443,7 +5442,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F8E095-3EC6-473B-91DF-E3CEA2E883BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F8E095-3EC6-473B-91DF-E3CEA2E883BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5520,7 +5519,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB0F373-49AF-46A5-B8E1-E6BA010AC2DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDB0F373-49AF-46A5-B8E1-E6BA010AC2DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5528,7 +5527,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s28691"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s28695"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5583,7 +5582,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4427D87-23E0-489B-9950-ABAB64E7768D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4427D87-23E0-489B-9950-ABAB64E7768D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5653,7 +5652,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EC0E5B-D8AC-4AC0-A55C-66DD8D341ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76EC0E5B-D8AC-4AC0-A55C-66DD8D341ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5723,7 +5722,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E811FC-06CA-43ED-9629-D2FBDC88A4BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E811FC-06CA-43ED-9629-D2FBDC88A4BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5789,7 +5788,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5851,7 +5850,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5913,7 +5912,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5980,7 +5979,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA9D171-97CC-4A44-9D92-4A29E0F718B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5EA9D171-97CC-4A44-9D92-4A29E0F718B4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5988,7 +5987,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s27667"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s27671"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6043,7 +6042,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8890A232-FA7E-4C88-A8B8-12863978B48B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8890A232-FA7E-4C88-A8B8-12863978B48B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6113,7 +6112,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C131B8-82C0-4975-85D0-F3C4FD814A4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67C131B8-82C0-4975-85D0-F3C4FD814A4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6183,7 +6182,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A60056-E582-4CB2-B904-8A7F80EFA27F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84A60056-E582-4CB2-B904-8A7F80EFA27F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6249,7 +6248,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6328,7 +6327,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6394,7 +6393,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6460,7 +6459,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6544,7 +6543,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6623,7 +6622,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6689,7 +6688,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6755,7 +6754,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6834,7 +6833,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6913,7 +6912,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E20FA15-19D7-49D9-B7C5-45CB98DB88E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E20FA15-19D7-49D9-B7C5-45CB98DB88E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6992,7 +6991,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5A21EE-AEBE-422D-941D-D5DF864BC633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C5A21EE-AEBE-422D-941D-D5DF864BC633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7078,7 +7077,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7086,7 +7085,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3488"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3500"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7143,7 +7142,7 @@
             <xdr:cNvPr id="4" name="図 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7151,7 +7150,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3489"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3501"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7208,7 +7207,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7216,7 +7215,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3490"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3502"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7271,7 +7270,7 @@
         <xdr:cNvPr id="2" name="下矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7331,7 +7330,7 @@
         <xdr:cNvPr id="6" name="下矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7391,7 +7390,7 @@
         <xdr:cNvPr id="7" name="下矢印 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7456,7 +7455,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7540,7 +7539,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7595,7 +7594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7637,7 +7636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7670,26 +7669,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7722,23 +7704,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7914,29 +7879,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:X57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="2.36328125" style="65"/>
+    <col min="3" max="3" width="2.375" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:13">
       <c r="C2" s="65" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:13">
       <c r="D3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:13">
       <c r="E4" t="s">
         <v>107</v>
       </c>
@@ -7944,45 +7907,45 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13">
       <c r="E5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13">
       <c r="D7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:13">
       <c r="E8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:13">
       <c r="D10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:13">
       <c r="E11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:13">
       <c r="E12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:13">
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:13">
       <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:13">
       <c r="F15" t="s">
         <v>109</v>
       </c>
@@ -7990,7 +7953,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:13">
       <c r="F16" t="s">
         <v>64</v>
       </c>
@@ -7998,7 +7961,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24">
       <c r="F17" t="s">
         <v>62</v>
       </c>
@@ -8006,7 +7969,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24">
       <c r="F18" t="s">
         <v>61</v>
       </c>
@@ -8014,12 +7977,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:24">
       <c r="C20" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24">
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -8042,7 +8005,7 @@
       <c r="W22" s="31"/>
       <c r="X22" s="32"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24">
       <c r="D23" s="33"/>
       <c r="E23" s="77" t="s">
         <v>269</v>
@@ -8077,7 +8040,7 @@
       <c r="W23" s="35"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24">
       <c r="D24" s="33"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -8100,7 +8063,7 @@
       <c r="W24" s="35"/>
       <c r="X24" s="34"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24">
       <c r="D25" s="33"/>
       <c r="E25" s="35" t="s">
         <v>269</v>
@@ -8125,7 +8088,7 @@
       <c r="W25" s="35"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:24">
       <c r="D26" s="33"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -8148,7 +8111,7 @@
       <c r="W26" s="35"/>
       <c r="X26" s="34"/>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24">
       <c r="D27" s="33"/>
       <c r="E27" s="42"/>
       <c r="F27" s="43"/>
@@ -8171,7 +8134,7 @@
       <c r="W27" s="44"/>
       <c r="X27" s="34"/>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24">
       <c r="D28" s="33"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -8194,7 +8157,7 @@
       <c r="W28" s="47"/>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:24">
       <c r="D29" s="33"/>
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
@@ -8217,7 +8180,7 @@
       <c r="W29" s="47"/>
       <c r="X29" s="34"/>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24">
       <c r="D30" s="33"/>
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
@@ -8240,7 +8203,7 @@
       <c r="W30" s="47"/>
       <c r="X30" s="34"/>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:24">
       <c r="D31" s="33"/>
       <c r="E31" s="45"/>
       <c r="F31" s="46"/>
@@ -8263,7 +8226,7 @@
       <c r="W31" s="47"/>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:24">
       <c r="D32" s="33"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
@@ -8286,7 +8249,7 @@
       <c r="W32" s="47"/>
       <c r="X32" s="34"/>
     </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:24">
       <c r="D33" s="33"/>
       <c r="E33" s="45"/>
       <c r="F33" s="46"/>
@@ -8309,7 +8272,7 @@
       <c r="W33" s="47"/>
       <c r="X33" s="34"/>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:24">
       <c r="D34" s="33"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
@@ -8332,7 +8295,7 @@
       <c r="W34" s="47"/>
       <c r="X34" s="34"/>
     </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:24">
       <c r="D35" s="33"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -8355,11 +8318,11 @@
       <c r="W35" s="50"/>
       <c r="X35" s="34"/>
     </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:24">
       <c r="D36" s="33"/>
       <c r="X36" s="34"/>
     </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:24">
       <c r="D37" s="36"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -8382,22 +8345,22 @@
       <c r="W37" s="37"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:24">
       <c r="D39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:24">
       <c r="E40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:24">
       <c r="D42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:24">
       <c r="E43" s="85" t="s">
         <v>283</v>
       </c>
@@ -8406,7 +8369,7 @@
       <c r="H43" s="85"/>
       <c r="I43" s="85"/>
     </row>
-    <row r="44" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:24">
       <c r="E44" s="85"/>
       <c r="F44" s="85" t="s">
         <v>285</v>
@@ -8415,7 +8378,7 @@
       <c r="H44" s="85"/>
       <c r="I44" s="85"/>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:24">
       <c r="E45" s="85"/>
       <c r="F45" s="85"/>
       <c r="G45" s="85" t="s">
@@ -8424,32 +8387,32 @@
       <c r="H45" s="85"/>
       <c r="I45" s="85"/>
     </row>
-    <row r="46" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:24">
       <c r="F46" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:24">
       <c r="E47" s="84" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="48" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:24">
       <c r="F48" s="84" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:12">
       <c r="F49" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:12">
       <c r="D51" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:12">
       <c r="E52" t="s">
         <v>268</v>
       </c>
@@ -8457,7 +8420,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:12">
       <c r="E53" t="s">
         <v>270</v>
       </c>
@@ -8465,7 +8428,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:12">
       <c r="E54" t="s">
         <v>272</v>
       </c>
@@ -8473,7 +8436,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:12">
       <c r="E55" t="s">
         <v>274</v>
       </c>
@@ -8481,7 +8444,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:12">
       <c r="E56" t="s">
         <v>276</v>
       </c>
@@ -8489,7 +8452,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:12">
       <c r="E57" s="35" t="s">
         <v>334</v>
       </c>
@@ -8506,21 +8469,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19057C7-93D5-4FF3-B0FC-AB4263C7A7BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:X76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:24">
       <c r="C2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:24">
       <c r="D3" t="s">
         <v>137</v>
       </c>
@@ -8528,7 +8491,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:24">
       <c r="D4" t="s">
         <v>329</v>
       </c>
@@ -8536,7 +8499,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:24">
       <c r="C8" s="65"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
@@ -8560,7 +8523,7 @@
       <c r="W8" s="31"/>
       <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:24">
       <c r="C9" s="65"/>
       <c r="D9" s="33"/>
       <c r="E9" s="77" t="s">
@@ -8596,7 +8559,7 @@
       <c r="W9" s="35"/>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:24">
       <c r="C10" s="65"/>
       <c r="D10" s="33"/>
       <c r="E10" s="35"/>
@@ -8620,7 +8583,7 @@
       <c r="W10" s="35"/>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:24">
       <c r="C11" s="65"/>
       <c r="D11" s="33"/>
       <c r="E11" s="35" t="s">
@@ -8646,7 +8609,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:24">
       <c r="C12" s="65"/>
       <c r="D12" s="33"/>
       <c r="E12" s="35"/>
@@ -8670,7 +8633,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:24">
       <c r="C13" s="65"/>
       <c r="D13" s="33"/>
       <c r="E13" s="42"/>
@@ -8694,7 +8657,7 @@
       <c r="W13" s="44"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:24">
       <c r="C14" s="65"/>
       <c r="D14" s="33"/>
       <c r="E14" s="45"/>
@@ -8718,7 +8681,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:24">
       <c r="C15" s="65"/>
       <c r="D15" s="33"/>
       <c r="E15" s="45"/>
@@ -8742,7 +8705,7 @@
       <c r="W15" s="47"/>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:24">
       <c r="C16" s="65"/>
       <c r="D16" s="33"/>
       <c r="E16" s="45"/>
@@ -8766,7 +8729,7 @@
       <c r="W16" s="47"/>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24">
       <c r="C17" s="65"/>
       <c r="D17" s="33"/>
       <c r="E17" s="45"/>
@@ -8790,7 +8753,7 @@
       <c r="W17" s="47"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24">
       <c r="C18" s="65"/>
       <c r="D18" s="33"/>
       <c r="E18" s="45"/>
@@ -8814,7 +8777,7 @@
       <c r="W18" s="47"/>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24">
       <c r="C19" s="65"/>
       <c r="D19" s="33"/>
       <c r="E19" s="45"/>
@@ -8838,7 +8801,7 @@
       <c r="W19" s="47"/>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:24">
       <c r="C20" s="65"/>
       <c r="D20" s="33"/>
       <c r="E20" s="45"/>
@@ -8862,7 +8825,7 @@
       <c r="W20" s="47"/>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24">
       <c r="C21" s="65"/>
       <c r="D21" s="33"/>
       <c r="E21" s="48"/>
@@ -8886,12 +8849,12 @@
       <c r="W21" s="50"/>
       <c r="X21" s="34"/>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24">
       <c r="C22" s="65"/>
       <c r="D22" s="33"/>
       <c r="X22" s="34"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24">
       <c r="C23" s="65"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
@@ -8915,165 +8878,165 @@
       <c r="W23" s="37"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24">
       <c r="C24" s="65"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24">
       <c r="C25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:24">
       <c r="D26" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24">
       <c r="E27" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24">
       <c r="E28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:24">
       <c r="F29" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:24">
       <c r="E31" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5">
       <c r="E33" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5">
       <c r="E34" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5">
       <c r="E36" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:5">
       <c r="E37" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:5">
       <c r="E40" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:5">
       <c r="E41" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:5">
       <c r="E42" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:5">
       <c r="E43" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:5">
       <c r="D45" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:5">
       <c r="E46" s="80" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:5">
       <c r="D48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:7">
       <c r="F49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:7">
       <c r="F50" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:7">
       <c r="D52" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:7">
       <c r="E53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:7">
       <c r="E54" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:7">
       <c r="E56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:7">
       <c r="F57" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:7">
       <c r="E59" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:7">
       <c r="F60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:7">
       <c r="G61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:7">
       <c r="G62" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="4:7" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:7" s="64" customFormat="1">
       <c r="D66" s="64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:7">
       <c r="E67" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:7">
       <c r="F68" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:7">
       <c r="F69">
         <v>1</v>
       </c>
@@ -9081,7 +9044,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:7">
       <c r="F71">
         <v>2</v>
       </c>
@@ -9089,7 +9052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:7">
       <c r="F73">
         <v>3</v>
       </c>
@@ -9097,17 +9060,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:7">
       <c r="F74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:7">
       <c r="E75" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:7">
       <c r="F76" t="s">
         <v>145</v>
       </c>
@@ -9115,7 +9078,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E46" location="favディーラJSON仕様!A1" display="favディーラJSON仕様!A1" xr:uid="{87A04D1D-86F0-4B8D-8FA5-49DC5B513224}"/>
+    <hyperlink ref="E46" location="favディーラJSON仕様!A1" display="favディーラJSON仕様!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9124,28 +9087,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="3" style="65"/>
-    <col min="4" max="9" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="Q5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="C6" s="66"/>
       <c r="D6" s="3">
         <v>4</v>
@@ -9171,7 +9134,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -9196,7 +9159,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -9212,7 +9175,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="C9" s="3">
         <v>1</v>
       </c>
@@ -9228,7 +9191,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="C10" s="66"/>
       <c r="D10" s="63">
         <f t="shared" ref="D10:F10" si="1">E10+1</f>
@@ -9254,7 +9217,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="C12" t="s">
         <v>186</v>
       </c>
@@ -9262,7 +9225,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="O13" t="s">
         <v>233</v>
       </c>
@@ -9270,7 +9233,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="O14" t="s">
         <v>235</v>
       </c>
@@ -9278,7 +9241,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="O15" t="s">
         <v>237</v>
       </c>
@@ -9286,17 +9249,17 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25">
       <c r="C18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25">
       <c r="C19" s="66"/>
       <c r="D19" s="3">
         <v>4</v>
@@ -9316,7 +9279,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:25">
       <c r="C20" s="3">
         <v>3</v>
       </c>
@@ -9338,7 +9301,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25">
       <c r="C21" s="3">
         <v>2</v>
       </c>
@@ -9363,7 +9326,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25">
       <c r="C22" s="3">
         <v>1</v>
       </c>
@@ -9379,7 +9342,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25">
       <c r="C23" s="66"/>
       <c r="D23" s="3">
         <v>14</v>
@@ -9396,12 +9359,12 @@
       </c>
       <c r="I23" s="66"/>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25">
       <c r="C25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:25">
       <c r="C26" s="66"/>
       <c r="D26" s="3">
         <v>4</v>
@@ -9423,7 +9386,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25">
       <c r="C27" s="3">
         <v>3</v>
       </c>
@@ -9436,7 +9399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25">
       <c r="C28" s="3">
         <v>2</v>
       </c>
@@ -9449,7 +9412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:25">
       <c r="C29" s="3">
         <v>1</v>
       </c>
@@ -9462,7 +9425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25">
       <c r="C30" s="66"/>
       <c r="D30" s="3">
         <v>16</v>
@@ -9481,12 +9444,12 @@
       </c>
       <c r="I30" s="66"/>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:25">
       <c r="C32" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:16">
       <c r="C33" s="66"/>
       <c r="D33" s="3">
         <v>4</v>
@@ -9505,7 +9468,7 @@
       </c>
       <c r="I33" s="66"/>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:16">
       <c r="C34" s="3">
         <v>3</v>
       </c>
@@ -9518,7 +9481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:16">
       <c r="C35" s="3">
         <v>2</v>
       </c>
@@ -9531,7 +9494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:16">
       <c r="C36" s="3">
         <v>1</v>
       </c>
@@ -9544,7 +9507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:16">
       <c r="C37" s="66"/>
       <c r="D37" s="3">
         <v>14</v>
@@ -9563,7 +9526,7 @@
       </c>
       <c r="I37" s="66"/>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:16">
       <c r="D39" t="s">
         <v>204</v>
       </c>
@@ -9571,7 +9534,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:16">
       <c r="D40" s="3">
         <v>4</v>
       </c>
@@ -9592,7 +9555,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:16">
       <c r="D41" s="51"/>
       <c r="E41" s="54"/>
       <c r="F41" s="55"/>
@@ -9605,7 +9568,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:16">
       <c r="D42" s="52"/>
       <c r="E42" s="57"/>
       <c r="F42" s="58"/>
@@ -9618,7 +9581,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:16">
       <c r="D43" s="53"/>
       <c r="E43" s="60"/>
       <c r="F43" s="61"/>
@@ -9631,17 +9594,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:16">
       <c r="P44" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:16">
       <c r="D45" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:16">
       <c r="D46" s="3">
         <v>4</v>
       </c>
@@ -9662,7 +9625,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:16">
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
       <c r="F47" s="55"/>
@@ -9675,7 +9638,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:16">
       <c r="D48" s="52"/>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -9688,7 +9651,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15">
       <c r="D49" s="53"/>
       <c r="E49" s="60"/>
       <c r="F49" s="61"/>
@@ -9701,10 +9664,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:15">
       <c r="C51" s="65"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15">
       <c r="C60" s="65"/>
     </row>
   </sheetData>
@@ -9716,74 +9679,74 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K4:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:15">
       <c r="K4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:15">
       <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:15">
       <c r="K7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="11:15">
       <c r="L8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="11:15">
       <c r="K10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="11:15">
       <c r="L11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="11:15">
       <c r="L12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="11:15">
       <c r="L13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="11:15">
       <c r="L14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="11:15">
       <c r="O15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:11">
       <c r="K17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:11">
       <c r="K18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="11:11">
       <c r="K27" t="s">
         <v>100</v>
       </c>
@@ -9802,22 +9765,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AL31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="10" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:38">
       <c r="D2" s="30"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -9825,7 +9788,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:38">
       <c r="D3" s="33"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
@@ -9861,7 +9824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:38">
       <c r="D4" s="33"/>
       <c r="E4" s="3">
         <v>3</v>
@@ -9903,7 +9866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:38">
       <c r="D5" s="33"/>
       <c r="E5" s="3">
         <v>2</v>
@@ -9948,7 +9911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:38">
       <c r="D6" s="33"/>
       <c r="E6" s="3">
         <v>1</v>
@@ -9996,7 +9959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:38">
       <c r="D7" s="33"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -10065,7 +10028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:38">
       <c r="D8" s="33"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -10088,7 +10051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:38">
       <c r="D9" s="33"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3">
@@ -10100,7 +10063,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="34"/>
     </row>
-    <row r="10" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:38">
       <c r="D10" s="33"/>
       <c r="E10" s="3">
         <v>3</v>
@@ -10115,7 +10078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:38">
       <c r="D11" s="33"/>
       <c r="E11" s="3">
         <v>2</v>
@@ -10127,7 +10090,7 @@
       </c>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:38">
       <c r="D12" s="33"/>
       <c r="E12" s="3">
         <v>1</v>
@@ -10139,7 +10102,7 @@
       </c>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:38">
       <c r="D13" s="33"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
@@ -10151,7 +10114,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:38">
       <c r="D14" s="33"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -10159,7 +10122,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:38">
       <c r="D15" s="33"/>
       <c r="E15" s="35" t="s">
         <v>30</v>
@@ -10169,7 +10132,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="4:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:38">
       <c r="D16" s="33"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -10177,7 +10140,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:10">
       <c r="D17" s="33"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
@@ -10189,7 +10152,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="34"/>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:10">
       <c r="D18" s="33"/>
       <c r="E18" s="3">
         <v>3</v>
@@ -10201,7 +10164,7 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:10">
       <c r="D19" s="33"/>
       <c r="E19" s="3">
         <v>2</v>
@@ -10213,7 +10176,7 @@
       </c>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:10">
       <c r="D20" s="33"/>
       <c r="E20" s="3">
         <v>1</v>
@@ -10225,7 +10188,7 @@
       </c>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:10">
       <c r="D21" s="33"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
@@ -10237,7 +10200,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:10">
       <c r="D22" s="33"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -10245,7 +10208,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="34"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:10">
       <c r="D23" s="33"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -10253,7 +10216,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="34"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:10">
       <c r="D24" s="36"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
@@ -10261,7 +10224,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:10">
       <c r="E27" s="3">
         <v>4</v>
       </c>
@@ -10282,7 +10245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:10">
       <c r="D28" s="3">
         <v>3</v>
       </c>
@@ -10295,7 +10258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:10">
       <c r="D29" s="3">
         <v>2</v>
       </c>
@@ -10308,7 +10271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:10">
       <c r="D30" s="3">
         <v>1</v>
       </c>
@@ -10321,7 +10284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:10">
       <c r="E31" s="63">
         <f t="shared" ref="E31:G31" si="1">F31+1</f>
         <v>16</v>
@@ -10350,27 +10313,27 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -10378,102 +10341,102 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="C6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="D7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
       <c r="C8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4">
       <c r="C12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4">
       <c r="C13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="D19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="D23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6">
       <c r="E24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6">
       <c r="F25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6">
       <c r="F26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6">
       <c r="E27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6">
       <c r="D30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6">
       <c r="E31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6">
       <c r="E32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:9">
       <c r="E34" t="s">
         <v>86</v>
       </c>
@@ -10481,22 +10444,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:9">
       <c r="G35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:9">
       <c r="G36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:9">
       <c r="G37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:9">
       <c r="E38" t="s">
         <v>85</v>
       </c>
@@ -10504,12 +10467,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:9">
       <c r="D40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:9">
       <c r="E41" t="s">
         <v>41</v>
       </c>
@@ -10520,7 +10483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:9">
       <c r="E42" t="s">
         <v>42</v>
       </c>
@@ -10531,7 +10494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:9">
       <c r="G43" s="39" t="s">
         <v>46</v>
       </c>
@@ -10539,7 +10502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:9">
       <c r="G44" s="39" t="s">
         <v>49</v>
       </c>
@@ -10554,20 +10517,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" customWidth="1"/>
-    <col min="11" max="11" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
         <v>74</v>
@@ -10586,7 +10549,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -10603,7 +10566,7 @@
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -10617,7 +10580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="C5" t="s">
         <v>53</v>
       </c>
@@ -10634,7 +10597,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="D6" t="s">
         <v>53</v>
       </c>
@@ -10651,7 +10614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="E7" t="s">
         <v>55</v>
       </c>
@@ -10662,7 +10625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="F8" t="s">
         <v>56</v>
       </c>
@@ -10673,7 +10636,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="G9" t="s">
         <v>57</v>
       </c>
@@ -10684,7 +10647,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="H10" t="s">
         <v>60</v>
       </c>
@@ -10695,22 +10658,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="D12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="C13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="C14" t="s">
         <v>53</v>
       </c>
@@ -10722,26 +10685,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:GF90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1"/>
   <cols>
-    <col min="1" max="56" width="1.453125" style="8"/>
-    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.453125" style="8"/>
-    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.453125" style="8"/>
-    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.453125" style="8"/>
-    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.453125" style="8"/>
+    <col min="1" max="56" width="1.5" style="8"/>
+    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.5" style="8"/>
+    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.5" style="8"/>
+    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.5" style="8"/>
+    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="2" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
@@ -10749,14 +10712,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="5" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="6" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
@@ -10929,9 +10892,9 @@
       <c r="FZ6" s="10"/>
       <c r="GA6" s="10"/>
     </row>
-    <row r="7" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="8" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="9" spans="2:188" ht="9" customHeight="1">
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -11115,7 +11078,7 @@
       <c r="GE9" s="12"/>
       <c r="GF9" s="13"/>
     </row>
-    <row r="10" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:188" ht="9" customHeight="1">
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -11321,7 +11284,7 @@
       <c r="GE10" s="15"/>
       <c r="GF10" s="16"/>
     </row>
-    <row r="11" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:188" ht="9" customHeight="1">
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -11505,7 +11468,7 @@
       <c r="GE11" s="15"/>
       <c r="GF11" s="16"/>
     </row>
-    <row r="12" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:188" ht="9" customHeight="1">
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -11854,7 +11817,7 @@
       <c r="GE12" s="15"/>
       <c r="GF12" s="16"/>
     </row>
-    <row r="13" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:188" ht="9" customHeight="1">
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -12074,7 +12037,7 @@
       <c r="GE13" s="15"/>
       <c r="GF13" s="16"/>
     </row>
-    <row r="14" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:188" ht="9" customHeight="1">
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -12303,7 +12266,7 @@
       <c r="GE14" s="15"/>
       <c r="GF14" s="16"/>
     </row>
-    <row r="15" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:188" ht="9" customHeight="1">
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -12532,7 +12495,7 @@
       <c r="GE15" s="15"/>
       <c r="GF15" s="16"/>
     </row>
-    <row r="16" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:188" ht="9" customHeight="1">
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -12764,7 +12727,7 @@
       <c r="GE16" s="15"/>
       <c r="GF16" s="16"/>
     </row>
-    <row r="17" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:188" ht="9" customHeight="1">
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -13104,7 +13067,7 @@
       <c r="GE17" s="15"/>
       <c r="GF17" s="16"/>
     </row>
-    <row r="18" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:188" ht="9" customHeight="1">
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -13288,7 +13251,7 @@
       <c r="GE18" s="15"/>
       <c r="GF18" s="16"/>
     </row>
-    <row r="19" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:188" ht="9" customHeight="1">
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -13710,7 +13673,7 @@
       <c r="GE19" s="15"/>
       <c r="GF19" s="16"/>
     </row>
-    <row r="20" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:188" ht="9" customHeight="1">
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -13950,7 +13913,7 @@
       <c r="GE20" s="15"/>
       <c r="GF20" s="16"/>
     </row>
-    <row r="21" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:188" ht="9" customHeight="1">
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -14204,7 +14167,7 @@
       <c r="GE21" s="15"/>
       <c r="GF21" s="16"/>
     </row>
-    <row r="22" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:188" ht="9" customHeight="1">
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -14458,7 +14421,7 @@
       <c r="GE22" s="15"/>
       <c r="GF22" s="16"/>
     </row>
-    <row r="23" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:188" ht="9" customHeight="1">
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -14712,7 +14675,7 @@
       <c r="GE23" s="15"/>
       <c r="GF23" s="16"/>
     </row>
-    <row r="24" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:188" ht="9" customHeight="1">
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -15134,7 +15097,7 @@
       <c r="GE24" s="15"/>
       <c r="GF24" s="16"/>
     </row>
-    <row r="25" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:188" ht="9" customHeight="1">
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -15321,7 +15284,7 @@
       <c r="GE25" s="15"/>
       <c r="GF25" s="16"/>
     </row>
-    <row r="26" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:188" ht="9" customHeight="1">
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -15745,7 +15708,7 @@
       <c r="GD26" s="15"/>
       <c r="GF26" s="16"/>
     </row>
-    <row r="27" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:188" ht="9" customHeight="1">
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -15987,7 +15950,7 @@
       <c r="GD27" s="15"/>
       <c r="GF27" s="16"/>
     </row>
-    <row r="28" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:188" ht="9" customHeight="1">
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -16243,7 +16206,7 @@
       <c r="GD28" s="15"/>
       <c r="GF28" s="16"/>
     </row>
-    <row r="29" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:188" ht="9" customHeight="1">
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -16502,7 +16465,7 @@
       <c r="GD29" s="15"/>
       <c r="GF29" s="16"/>
     </row>
-    <row r="30" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:188" ht="9" customHeight="1">
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -16761,7 +16724,7 @@
       <c r="GD30" s="15"/>
       <c r="GF30" s="16"/>
     </row>
-    <row r="31" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:188" ht="9" customHeight="1">
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -17182,7 +17145,7 @@
       <c r="GD31" s="15"/>
       <c r="GF31" s="16"/>
     </row>
-    <row r="32" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:188" ht="9" customHeight="1">
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -17366,7 +17329,7 @@
       <c r="GE32" s="15"/>
       <c r="GF32" s="16"/>
     </row>
-    <row r="33" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:188" ht="9" customHeight="1">
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -17754,7 +17717,7 @@
       <c r="GE33" s="6"/>
       <c r="GF33" s="16"/>
     </row>
-    <row r="34" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:188" ht="9" customHeight="1">
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -17985,7 +17948,7 @@
       </c>
       <c r="GF34" s="16"/>
     </row>
-    <row r="35" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:188" ht="9" customHeight="1">
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -18227,7 +18190,7 @@
       </c>
       <c r="GF35" s="16"/>
     </row>
-    <row r="36" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:188" ht="9" customHeight="1">
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -18471,7 +18434,7 @@
       </c>
       <c r="GF36" s="16"/>
     </row>
-    <row r="37" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:188" ht="9" customHeight="1">
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -18715,7 +18678,7 @@
       </c>
       <c r="GF37" s="16"/>
     </row>
-    <row r="38" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:188" ht="9" customHeight="1">
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -19089,7 +19052,7 @@
       </c>
       <c r="GF38" s="16"/>
     </row>
-    <row r="39" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:188" ht="9" customHeight="1">
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -19273,7 +19236,7 @@
       <c r="GE39" s="15"/>
       <c r="GF39" s="16"/>
     </row>
-    <row r="40" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="6:188" ht="9" customHeight="1">
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -19697,7 +19660,7 @@
       </c>
       <c r="GF40" s="16"/>
     </row>
-    <row r="41" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="6:188" ht="9" customHeight="1">
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -19937,7 +19900,7 @@
       <c r="GE41" s="15"/>
       <c r="GF41" s="16"/>
     </row>
-    <row r="42" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="6:188" ht="9" customHeight="1">
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -20191,7 +20154,7 @@
       <c r="GE42" s="15"/>
       <c r="GF42" s="16"/>
     </row>
-    <row r="43" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:188" ht="9" customHeight="1">
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -20445,7 +20408,7 @@
       <c r="GE43" s="15"/>
       <c r="GF43" s="16"/>
     </row>
-    <row r="44" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="6:188" ht="9" customHeight="1">
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -20699,7 +20662,7 @@
       <c r="GE44" s="15"/>
       <c r="GF44" s="16"/>
     </row>
-    <row r="45" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="6:188" ht="9" customHeight="1">
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -21121,7 +21084,7 @@
       <c r="GE45" s="15"/>
       <c r="GF45" s="16"/>
     </row>
-    <row r="46" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:188" ht="9" customHeight="1">
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -21305,7 +21268,7 @@
       <c r="GE46" s="15"/>
       <c r="GF46" s="16"/>
     </row>
-    <row r="47" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="6:188" ht="9" customHeight="1">
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -21727,7 +21690,7 @@
       <c r="GE47" s="15"/>
       <c r="GF47" s="16"/>
     </row>
-    <row r="48" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="6:188" ht="9" customHeight="1">
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -21967,7 +21930,7 @@
       <c r="GE48" s="15"/>
       <c r="GF48" s="16"/>
     </row>
-    <row r="49" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="6:188" ht="9" customHeight="1">
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -22221,7 +22184,7 @@
       <c r="GE49" s="15"/>
       <c r="GF49" s="16"/>
     </row>
-    <row r="50" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="6:188" ht="9" customHeight="1">
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -22475,7 +22438,7 @@
       <c r="GE50" s="15"/>
       <c r="GF50" s="16"/>
     </row>
-    <row r="51" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="6:188" ht="9" customHeight="1">
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -22729,7 +22692,7 @@
       <c r="GE51" s="15"/>
       <c r="GF51" s="16"/>
     </row>
-    <row r="52" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="6:188" ht="9" customHeight="1">
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -23151,7 +23114,7 @@
       <c r="GE52" s="15"/>
       <c r="GF52" s="16"/>
     </row>
-    <row r="53" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="6:188" ht="9" customHeight="1">
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -23335,7 +23298,7 @@
       <c r="GE53" s="15"/>
       <c r="GF53" s="16"/>
     </row>
-    <row r="54" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="6:188" ht="9" customHeight="1">
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -23757,7 +23720,7 @@
       <c r="GE54" s="15"/>
       <c r="GF54" s="16"/>
     </row>
-    <row r="55" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="6:188" ht="9" customHeight="1">
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -23997,7 +23960,7 @@
       <c r="GE55" s="15"/>
       <c r="GF55" s="16"/>
     </row>
-    <row r="56" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="6:188" ht="9" customHeight="1">
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -24251,7 +24214,7 @@
       <c r="GE56" s="15"/>
       <c r="GF56" s="16"/>
     </row>
-    <row r="57" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="6:188" ht="9" customHeight="1">
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -24505,7 +24468,7 @@
       <c r="GE57" s="15"/>
       <c r="GF57" s="16"/>
     </row>
-    <row r="58" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="6:188" ht="9" customHeight="1">
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -24759,7 +24722,7 @@
       <c r="GE58" s="15"/>
       <c r="GF58" s="16"/>
     </row>
-    <row r="59" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="6:188" ht="9" customHeight="1">
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -25181,7 +25144,7 @@
       <c r="GE59" s="15"/>
       <c r="GF59" s="16"/>
     </row>
-    <row r="60" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="6:188" ht="9" customHeight="1">
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -25365,7 +25328,7 @@
       <c r="GE60" s="15"/>
       <c r="GF60" s="16"/>
     </row>
-    <row r="61" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="6:188" ht="9" customHeight="1">
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -25755,7 +25718,7 @@
       </c>
       <c r="GF61" s="16"/>
     </row>
-    <row r="62" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="6:188" ht="9" customHeight="1">
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -25987,7 +25950,7 @@
       <c r="GE62" s="15"/>
       <c r="GF62" s="16"/>
     </row>
-    <row r="63" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="6:188" ht="9" customHeight="1">
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -26231,7 +26194,7 @@
       <c r="GE63" s="15"/>
       <c r="GF63" s="16"/>
     </row>
-    <row r="64" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="6:188" ht="9" customHeight="1">
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -26475,7 +26438,7 @@
       <c r="GE64" s="15"/>
       <c r="GF64" s="16"/>
     </row>
-    <row r="65" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="6:188" ht="9" customHeight="1">
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -26719,7 +26682,7 @@
       <c r="GE65" s="15"/>
       <c r="GF65" s="16"/>
     </row>
-    <row r="66" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="6:188" ht="9" customHeight="1">
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -27107,7 +27070,7 @@
       <c r="GE66" s="15"/>
       <c r="GF66" s="16"/>
     </row>
-    <row r="67" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="6:188" ht="9" customHeight="1">
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -27291,7 +27254,7 @@
       <c r="GE67" s="15"/>
       <c r="GF67" s="16"/>
     </row>
-    <row r="68" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="6:188" ht="9" customHeight="1">
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -27730,7 +27693,7 @@
       <c r="GE68" s="15"/>
       <c r="GF68" s="16"/>
     </row>
-    <row r="69" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="6:188" ht="9" customHeight="1">
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -27974,7 +27937,7 @@
       <c r="GE69" s="15"/>
       <c r="GF69" s="16"/>
     </row>
-    <row r="70" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="6:188" ht="9" customHeight="1">
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -28235,7 +28198,7 @@
       </c>
       <c r="GF70" s="16"/>
     </row>
-    <row r="71" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="6:188" ht="9" customHeight="1">
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -28496,7 +28459,7 @@
       </c>
       <c r="GF71" s="16"/>
     </row>
-    <row r="72" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="6:188" ht="9" customHeight="1">
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -28757,7 +28720,7 @@
       </c>
       <c r="GF72" s="16"/>
     </row>
-    <row r="73" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="6:188" ht="9" customHeight="1">
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -29198,7 +29161,7 @@
       </c>
       <c r="GF73" s="16"/>
     </row>
-    <row r="74" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="6:188" ht="9" customHeight="1">
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -29385,7 +29348,7 @@
       <c r="GE74" s="15"/>
       <c r="GF74" s="16"/>
     </row>
-    <row r="75" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="6:188" ht="9" customHeight="1">
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -29810,7 +29773,7 @@
       <c r="GE75" s="15"/>
       <c r="GF75" s="16"/>
     </row>
-    <row r="76" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="6:188" ht="9" customHeight="1">
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -30053,7 +30016,7 @@
       <c r="GE76" s="15"/>
       <c r="GF76" s="16"/>
     </row>
-    <row r="77" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="6:188" ht="9" customHeight="1">
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -30310,7 +30273,7 @@
       <c r="GE77" s="15"/>
       <c r="GF77" s="16"/>
     </row>
-    <row r="78" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="6:188" ht="9" customHeight="1">
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -30570,7 +30533,7 @@
       <c r="GE78" s="15"/>
       <c r="GF78" s="16"/>
     </row>
-    <row r="79" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="6:188" ht="9" customHeight="1">
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -30830,7 +30793,7 @@
       <c r="GE79" s="15"/>
       <c r="GF79" s="16"/>
     </row>
-    <row r="80" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="6:188" ht="9" customHeight="1">
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -31256,7 +31219,7 @@
       <c r="GE80" s="15"/>
       <c r="GF80" s="16"/>
     </row>
-    <row r="81" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="6:188" ht="9" customHeight="1">
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -31440,7 +31403,7 @@
       <c r="GE81" s="15"/>
       <c r="GF81" s="16"/>
     </row>
-    <row r="82" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="6:188" ht="9" customHeight="1">
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -31743,7 +31706,7 @@
       <c r="GE82" s="15"/>
       <c r="GF82" s="16"/>
     </row>
-    <row r="83" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="6:188" ht="9" customHeight="1">
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -31955,7 +31918,7 @@
       <c r="GE83" s="15"/>
       <c r="GF83" s="16"/>
     </row>
-    <row r="84" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="6:188" ht="9" customHeight="1">
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -32174,7 +32137,7 @@
       <c r="GE84" s="15"/>
       <c r="GF84" s="16"/>
     </row>
-    <row r="85" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="6:188" ht="9" customHeight="1">
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -32393,7 +32356,7 @@
       <c r="GE85" s="15"/>
       <c r="GF85" s="16"/>
     </row>
-    <row r="86" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="6:188" ht="9" customHeight="1">
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -32612,7 +32575,7 @@
       <c r="GE86" s="15"/>
       <c r="GF86" s="16"/>
     </row>
-    <row r="87" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="6:188" ht="9" customHeight="1">
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -32915,7 +32878,7 @@
       <c r="GE87" s="15"/>
       <c r="GF87" s="16"/>
     </row>
-    <row r="88" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="6:188" ht="9" customHeight="1">
       <c r="F88" s="14"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -33099,7 +33062,7 @@
       <c r="GE88" s="15"/>
       <c r="GF88" s="16"/>
     </row>
-    <row r="89" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="6:188" ht="9" customHeight="1">
       <c r="F89" s="14"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -33288,7 +33251,7 @@
       <c r="GE89" s="15"/>
       <c r="GF89" s="16"/>
     </row>
-    <row r="90" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="6:188" ht="9" customHeight="1">
       <c r="F90" s="18"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
@@ -33481,38 +33444,38 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:GF90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1"/>
   <cols>
-    <col min="1" max="56" width="1.453125" style="8"/>
-    <col min="57" max="57" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="58" max="88" width="1.453125" style="8"/>
-    <col min="89" max="89" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="155" width="1.453125" style="8"/>
-    <col min="156" max="156" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="157" max="186" width="1.453125" style="8"/>
-    <col min="187" max="187" width="1.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="188" max="16384" width="1.453125" style="8"/>
+    <col min="1" max="56" width="1.5" style="8"/>
+    <col min="57" max="57" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="88" width="1.5" style="8"/>
+    <col min="89" max="89" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="155" width="1.5" style="8"/>
+    <col min="156" max="156" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="157" max="186" width="1.5" style="8"/>
+    <col min="187" max="187" width="1.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="188" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="2" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="5" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="6" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
@@ -33685,9 +33648,9 @@
       <c r="FZ6" s="10"/>
       <c r="GA6" s="10"/>
     </row>
-    <row r="7" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="8" spans="2:188" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="9" spans="2:188" ht="9" customHeight="1">
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -33871,7 +33834,7 @@
       <c r="GE9" s="12"/>
       <c r="GF9" s="13"/>
     </row>
-    <row r="10" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:188" ht="9" customHeight="1">
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -34077,7 +34040,7 @@
       <c r="GE10" s="15"/>
       <c r="GF10" s="16"/>
     </row>
-    <row r="11" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:188" ht="9" customHeight="1">
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -34261,7 +34224,7 @@
       <c r="GE11" s="15"/>
       <c r="GF11" s="16"/>
     </row>
-    <row r="12" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:188" ht="9" customHeight="1">
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -34610,7 +34573,7 @@
       <c r="GE12" s="15"/>
       <c r="GF12" s="16"/>
     </row>
-    <row r="13" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:188" ht="9" customHeight="1">
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -34830,7 +34793,7 @@
       <c r="GE13" s="15"/>
       <c r="GF13" s="16"/>
     </row>
-    <row r="14" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:188" ht="9" customHeight="1">
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -35059,7 +35022,7 @@
       <c r="GE14" s="15"/>
       <c r="GF14" s="16"/>
     </row>
-    <row r="15" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:188" ht="9" customHeight="1">
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -35288,7 +35251,7 @@
       <c r="GE15" s="15"/>
       <c r="GF15" s="16"/>
     </row>
-    <row r="16" spans="2:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:188" ht="9" customHeight="1">
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -35520,7 +35483,7 @@
       <c r="GE16" s="15"/>
       <c r="GF16" s="16"/>
     </row>
-    <row r="17" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:188" ht="9" customHeight="1">
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -35860,7 +35823,7 @@
       <c r="GE17" s="15"/>
       <c r="GF17" s="16"/>
     </row>
-    <row r="18" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:188" ht="9" customHeight="1">
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -36044,7 +36007,7 @@
       <c r="GE18" s="15"/>
       <c r="GF18" s="16"/>
     </row>
-    <row r="19" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:188" ht="9" customHeight="1">
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -36466,7 +36429,7 @@
       <c r="GE19" s="15"/>
       <c r="GF19" s="16"/>
     </row>
-    <row r="20" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:188" ht="9" customHeight="1">
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -36706,7 +36669,7 @@
       <c r="GE20" s="15"/>
       <c r="GF20" s="16"/>
     </row>
-    <row r="21" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:188" ht="9" customHeight="1">
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -36960,7 +36923,7 @@
       <c r="GE21" s="15"/>
       <c r="GF21" s="16"/>
     </row>
-    <row r="22" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:188" ht="9" customHeight="1">
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -37214,7 +37177,7 @@
       <c r="GE22" s="15"/>
       <c r="GF22" s="16"/>
     </row>
-    <row r="23" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:188" ht="9" customHeight="1">
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -37468,7 +37431,7 @@
       <c r="GE23" s="15"/>
       <c r="GF23" s="16"/>
     </row>
-    <row r="24" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:188" ht="9" customHeight="1">
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -37890,7 +37853,7 @@
       <c r="GE24" s="15"/>
       <c r="GF24" s="16"/>
     </row>
-    <row r="25" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:188" ht="9" customHeight="1">
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -38077,7 +38040,7 @@
       <c r="GE25" s="15"/>
       <c r="GF25" s="16"/>
     </row>
-    <row r="26" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:188" ht="9" customHeight="1">
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -38501,7 +38464,7 @@
       <c r="GD26" s="15"/>
       <c r="GF26" s="16"/>
     </row>
-    <row r="27" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:188" ht="9" customHeight="1">
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -38743,7 +38706,7 @@
       <c r="GD27" s="15"/>
       <c r="GF27" s="16"/>
     </row>
-    <row r="28" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:188" ht="9" customHeight="1">
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -38999,7 +38962,7 @@
       <c r="GD28" s="15"/>
       <c r="GF28" s="16"/>
     </row>
-    <row r="29" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:188" ht="9" customHeight="1">
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -39258,7 +39221,7 @@
       <c r="GD29" s="15"/>
       <c r="GF29" s="16"/>
     </row>
-    <row r="30" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:188" ht="9" customHeight="1">
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -39517,7 +39480,7 @@
       <c r="GD30" s="15"/>
       <c r="GF30" s="16"/>
     </row>
-    <row r="31" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:188" ht="9" customHeight="1">
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -39938,7 +39901,7 @@
       <c r="GD31" s="15"/>
       <c r="GF31" s="16"/>
     </row>
-    <row r="32" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:188" ht="9" customHeight="1">
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -40122,7 +40085,7 @@
       <c r="GE32" s="15"/>
       <c r="GF32" s="16"/>
     </row>
-    <row r="33" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:188" ht="9" customHeight="1">
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -40510,7 +40473,7 @@
       <c r="GE33" s="6"/>
       <c r="GF33" s="16"/>
     </row>
-    <row r="34" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:188" ht="9" customHeight="1">
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -40741,7 +40704,7 @@
       </c>
       <c r="GF34" s="16"/>
     </row>
-    <row r="35" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:188" ht="9" customHeight="1">
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -40983,7 +40946,7 @@
       </c>
       <c r="GF35" s="16"/>
     </row>
-    <row r="36" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:188" ht="9" customHeight="1">
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -41227,7 +41190,7 @@
       </c>
       <c r="GF36" s="16"/>
     </row>
-    <row r="37" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:188" ht="9" customHeight="1">
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -41471,7 +41434,7 @@
       </c>
       <c r="GF37" s="16"/>
     </row>
-    <row r="38" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:188" ht="9" customHeight="1">
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -41845,7 +41808,7 @@
       </c>
       <c r="GF38" s="16"/>
     </row>
-    <row r="39" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:188" ht="9" customHeight="1">
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -42029,7 +41992,7 @@
       <c r="GE39" s="15"/>
       <c r="GF39" s="16"/>
     </row>
-    <row r="40" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="6:188" ht="9" customHeight="1">
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -42453,7 +42416,7 @@
       </c>
       <c r="GF40" s="16"/>
     </row>
-    <row r="41" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="6:188" ht="9" customHeight="1">
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -42693,7 +42656,7 @@
       <c r="GE41" s="15"/>
       <c r="GF41" s="16"/>
     </row>
-    <row r="42" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="6:188" ht="9" customHeight="1">
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -42947,7 +42910,7 @@
       <c r="GE42" s="15"/>
       <c r="GF42" s="16"/>
     </row>
-    <row r="43" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:188" ht="9" customHeight="1">
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -43201,7 +43164,7 @@
       <c r="GE43" s="15"/>
       <c r="GF43" s="16"/>
     </row>
-    <row r="44" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="6:188" ht="9" customHeight="1">
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -43455,7 +43418,7 @@
       <c r="GE44" s="15"/>
       <c r="GF44" s="16"/>
     </row>
-    <row r="45" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="6:188" ht="9" customHeight="1">
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -43877,7 +43840,7 @@
       <c r="GE45" s="15"/>
       <c r="GF45" s="16"/>
     </row>
-    <row r="46" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:188" ht="9" customHeight="1">
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -44061,7 +44024,7 @@
       <c r="GE46" s="15"/>
       <c r="GF46" s="16"/>
     </row>
-    <row r="47" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="6:188" ht="9" customHeight="1">
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -44483,7 +44446,7 @@
       <c r="GE47" s="15"/>
       <c r="GF47" s="16"/>
     </row>
-    <row r="48" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="6:188" ht="9" customHeight="1">
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -44723,7 +44686,7 @@
       <c r="GE48" s="15"/>
       <c r="GF48" s="16"/>
     </row>
-    <row r="49" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="6:188" ht="9" customHeight="1">
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -44977,7 +44940,7 @@
       <c r="GE49" s="15"/>
       <c r="GF49" s="16"/>
     </row>
-    <row r="50" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="6:188" ht="9" customHeight="1">
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -45231,7 +45194,7 @@
       <c r="GE50" s="15"/>
       <c r="GF50" s="16"/>
     </row>
-    <row r="51" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="6:188" ht="9" customHeight="1">
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -45485,7 +45448,7 @@
       <c r="GE51" s="15"/>
       <c r="GF51" s="16"/>
     </row>
-    <row r="52" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="6:188" ht="9" customHeight="1">
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -45907,7 +45870,7 @@
       <c r="GE52" s="15"/>
       <c r="GF52" s="16"/>
     </row>
-    <row r="53" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="6:188" ht="9" customHeight="1">
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -46091,7 +46054,7 @@
       <c r="GE53" s="15"/>
       <c r="GF53" s="16"/>
     </row>
-    <row r="54" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="6:188" ht="9" customHeight="1">
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -46513,7 +46476,7 @@
       <c r="GE54" s="15"/>
       <c r="GF54" s="16"/>
     </row>
-    <row r="55" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="6:188" ht="9" customHeight="1">
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -46753,7 +46716,7 @@
       <c r="GE55" s="15"/>
       <c r="GF55" s="16"/>
     </row>
-    <row r="56" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="6:188" ht="9" customHeight="1">
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -47007,7 +46970,7 @@
       <c r="GE56" s="15"/>
       <c r="GF56" s="16"/>
     </row>
-    <row r="57" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="6:188" ht="9" customHeight="1">
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -47261,7 +47224,7 @@
       <c r="GE57" s="15"/>
       <c r="GF57" s="16"/>
     </row>
-    <row r="58" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="6:188" ht="9" customHeight="1">
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -47515,7 +47478,7 @@
       <c r="GE58" s="15"/>
       <c r="GF58" s="16"/>
     </row>
-    <row r="59" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="6:188" ht="9" customHeight="1">
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -47937,7 +47900,7 @@
       <c r="GE59" s="15"/>
       <c r="GF59" s="16"/>
     </row>
-    <row r="60" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="6:188" ht="9" customHeight="1">
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -48121,7 +48084,7 @@
       <c r="GE60" s="15"/>
       <c r="GF60" s="16"/>
     </row>
-    <row r="61" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="6:188" ht="9" customHeight="1">
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -48511,7 +48474,7 @@
       </c>
       <c r="GF61" s="16"/>
     </row>
-    <row r="62" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="6:188" ht="9" customHeight="1">
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -48743,7 +48706,7 @@
       <c r="GE62" s="15"/>
       <c r="GF62" s="16"/>
     </row>
-    <row r="63" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="6:188" ht="9" customHeight="1">
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -48987,7 +48950,7 @@
       <c r="GE63" s="15"/>
       <c r="GF63" s="16"/>
     </row>
-    <row r="64" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="6:188" ht="9" customHeight="1">
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -49231,7 +49194,7 @@
       <c r="GE64" s="15"/>
       <c r="GF64" s="16"/>
     </row>
-    <row r="65" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="6:188" ht="9" customHeight="1">
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -49475,7 +49438,7 @@
       <c r="GE65" s="15"/>
       <c r="GF65" s="16"/>
     </row>
-    <row r="66" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="6:188" ht="9" customHeight="1">
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -49863,7 +49826,7 @@
       <c r="GE66" s="15"/>
       <c r="GF66" s="16"/>
     </row>
-    <row r="67" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="6:188" ht="9" customHeight="1">
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -50047,7 +50010,7 @@
       <c r="GE67" s="15"/>
       <c r="GF67" s="16"/>
     </row>
-    <row r="68" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="6:188" ht="9" customHeight="1">
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -50486,7 +50449,7 @@
       <c r="GE68" s="15"/>
       <c r="GF68" s="16"/>
     </row>
-    <row r="69" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="6:188" ht="9" customHeight="1">
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -50730,7 +50693,7 @@
       <c r="GE69" s="15"/>
       <c r="GF69" s="16"/>
     </row>
-    <row r="70" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="6:188" ht="9" customHeight="1">
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -50991,7 +50954,7 @@
       </c>
       <c r="GF70" s="16"/>
     </row>
-    <row r="71" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="6:188" ht="9" customHeight="1">
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -51252,7 +51215,7 @@
       </c>
       <c r="GF71" s="16"/>
     </row>
-    <row r="72" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="6:188" ht="9" customHeight="1">
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -51513,7 +51476,7 @@
       </c>
       <c r="GF72" s="16"/>
     </row>
-    <row r="73" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="6:188" ht="9" customHeight="1">
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -51954,7 +51917,7 @@
       </c>
       <c r="GF73" s="16"/>
     </row>
-    <row r="74" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="6:188" ht="9" customHeight="1">
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -52141,7 +52104,7 @@
       <c r="GE74" s="15"/>
       <c r="GF74" s="16"/>
     </row>
-    <row r="75" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="6:188" ht="9" customHeight="1">
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -52566,7 +52529,7 @@
       <c r="GE75" s="15"/>
       <c r="GF75" s="16"/>
     </row>
-    <row r="76" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="6:188" ht="9" customHeight="1">
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -52809,7 +52772,7 @@
       <c r="GE76" s="15"/>
       <c r="GF76" s="16"/>
     </row>
-    <row r="77" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="6:188" ht="9" customHeight="1">
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -53066,7 +53029,7 @@
       <c r="GE77" s="15"/>
       <c r="GF77" s="16"/>
     </row>
-    <row r="78" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="6:188" ht="9" customHeight="1">
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -53326,7 +53289,7 @@
       <c r="GE78" s="15"/>
       <c r="GF78" s="16"/>
     </row>
-    <row r="79" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="6:188" ht="9" customHeight="1">
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -53586,7 +53549,7 @@
       <c r="GE79" s="15"/>
       <c r="GF79" s="16"/>
     </row>
-    <row r="80" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="6:188" ht="9" customHeight="1">
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -54012,7 +53975,7 @@
       <c r="GE80" s="15"/>
       <c r="GF80" s="16"/>
     </row>
-    <row r="81" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="6:188" ht="9" customHeight="1">
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -54196,7 +54159,7 @@
       <c r="GE81" s="15"/>
       <c r="GF81" s="16"/>
     </row>
-    <row r="82" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="6:188" ht="9" customHeight="1">
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -54499,7 +54462,7 @@
       <c r="GE82" s="15"/>
       <c r="GF82" s="16"/>
     </row>
-    <row r="83" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="6:188" ht="9" customHeight="1">
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -54711,7 +54674,7 @@
       <c r="GE83" s="15"/>
       <c r="GF83" s="16"/>
     </row>
-    <row r="84" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="6:188" ht="9" customHeight="1">
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -54930,7 +54893,7 @@
       <c r="GE84" s="15"/>
       <c r="GF84" s="16"/>
     </row>
-    <row r="85" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="6:188" ht="9" customHeight="1">
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -55149,7 +55112,7 @@
       <c r="GE85" s="15"/>
       <c r="GF85" s="16"/>
     </row>
-    <row r="86" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="6:188" ht="9" customHeight="1">
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -55368,7 +55331,7 @@
       <c r="GE86" s="15"/>
       <c r="GF86" s="16"/>
     </row>
-    <row r="87" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="6:188" ht="9" customHeight="1">
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -55671,7 +55634,7 @@
       <c r="GE87" s="15"/>
       <c r="GF87" s="16"/>
     </row>
-    <row r="88" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="6:188" ht="9" customHeight="1">
       <c r="F88" s="14"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -55855,7 +55818,7 @@
       <c r="GE88" s="15"/>
       <c r="GF88" s="16"/>
     </row>
-    <row r="89" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="6:188" ht="9" customHeight="1">
       <c r="F89" s="14"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -56044,7 +56007,7 @@
       <c r="GE89" s="15"/>
       <c r="GF89" s="16"/>
     </row>
-    <row r="90" spans="6:188" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="6:188" ht="9" customHeight="1">
       <c r="F90" s="18"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
@@ -56235,32 +56198,32 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CM88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.453125" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="1.5" defaultRowHeight="9" customHeight="1"/>
   <cols>
-    <col min="1" max="7" width="1.453125" style="8"/>
+    <col min="1" max="7" width="1.5" style="8"/>
     <col min="8" max="44" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="45" max="16384" width="1.453125" style="8"/>
+    <col min="45" max="16384" width="1.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="2" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="5" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="6" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
@@ -56344,9 +56307,9 @@
       <c r="CI6" s="10"/>
       <c r="CJ6" s="10"/>
     </row>
-    <row r="7" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="8" spans="2:91" s="9" customFormat="1" ht="9" customHeight="1"/>
+    <row r="9" spans="2:91" ht="9" customHeight="1">
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -56434,7 +56397,7 @@
       <c r="CL9" s="12"/>
       <c r="CM9" s="13"/>
     </row>
-    <row r="10" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:91" ht="9" customHeight="1">
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -56522,7 +56485,7 @@
       <c r="CL10" s="15"/>
       <c r="CM10" s="16"/>
     </row>
-    <row r="11" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:91" ht="9" customHeight="1">
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -56697,7 +56660,7 @@
       <c r="CL11" s="15"/>
       <c r="CM11" s="16"/>
     </row>
-    <row r="12" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:91" ht="9" customHeight="1">
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -56805,7 +56768,7 @@
       <c r="CL12" s="15"/>
       <c r="CM12" s="16"/>
     </row>
-    <row r="13" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:91" ht="9" customHeight="1">
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -56918,7 +56881,7 @@
       <c r="CL13" s="15"/>
       <c r="CM13" s="16"/>
     </row>
-    <row r="14" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:91" ht="9" customHeight="1">
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -57031,7 +56994,7 @@
       <c r="CL14" s="15"/>
       <c r="CM14" s="16"/>
     </row>
-    <row r="15" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:91" ht="9" customHeight="1">
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -57144,7 +57107,7 @@
       <c r="CL15" s="15"/>
       <c r="CM15" s="16"/>
     </row>
-    <row r="16" spans="2:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:91" ht="9" customHeight="1">
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -57317,7 +57280,7 @@
       <c r="CL16" s="15"/>
       <c r="CM16" s="16"/>
     </row>
-    <row r="17" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:91" ht="9" customHeight="1">
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -57405,7 +57368,7 @@
       <c r="CL17" s="15"/>
       <c r="CM17" s="16"/>
     </row>
-    <row r="18" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:91" ht="9" customHeight="1">
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -57595,7 +57558,7 @@
       <c r="CL18" s="15"/>
       <c r="CM18" s="16"/>
     </row>
-    <row r="19" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:91" ht="9" customHeight="1">
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -57707,7 +57670,7 @@
       <c r="CL19" s="15"/>
       <c r="CM19" s="16"/>
     </row>
-    <row r="20" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:91" ht="9" customHeight="1">
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -57825,7 +57788,7 @@
       <c r="CL20" s="15"/>
       <c r="CM20" s="16"/>
     </row>
-    <row r="21" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:91" ht="9" customHeight="1">
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -57943,7 +57906,7 @@
       <c r="CL21" s="15"/>
       <c r="CM21" s="16"/>
     </row>
-    <row r="22" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:91" ht="9" customHeight="1">
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -58061,7 +58024,7 @@
       <c r="CL22" s="15"/>
       <c r="CM22" s="16"/>
     </row>
-    <row r="23" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:91" ht="9" customHeight="1">
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -58251,7 +58214,7 @@
       <c r="CL23" s="15"/>
       <c r="CM23" s="16"/>
     </row>
-    <row r="24" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:91" ht="9" customHeight="1">
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -58339,7 +58302,7 @@
       <c r="CL24" s="15"/>
       <c r="CM24" s="16"/>
     </row>
-    <row r="25" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:91" ht="9" customHeight="1">
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -58529,7 +58492,7 @@
       <c r="CL25" s="15"/>
       <c r="CM25" s="16"/>
     </row>
-    <row r="26" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:91" ht="9" customHeight="1">
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -58641,7 +58604,7 @@
       <c r="CL26" s="15"/>
       <c r="CM26" s="16"/>
     </row>
-    <row r="27" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:91" ht="9" customHeight="1">
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -58759,7 +58722,7 @@
       <c r="CL27" s="15"/>
       <c r="CM27" s="16"/>
     </row>
-    <row r="28" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:91" ht="9" customHeight="1">
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -58877,7 +58840,7 @@
       <c r="CL28" s="15"/>
       <c r="CM28" s="16"/>
     </row>
-    <row r="29" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:91" ht="9" customHeight="1">
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -58995,7 +58958,7 @@
       <c r="CL29" s="15"/>
       <c r="CM29" s="16"/>
     </row>
-    <row r="30" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:91" ht="9" customHeight="1">
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -59185,7 +59148,7 @@
       <c r="CL30" s="15"/>
       <c r="CM30" s="16"/>
     </row>
-    <row r="31" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:91" ht="9" customHeight="1">
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -59273,7 +59236,7 @@
       <c r="CL31" s="15"/>
       <c r="CM31" s="16"/>
     </row>
-    <row r="32" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:91" ht="9" customHeight="1">
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -59463,7 +59426,7 @@
       <c r="CL32" s="15"/>
       <c r="CM32" s="16"/>
     </row>
-    <row r="33" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:91" ht="9" customHeight="1">
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -59571,7 +59534,7 @@
       <c r="CL33" s="15"/>
       <c r="CM33" s="16"/>
     </row>
-    <row r="34" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:91" ht="9" customHeight="1">
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -59684,7 +59647,7 @@
       <c r="CL34" s="15"/>
       <c r="CM34" s="16"/>
     </row>
-    <row r="35" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:91" ht="9" customHeight="1">
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -59799,7 +59762,7 @@
       <c r="CL35" s="15"/>
       <c r="CM35" s="16"/>
     </row>
-    <row r="36" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:91" ht="9" customHeight="1">
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -59914,7 +59877,7 @@
       <c r="CL36" s="15"/>
       <c r="CM36" s="16"/>
     </row>
-    <row r="37" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:91" ht="9" customHeight="1">
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -60087,7 +60050,7 @@
       <c r="CL37" s="15"/>
       <c r="CM37" s="16"/>
     </row>
-    <row r="38" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:91" ht="9" customHeight="1">
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -60175,7 +60138,7 @@
       <c r="CL38" s="15"/>
       <c r="CM38" s="16"/>
     </row>
-    <row r="39" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:91" ht="9" customHeight="1">
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -60382,7 +60345,7 @@
       <c r="CL39" s="15"/>
       <c r="CM39" s="16"/>
     </row>
-    <row r="40" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="6:91" ht="9" customHeight="1">
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -60498,7 +60461,7 @@
       <c r="CL40" s="15"/>
       <c r="CM40" s="16"/>
     </row>
-    <row r="41" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="6:91" ht="9" customHeight="1">
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -60621,7 +60584,7 @@
       <c r="CL41" s="15"/>
       <c r="CM41" s="16"/>
     </row>
-    <row r="42" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="6:91" ht="9" customHeight="1">
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -60744,7 +60707,7 @@
       <c r="CL42" s="15"/>
       <c r="CM42" s="16"/>
     </row>
-    <row r="43" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:91" ht="9" customHeight="1">
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -60867,7 +60830,7 @@
       <c r="CL43" s="15"/>
       <c r="CM43" s="16"/>
     </row>
-    <row r="44" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="6:91" ht="9" customHeight="1">
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -61074,7 +61037,7 @@
       <c r="CL44" s="15"/>
       <c r="CM44" s="16"/>
     </row>
-    <row r="45" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="6:91" ht="9" customHeight="1">
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -61162,7 +61125,7 @@
       <c r="CL45" s="15"/>
       <c r="CM45" s="16"/>
     </row>
-    <row r="46" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:91" ht="9" customHeight="1">
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -61369,7 +61332,7 @@
       <c r="CL46" s="15"/>
       <c r="CM46" s="16"/>
     </row>
-    <row r="47" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="6:91" ht="9" customHeight="1">
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -61485,7 +61448,7 @@
       <c r="CL47" s="15"/>
       <c r="CM47" s="16"/>
     </row>
-    <row r="48" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="6:91" ht="9" customHeight="1">
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -61608,7 +61571,7 @@
       <c r="CL48" s="15"/>
       <c r="CM48" s="16"/>
     </row>
-    <row r="49" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="6:91" ht="9" customHeight="1">
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -61731,7 +61694,7 @@
       <c r="CL49" s="15"/>
       <c r="CM49" s="16"/>
     </row>
-    <row r="50" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="6:91" ht="9" customHeight="1">
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -61854,7 +61817,7 @@
       <c r="CL50" s="15"/>
       <c r="CM50" s="16"/>
     </row>
-    <row r="51" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="6:91" ht="9" customHeight="1">
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -62061,7 +62024,7 @@
       <c r="CL51" s="15"/>
       <c r="CM51" s="16"/>
     </row>
-    <row r="52" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="6:91" ht="9" customHeight="1">
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -62149,7 +62112,7 @@
       <c r="CL52" s="15"/>
       <c r="CM52" s="16"/>
     </row>
-    <row r="53" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="6:91" ht="9" customHeight="1">
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -62356,7 +62319,7 @@
       <c r="CL53" s="15"/>
       <c r="CM53" s="16"/>
     </row>
-    <row r="54" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="6:91" ht="9" customHeight="1">
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -62472,7 +62435,7 @@
       <c r="CL54" s="15"/>
       <c r="CM54" s="16"/>
     </row>
-    <row r="55" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="6:91" ht="9" customHeight="1">
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -62595,7 +62558,7 @@
       <c r="CL55" s="15"/>
       <c r="CM55" s="16"/>
     </row>
-    <row r="56" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="6:91" ht="9" customHeight="1">
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -62718,7 +62681,7 @@
       <c r="CL56" s="15"/>
       <c r="CM56" s="16"/>
     </row>
-    <row r="57" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="6:91" ht="9" customHeight="1">
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -62841,7 +62804,7 @@
       <c r="CL57" s="15"/>
       <c r="CM57" s="16"/>
     </row>
-    <row r="58" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="6:91" ht="9" customHeight="1">
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -63048,7 +63011,7 @@
       <c r="CL58" s="15"/>
       <c r="CM58" s="16"/>
     </row>
-    <row r="59" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="6:91" ht="9" customHeight="1">
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -63136,7 +63099,7 @@
       <c r="CL59" s="15"/>
       <c r="CM59" s="16"/>
     </row>
-    <row r="60" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="6:91" ht="9" customHeight="1">
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -63326,7 +63289,7 @@
       <c r="CL60" s="15"/>
       <c r="CM60" s="16"/>
     </row>
-    <row r="61" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="6:91" ht="9" customHeight="1">
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -63438,7 +63401,7 @@
       <c r="CL61" s="15"/>
       <c r="CM61" s="16"/>
     </row>
-    <row r="62" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="6:91" ht="9" customHeight="1">
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -63556,7 +63519,7 @@
       <c r="CL62" s="15"/>
       <c r="CM62" s="16"/>
     </row>
-    <row r="63" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="6:91" ht="9" customHeight="1">
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -63674,7 +63637,7 @@
       <c r="CL63" s="15"/>
       <c r="CM63" s="16"/>
     </row>
-    <row r="64" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="6:91" ht="9" customHeight="1">
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -63792,7 +63755,7 @@
       <c r="CL64" s="15"/>
       <c r="CM64" s="16"/>
     </row>
-    <row r="65" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="6:91" ht="9" customHeight="1">
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -63982,7 +63945,7 @@
       <c r="CL65" s="15"/>
       <c r="CM65" s="16"/>
     </row>
-    <row r="66" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="6:91" ht="9" customHeight="1">
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -64070,7 +64033,7 @@
       <c r="CL66" s="15"/>
       <c r="CM66" s="16"/>
     </row>
-    <row r="67" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="6:91" ht="9" customHeight="1">
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -64277,7 +64240,7 @@
       <c r="CL67" s="15"/>
       <c r="CM67" s="16"/>
     </row>
-    <row r="68" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="6:91" ht="9" customHeight="1">
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -64393,7 +64356,7 @@
       <c r="CL68" s="15"/>
       <c r="CM68" s="16"/>
     </row>
-    <row r="69" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="6:91" ht="9" customHeight="1">
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -64516,7 +64479,7 @@
       <c r="CL69" s="15"/>
       <c r="CM69" s="16"/>
     </row>
-    <row r="70" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="6:91" ht="9" customHeight="1">
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -64639,7 +64602,7 @@
       <c r="CL70" s="15"/>
       <c r="CM70" s="16"/>
     </row>
-    <row r="71" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="6:91" ht="9" customHeight="1">
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -64762,7 +64725,7 @@
       <c r="CL71" s="15"/>
       <c r="CM71" s="16"/>
     </row>
-    <row r="72" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="6:91" ht="9" customHeight="1">
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -64969,7 +64932,7 @@
       <c r="CL72" s="15"/>
       <c r="CM72" s="16"/>
     </row>
-    <row r="73" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="6:91" ht="9" customHeight="1">
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -65057,7 +65020,7 @@
       <c r="CL73" s="15"/>
       <c r="CM73" s="16"/>
     </row>
-    <row r="74" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="6:91" ht="9" customHeight="1">
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -65264,7 +65227,7 @@
       <c r="CL74" s="15"/>
       <c r="CM74" s="16"/>
     </row>
-    <row r="75" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="6:91" ht="9" customHeight="1">
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -65380,7 +65343,7 @@
       <c r="CL75" s="15"/>
       <c r="CM75" s="16"/>
     </row>
-    <row r="76" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="6:91" ht="9" customHeight="1">
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -65503,7 +65466,7 @@
       <c r="CL76" s="15"/>
       <c r="CM76" s="16"/>
     </row>
-    <row r="77" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="6:91" ht="9" customHeight="1">
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -65626,7 +65589,7 @@
       <c r="CL77" s="15"/>
       <c r="CM77" s="16"/>
     </row>
-    <row r="78" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="6:91" ht="9" customHeight="1">
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -65749,7 +65712,7 @@
       <c r="CL78" s="15"/>
       <c r="CM78" s="16"/>
     </row>
-    <row r="79" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="6:91" ht="9" customHeight="1">
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -65956,7 +65919,7 @@
       <c r="CL79" s="15"/>
       <c r="CM79" s="16"/>
     </row>
-    <row r="80" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="6:91" ht="9" customHeight="1">
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -66044,7 +66007,7 @@
       <c r="CL80" s="15"/>
       <c r="CM80" s="16"/>
     </row>
-    <row r="81" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="6:91" ht="9" customHeight="1">
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -66200,7 +66163,7 @@
       <c r="CL81" s="15"/>
       <c r="CM81" s="16"/>
     </row>
-    <row r="82" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="6:91" ht="9" customHeight="1">
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -66304,7 +66267,7 @@
       <c r="CL82" s="15"/>
       <c r="CM82" s="16"/>
     </row>
-    <row r="83" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="6:91" ht="9" customHeight="1">
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
@@ -66412,7 +66375,7 @@
       <c r="CL83" s="15"/>
       <c r="CM83" s="16"/>
     </row>
-    <row r="84" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="6:91" ht="9" customHeight="1">
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
@@ -66520,7 +66483,7 @@
       <c r="CL84" s="15"/>
       <c r="CM84" s="16"/>
     </row>
-    <row r="85" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="6:91" ht="9" customHeight="1">
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -66628,7 +66591,7 @@
       <c r="CL85" s="15"/>
       <c r="CM85" s="16"/>
     </row>
-    <row r="86" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="6:91" ht="9" customHeight="1">
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -66784,7 +66747,7 @@
       <c r="CL86" s="15"/>
       <c r="CM86" s="16"/>
     </row>
-    <row r="87" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="6:91" ht="9" customHeight="1">
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -66872,7 +66835,7 @@
       <c r="CL87" s="15"/>
       <c r="CM87" s="16"/>
     </row>
-    <row r="88" spans="6:91" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="6:91" ht="9" customHeight="1">
       <c r="F88" s="18"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
@@ -66968,20 +66931,20 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:D20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="45.26953125" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -66992,7 +66955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40.5">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -67001,7 +66964,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="54">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -67010,7 +66973,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="91" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="94.5">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -67024,7 +66987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -67032,7 +66995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -67040,12 +67003,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -67057,21 +67020,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:24">
       <c r="C2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:24">
       <c r="D3" t="s">
         <v>137</v>
       </c>
@@ -67079,7 +67042,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:24">
       <c r="D4" t="s">
         <v>329</v>
       </c>
@@ -67087,7 +67050,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:24">
       <c r="C8" s="65"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
@@ -67111,7 +67074,7 @@
       <c r="W8" s="31"/>
       <c r="X8" s="32"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:24">
       <c r="C9" s="65"/>
       <c r="D9" s="33"/>
       <c r="E9" s="77" t="s">
@@ -67147,7 +67110,7 @@
       <c r="W9" s="35"/>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:24">
       <c r="C10" s="65"/>
       <c r="D10" s="33"/>
       <c r="E10" s="35"/>
@@ -67171,7 +67134,7 @@
       <c r="W10" s="35"/>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:24">
       <c r="C11" s="65"/>
       <c r="D11" s="33"/>
       <c r="E11" s="35" t="s">
@@ -67197,7 +67160,7 @@
       <c r="W11" s="35"/>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:24">
       <c r="C12" s="65"/>
       <c r="D12" s="33"/>
       <c r="E12" s="35"/>
@@ -67221,7 +67184,7 @@
       <c r="W12" s="35"/>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:24">
       <c r="C13" s="65"/>
       <c r="D13" s="33"/>
       <c r="E13" s="42"/>
@@ -67245,7 +67208,7 @@
       <c r="W13" s="44"/>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:24">
       <c r="C14" s="65"/>
       <c r="D14" s="33"/>
       <c r="E14" s="45"/>
@@ -67269,7 +67232,7 @@
       <c r="W14" s="47"/>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:24">
       <c r="C15" s="65"/>
       <c r="D15" s="33"/>
       <c r="E15" s="45"/>
@@ -67293,7 +67256,7 @@
       <c r="W15" s="47"/>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:24">
       <c r="C16" s="65"/>
       <c r="D16" s="33"/>
       <c r="E16" s="45"/>
@@ -67317,7 +67280,7 @@
       <c r="W16" s="47"/>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24">
       <c r="C17" s="65"/>
       <c r="D17" s="33"/>
       <c r="E17" s="45"/>
@@ -67341,7 +67304,7 @@
       <c r="W17" s="47"/>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24">
       <c r="C18" s="65"/>
       <c r="D18" s="33"/>
       <c r="E18" s="45"/>
@@ -67365,7 +67328,7 @@
       <c r="W18" s="47"/>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24">
       <c r="C19" s="65"/>
       <c r="D19" s="33"/>
       <c r="E19" s="45"/>
@@ -67389,7 +67352,7 @@
       <c r="W19" s="47"/>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:24">
       <c r="C20" s="65"/>
       <c r="D20" s="33"/>
       <c r="E20" s="45"/>
@@ -67413,7 +67376,7 @@
       <c r="W20" s="47"/>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24">
       <c r="C21" s="65"/>
       <c r="D21" s="33"/>
       <c r="E21" s="48"/>
@@ -67437,12 +67400,12 @@
       <c r="W21" s="50"/>
       <c r="X21" s="34"/>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24">
       <c r="C22" s="65"/>
       <c r="D22" s="33"/>
       <c r="X22" s="34"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24">
       <c r="C23" s="65"/>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
@@ -67466,25 +67429,25 @@
       <c r="W23" s="37"/>
       <c r="X23" s="38"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24">
       <c r="C24" s="65"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24">
       <c r="C25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:24">
       <c r="D26" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24">
       <c r="E27" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24">
       <c r="E28" s="85" t="s">
         <v>320</v>
       </c>
@@ -67499,7 +67462,7 @@
       <c r="N28" s="85"/>
       <c r="O28" s="85"/>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:24">
       <c r="E29" s="85"/>
       <c r="F29" s="85"/>
       <c r="G29" s="85"/>
@@ -67512,7 +67475,7 @@
       <c r="N29" s="85"/>
       <c r="O29" s="85"/>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24">
       <c r="E30" s="85" t="s">
         <v>321</v>
       </c>
@@ -67527,7 +67490,7 @@
       <c r="N30" s="85"/>
       <c r="O30" s="85"/>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:24">
       <c r="E31" s="85" t="s">
         <v>323</v>
       </c>
@@ -67542,7 +67505,7 @@
       <c r="N31" s="85"/>
       <c r="O31" s="85"/>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:24">
       <c r="E32" s="85"/>
       <c r="F32" s="85"/>
       <c r="G32" s="85"/>
@@ -67555,7 +67518,7 @@
       <c r="N32" s="85"/>
       <c r="O32" s="85"/>
     </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:15">
       <c r="E33" s="85" t="s">
         <v>319</v>
       </c>
@@ -67570,9 +67533,9 @@
       <c r="N33" s="85"/>
       <c r="O33" s="85"/>
     </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:15">
       <c r="E34" s="85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F34" s="85"/>
       <c r="G34" s="85"/>
@@ -67585,7 +67548,7 @@
       <c r="N34" s="85"/>
       <c r="O34" s="85"/>
     </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:15">
       <c r="E35" s="85"/>
       <c r="F35" s="85"/>
       <c r="G35" s="85"/>
@@ -67598,7 +67561,7 @@
       <c r="N35" s="85"/>
       <c r="O35" s="85"/>
     </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:15">
       <c r="E36" s="85" t="s">
         <v>336</v>
       </c>
@@ -67613,67 +67576,68 @@
       <c r="N36" s="85"/>
       <c r="O36" s="85"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:15">
       <c r="F37" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15">
       <c r="E39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15">
+      <c r="E40" s="85" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E40" s="84" t="s">
+      <c r="F40" s="85"/>
+    </row>
+    <row r="41" spans="4:15">
+      <c r="F41" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:15">
       <c r="D43" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:15">
       <c r="E44" s="80" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:15">
       <c r="D46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:15">
       <c r="E47" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:7">
       <c r="E49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:7">
       <c r="F50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:7">
       <c r="E52" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
       <c r="G53" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:7">
       <c r="G54" t="s">
         <v>131</v>
       </c>
@@ -67681,7 +67645,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E44" location="favディーラJSON仕様!A1" display="favディーラJSON仕様!A1" xr:uid="{746DADBA-A0E6-48D1-9EF4-B04194DDA2CF}"/>
+    <hyperlink ref="E44" location="favディーラJSON仕様!A1" display="favディーラJSON仕様!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -67690,29 +67654,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A511F513-637B-4B84-970E-2281EF201BE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="79" t="s">
         <v>306</v>
       </c>
@@ -67732,7 +67696,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>307</v>
       </c>
@@ -67752,7 +67716,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>308</v>
       </c>
@@ -67772,7 +67736,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
         <v>309</v>
       </c>
@@ -67792,7 +67756,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -67800,7 +67764,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -67808,12 +67772,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>297</v>
       </c>
@@ -67825,275 +67789,275 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7904C09-F802-4AB9-A26A-E5E04ED630DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>105</v>
       </c>
       <c r="C3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="80" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="80" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="80" t="s">
         <v>368</v>
-      </c>
-      <c r="C6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="80" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="地図ジェネレータmemo!A1" display="地図ジェネレータmemo!A1" xr:uid="{594C9FE1-324B-42DB-A3B2-A60E42F48080}"/>
-    <hyperlink ref="C7" location="課題・改善＿地図ジェネレータ!A1" display="課題・改善＿地図ジェネレータ!A1" xr:uid="{182E7804-F0BB-4FB1-B9F4-71BBA1D48D68}"/>
+    <hyperlink ref="C4" location="地図ジェネレータmemo!A1" display="地図ジェネレータmemo!A1"/>
+    <hyperlink ref="C7" location="課題・改善＿地図ジェネレータ!A1" display="課題・改善＿地図ジェネレータ!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE31061-81C2-45B6-B589-7EFF4EE6287B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="A19:G19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="8.08984375" customWidth="1"/>
-    <col min="5" max="5" width="68.7265625" style="81" customWidth="1"/>
-    <col min="6" max="6" width="41.90625" customWidth="1"/>
-    <col min="7" max="7" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="68.75" style="81" customWidth="1"/>
+    <col min="6" max="6" width="41.875" customWidth="1"/>
+    <col min="7" max="7" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="79" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G3" s="79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="27">
       <c r="B4" s="1">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <f t="shared" ref="B5:B19" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="27">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="27">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="27">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="27">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -68104,77 +68068,77 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" ht="39" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="40.5">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="78" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="81">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -68182,7 +68146,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -68190,7 +68154,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -68198,7 +68162,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -68213,14 +68177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68228,14 +68192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AG80"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="69"/>
     <col min="2" max="2" width="3" style="70"/>
@@ -68245,22 +68209,22 @@
     <col min="33" max="33" width="3" style="73"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33">
       <c r="B2" s="70" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33">
       <c r="C3" s="69" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33">
       <c r="C4" s="69" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33">
       <c r="B6" s="70" t="s">
         <v>105</v>
       </c>
@@ -68271,17 +68235,17 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33">
       <c r="C7" s="70" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33">
       <c r="D8" s="69" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33">
       <c r="E9" s="69" t="s">
         <v>148</v>
       </c>
@@ -68289,7 +68253,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33">
       <c r="E10" s="69" t="s">
         <v>155</v>
       </c>
@@ -68300,27 +68264,27 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33">
       <c r="F11" s="69" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33">
       <c r="F12" s="69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33">
       <c r="F13" s="69" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33">
       <c r="D14" s="69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:33">
       <c r="E15" s="69" t="s">
         <v>149</v>
       </c>
@@ -68331,12 +68295,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:33">
       <c r="D17" s="69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33">
       <c r="E18" s="69" t="s">
         <v>150</v>
       </c>
@@ -68344,12 +68308,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33">
       <c r="D20" s="69" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33">
       <c r="E21" s="69" t="s">
         <v>151</v>
       </c>
@@ -68360,17 +68324,17 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33">
       <c r="E22" s="69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33">
       <c r="D23" s="69" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33">
       <c r="E24" s="69" t="s">
         <v>176</v>
       </c>
@@ -68381,7 +68345,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33">
       <c r="E25" s="69" t="s">
         <v>177</v>
       </c>
@@ -68392,12 +68356,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33">
       <c r="D27" s="69" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33">
       <c r="E28" s="69" t="s">
         <v>179</v>
       </c>
@@ -68405,7 +68369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:33">
       <c r="E29" s="69" t="s">
         <v>180</v>
       </c>
@@ -68413,7 +68377,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:33">
       <c r="E30" s="69" t="s">
         <v>181</v>
       </c>
@@ -68421,17 +68385,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:33">
       <c r="C32" s="70" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:33">
       <c r="D33" s="69" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:33">
       <c r="E34" s="69" t="s">
         <v>154</v>
       </c>
@@ -68439,17 +68403,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:33">
       <c r="D35" s="72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:33">
       <c r="D36" s="69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:33">
       <c r="E37" s="69" t="s">
         <v>156</v>
       </c>
@@ -68457,17 +68421,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:33">
       <c r="D38" s="72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:33">
       <c r="C41" s="70" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:33">
       <c r="D42" s="69" t="s">
         <v>159</v>
       </c>
@@ -68478,7 +68442,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:33">
       <c r="E44" s="69" t="s">
         <v>158</v>
       </c>
@@ -68486,7 +68450,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:33">
       <c r="E45" s="69" t="s">
         <v>160</v>
       </c>
@@ -68494,7 +68458,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:33">
       <c r="E46" s="69" t="s">
         <v>161</v>
       </c>
@@ -68502,7 +68466,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:33">
       <c r="E47" s="69" t="s">
         <v>162</v>
       </c>
@@ -68510,7 +68474,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:33">
       <c r="E48" s="69" t="s">
         <v>182</v>
       </c>
@@ -68518,7 +68482,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:29">
       <c r="D50" s="69" t="s">
         <v>164</v>
       </c>
@@ -68526,7 +68490,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:29">
       <c r="E51" s="69" t="s">
         <v>168</v>
       </c>
@@ -68534,12 +68498,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:29">
       <c r="E52" s="72" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:29">
       <c r="E53" s="69" t="s">
         <v>166</v>
       </c>
@@ -68547,7 +68511,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:29">
       <c r="E54" s="69" t="s">
         <v>167</v>
       </c>
@@ -68555,12 +68519,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:29">
       <c r="D56" s="69" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:29">
       <c r="E57" s="69" t="s">
         <v>218</v>
       </c>
@@ -68568,12 +68532,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:29">
       <c r="E58" s="69" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:29">
       <c r="E59" s="69" t="s">
         <v>170</v>
       </c>
@@ -68581,12 +68545,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:29">
       <c r="D63" s="69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="4:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:29">
       <c r="E64" s="69" t="s">
         <v>171</v>
       </c>
@@ -68594,17 +68558,17 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:33">
       <c r="D67" s="69" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:33">
       <c r="D68" s="69" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:33">
       <c r="E69" s="69" t="s">
         <v>173</v>
       </c>
@@ -68615,7 +68579,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:33">
       <c r="E70" s="69" t="s">
         <v>174</v>
       </c>
@@ -68626,12 +68590,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:33">
       <c r="C72" s="70" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:33">
       <c r="D73" s="69" t="s">
         <v>225</v>
       </c>
@@ -68639,7 +68603,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:33">
       <c r="D74" s="69" t="s">
         <v>226</v>
       </c>
@@ -68647,12 +68611,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:33">
       <c r="C76" s="70" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:33">
       <c r="D77" s="69" t="s">
         <v>228</v>
       </c>
@@ -68660,7 +68624,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:33">
       <c r="D79" s="69" t="s">
         <v>229</v>
       </c>
@@ -68671,7 +68635,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:33">
       <c r="E80" s="69" t="s">
         <v>230</v>
       </c>
@@ -68684,29 +68648,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B5BC19-ED5E-4104-9F44-020141DE0140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:X59"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.36328125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="2.36328125" style="65"/>
+    <col min="3" max="3" width="2.375" style="65"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:13">
       <c r="C2" s="65" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:13">
       <c r="D3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:13">
       <c r="E4" t="s">
         <v>107</v>
       </c>
@@ -68714,45 +68678,45 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13">
       <c r="E5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:13">
       <c r="D7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:13">
       <c r="E8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:13">
       <c r="D10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:13">
       <c r="E11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:13">
       <c r="E12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:13">
       <c r="E13" s="39"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:13">
       <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:13">
       <c r="F15" t="s">
         <v>109</v>
       </c>
@@ -68760,7 +68724,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:13">
       <c r="F16" t="s">
         <v>64</v>
       </c>
@@ -68768,7 +68732,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24">
       <c r="F17" t="s">
         <v>62</v>
       </c>
@@ -68776,7 +68740,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24">
       <c r="F18" t="s">
         <v>61</v>
       </c>
@@ -68784,12 +68748,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:24">
       <c r="C20" s="65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24">
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -68812,7 +68776,7 @@
       <c r="W22" s="31"/>
       <c r="X22" s="32"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24">
       <c r="D23" s="33"/>
       <c r="E23" s="77" t="s">
         <v>269</v>
@@ -68847,7 +68811,7 @@
       <c r="W23" s="35"/>
       <c r="X23" s="34"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24">
       <c r="D24" s="33"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -68870,7 +68834,7 @@
       <c r="W24" s="35"/>
       <c r="X24" s="34"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24">
       <c r="D25" s="33"/>
       <c r="E25" s="35" t="s">
         <v>269</v>
@@ -68895,7 +68859,7 @@
       <c r="W25" s="35"/>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:24">
       <c r="D26" s="33"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -68918,7 +68882,7 @@
       <c r="W26" s="35"/>
       <c r="X26" s="34"/>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24">
       <c r="D27" s="33"/>
       <c r="E27" s="42"/>
       <c r="F27" s="43"/>
@@ -68941,7 +68905,7 @@
       <c r="W27" s="44"/>
       <c r="X27" s="34"/>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24">
       <c r="D28" s="33"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -68964,7 +68928,7 @@
       <c r="W28" s="47"/>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:24">
       <c r="D29" s="33"/>
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
@@ -68987,7 +68951,7 @@
       <c r="W29" s="47"/>
       <c r="X29" s="34"/>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24">
       <c r="D30" s="33"/>
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
@@ -69010,7 +68974,7 @@
       <c r="W30" s="47"/>
       <c r="X30" s="34"/>
     </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:24">
       <c r="D31" s="33"/>
       <c r="E31" s="45"/>
       <c r="F31" s="46"/>
@@ -69033,7 +68997,7 @@
       <c r="W31" s="47"/>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:24">
       <c r="D32" s="33"/>
       <c r="E32" s="45"/>
       <c r="F32" s="46"/>
@@ -69056,7 +69020,7 @@
       <c r="W32" s="47"/>
       <c r="X32" s="34"/>
     </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:24">
       <c r="D33" s="33"/>
       <c r="E33" s="45"/>
       <c r="F33" s="46"/>
@@ -69079,7 +69043,7 @@
       <c r="W33" s="47"/>
       <c r="X33" s="34"/>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:24">
       <c r="D34" s="33"/>
       <c r="E34" s="45"/>
       <c r="F34" s="46"/>
@@ -69102,7 +69066,7 @@
       <c r="W34" s="47"/>
       <c r="X34" s="34"/>
     </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:24">
       <c r="D35" s="33"/>
       <c r="E35" s="48"/>
       <c r="F35" s="49"/>
@@ -69125,11 +69089,11 @@
       <c r="W35" s="50"/>
       <c r="X35" s="34"/>
     </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:24">
       <c r="D36" s="33"/>
       <c r="X36" s="34"/>
     </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:24">
       <c r="D37" s="36"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -69152,67 +69116,67 @@
       <c r="W37" s="37"/>
       <c r="X37" s="38"/>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:24">
       <c r="D39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:24">
       <c r="E40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:24">
       <c r="D42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:24">
       <c r="E43" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:24">
       <c r="E45" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:24">
       <c r="F46" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:24">
       <c r="G47" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:24">
       <c r="F48" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:12">
       <c r="E49" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:12">
       <c r="F50" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:12">
       <c r="F51" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:12">
       <c r="D53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:12">
       <c r="E54" t="s">
         <v>268</v>
       </c>
@@ -69220,7 +69184,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:12">
       <c r="E55" t="s">
         <v>270</v>
       </c>
@@ -69228,7 +69192,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:12">
       <c r="E56" t="s">
         <v>272</v>
       </c>
@@ -69236,7 +69200,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:12">
       <c r="E57" t="s">
         <v>274</v>
       </c>
@@ -69244,7 +69208,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:12">
       <c r="E58" t="s">
         <v>276</v>
       </c>
@@ -69252,7 +69216,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:12">
       <c r="E59" s="35" t="s">
         <v>293</v>
       </c>
@@ -69269,44 +69233,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="C5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="C6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="C7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="C8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="D9" s="73" t="s">
         <v>254</v>
       </c>
@@ -69319,7 +69283,7 @@
       <c r="K9" s="75"/>
       <c r="L9" s="75"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="D10" s="73" t="s">
         <v>255</v>
       </c>
@@ -69334,7 +69298,7 @@
       <c r="K10" s="75"/>
       <c r="L10" s="75"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
@@ -69347,7 +69311,7 @@
       <c r="K11" s="76"/>
       <c r="L11" s="76"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="D12" s="73" t="s">
         <v>257</v>
       </c>
@@ -69360,7 +69324,7 @@
       </c>
       <c r="L12" s="76"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="D13" s="73"/>
       <c r="E13" s="73" t="s">
         <v>256</v>
@@ -69373,7 +69337,7 @@
       <c r="K13" s="76"/>
       <c r="L13" s="76"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
@@ -69384,7 +69348,7 @@
       </c>
       <c r="L14" s="76"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12">
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -69395,7 +69359,7 @@
       <c r="K15" s="75"/>
       <c r="L15" s="75"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12">
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
@@ -69408,7 +69372,7 @@
       <c r="K16" s="75"/>
       <c r="L16" s="75"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
@@ -69419,7 +69383,7 @@
       <c r="K17" s="75"/>
       <c r="L17" s="75"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
@@ -69430,7 +69394,7 @@
       <c r="K18" s="75"/>
       <c r="L18" s="75"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
@@ -69441,7 +69405,7 @@
       <c r="K19" s="75"/>
       <c r="L19" s="75"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="D20" s="73"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
@@ -69450,7 +69414,7 @@
       <c r="K20" s="75"/>
       <c r="L20" s="75"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="D21" s="73"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
@@ -69459,22 +69423,22 @@
       <c r="K21" s="75"/>
       <c r="L21" s="75"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="C25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="C26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12">
       <c r="C27" t="s">
         <v>264</v>
       </c>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="380">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -4148,6 +4148,134 @@
     <rPh sb="53" eb="55">
       <t>ブンキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザーがお気に入り登録しているすべてのディーラの卓を点滅して表示する</t>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・遷移元のディーラの卓を点滅して表示する（お気に入りディーラ特別できるようにする）</t>
+    <rPh sb="1" eb="3">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トクベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインユーザがお気に入り登録している全てのディーラの卓マスを青色で点滅表示する</t>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・遷移元がディーラ情報画面の場合、遷移元のディーラの卓マスを赤色で点滅表示する</t>
+    <rPh sb="1" eb="3">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>テンメツヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>囲い卓の入力値は実際の縦、横に対応させる
+＋２して計算がめんどい
+⇒保留
+　影響範囲が大きいため、実際の設定は以下のようにしたい
+　min:1, min(real):3
+　max:18, min(real):20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4429,7 +4557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4564,7 +4692,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -4619,7 +4746,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6276"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6281"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5317,7 +5444,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13438"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13443"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5527,7 +5654,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s28695"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s28700"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5987,7 +6114,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s27671"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s27676"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7085,7 +7212,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3500"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3515"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7150,7 +7277,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3501"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3516"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7215,7 +7342,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3502"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3517"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7880,7 +8007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:X57"/>
+  <dimension ref="C2:X58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -8361,102 +8488,142 @@
       </c>
     </row>
     <row r="43" spans="4:24">
-      <c r="E43" s="85" t="s">
+      <c r="E43" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
     </row>
     <row r="44" spans="4:24">
-      <c r="E44" s="85"/>
-      <c r="F44" s="85" t="s">
+      <c r="E44" s="84"/>
+      <c r="F44" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
     </row>
     <row r="45" spans="4:24">
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85" t="s">
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="84"/>
     </row>
     <row r="46" spans="4:24">
-      <c r="F46" t="s">
-        <v>291</v>
-      </c>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
     </row>
     <row r="47" spans="4:24">
+      <c r="D47" s="84"/>
       <c r="E47" s="84" t="s">
         <v>284</v>
       </c>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
     </row>
     <row r="48" spans="4:24">
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
       <c r="F48" s="84" t="s">
         <v>285</v>
       </c>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
     </row>
     <row r="49" spans="4:12">
-      <c r="F49" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="4:12">
-      <c r="D51" t="s">
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+    </row>
+    <row r="50" spans="4:12">
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+    </row>
+    <row r="52" spans="4:12">
+      <c r="D52" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="4:12">
-      <c r="E52" t="s">
-        <v>268</v>
-      </c>
-      <c r="L52" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="53" spans="4:12">
       <c r="E53" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="4:12">
       <c r="E54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="4:12">
       <c r="E55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="4:12">
       <c r="E56" t="s">
+        <v>274</v>
+      </c>
+      <c r="L56" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="4:12">
+      <c r="E57" t="s">
         <v>276</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L57" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="4:12">
-      <c r="E57" s="35" t="s">
+    <row r="58" spans="4:12">
+      <c r="E58" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L58" t="s">
         <v>335</v>
       </c>
     </row>
@@ -67021,11 +67188,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:X54"/>
+  <dimension ref="C2:X57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5"/>
   <sheetData>
@@ -67448,204 +67613,247 @@
       </c>
     </row>
     <row r="28" spans="3:24">
-      <c r="E28" s="85" t="s">
+      <c r="E28" s="84" t="s">
         <v>320</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="84" t="s">
         <v>321</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="E31" s="85" t="s">
+      <c r="E31" s="84" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
+      <c r="E32" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
     </row>
     <row r="33" spans="4:15">
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="84" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+    </row>
+    <row r="34" spans="4:15">
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+    </row>
+    <row r="35" spans="4:15">
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+    </row>
+    <row r="36" spans="4:15">
+      <c r="E36" s="84" t="s">
         <v>319</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-    </row>
-    <row r="34" spans="4:15">
-      <c r="E34" s="85" t="s">
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+    </row>
+    <row r="37" spans="4:15">
+      <c r="E37" s="84" t="s">
         <v>337</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-    </row>
-    <row r="35" spans="4:15">
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-    </row>
-    <row r="36" spans="4:15">
-      <c r="E36" s="85" t="s">
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+    </row>
+    <row r="38" spans="4:15">
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+    </row>
+    <row r="39" spans="4:15">
+      <c r="E39" s="84" t="s">
         <v>336</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-    </row>
-    <row r="37" spans="4:15">
-      <c r="F37" t="s">
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+    </row>
+    <row r="40" spans="4:15">
+      <c r="F40" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="4:15">
-      <c r="E39" t="s">
+    <row r="42" spans="4:15">
+      <c r="E42" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="4:15">
-      <c r="E40" s="85" t="s">
+    <row r="43" spans="4:15">
+      <c r="E43" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="F40" s="85"/>
-    </row>
-    <row r="41" spans="4:15">
-      <c r="F41" t="s">
+      <c r="F43" s="84"/>
+    </row>
+    <row r="44" spans="4:15">
+      <c r="F44" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="43" spans="4:15">
-      <c r="D43" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="44" spans="4:15">
-      <c r="E44" s="80" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="46" spans="4:15">
       <c r="D46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15">
+      <c r="E47" s="80" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="D49" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="4:15">
-      <c r="E47" t="s">
+    <row r="50" spans="4:7">
+      <c r="E50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="5:7">
-      <c r="E49" t="s">
+    <row r="52" spans="4:7">
+      <c r="E52" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="5:7">
-      <c r="F50" t="s">
+    <row r="53" spans="4:7">
+      <c r="F53" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="5:7">
-      <c r="E52" t="s">
+    <row r="55" spans="4:7">
+      <c r="E55" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="53" spans="5:7">
-      <c r="G53" t="s">
+    <row r="56" spans="4:7">
+      <c r="G56" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="5:7">
-      <c r="G54" t="s">
+    <row r="57" spans="4:7">
+      <c r="G57" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E44" location="favディーラJSON仕様!A1" display="favディーラJSON仕様!A1"/>
+    <hyperlink ref="E47" location="favディーラJSON仕様!A1" display="favディーラJSON仕様!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -67658,7 +67866,7 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -67837,7 +68045,7 @@
   <dimension ref="B3:G23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -67887,7 +68095,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B19" si="0">ROW()-3</f>
+        <f t="shared" ref="B5:B20" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -68138,11 +68346,20 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
+    <row r="20" spans="2:7" ht="81">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>

--- a/02.製造/地図HTML.xlsx
+++ b/02.製造/地図HTML.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="地図_外部設計" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="377">
   <si>
     <t>角マスは背景色と同色にして見えなくする</t>
     <rPh sb="0" eb="1">
@@ -4063,68 +4063,6 @@
     <t>0930時点のもの</t>
     <rPh sb="4" eb="6">
       <t>ジテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・usr_detail_fav_productsテーブルから取得したものを
-　ユーザーIDとお気に入りディーラが１対１の情報が取得できるようにする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">現状のテーブル定義だと取得しづらいので、テーブル定義から見直す
-無理なら以下のような感じ？
-・Logicクラスで整形する
-・SQLで取得、自動生成対象外
-</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ミナオ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ムリ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>セイケイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4738,7 +4676,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4746,7 +4684,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6281"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s6287"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4801,7 +4739,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4871,7 +4809,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4946,7 +4884,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5019,7 +4957,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5085,7 +5023,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5143,7 +5081,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5228,7 +5166,7 @@
         <xdr:cNvPr id="6" name="右矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5286,7 +5224,7 @@
         <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5371,7 +5309,7 @@
         <xdr:cNvPr id="8" name="右矢印 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5436,7 +5374,7 @@
             <xdr:cNvPr id="8" name="図 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0DDAEA79-C544-4376-8391-1C0CC7690CE9}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DDAEA79-C544-4376-8391-1C0CC7690CE9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5444,7 +5382,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13443"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s13449"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5499,7 +5437,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{411B6A99-01AE-428E-9E7B-A4E6BFDC9118}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411B6A99-01AE-428E-9E7B-A4E6BFDC9118}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5569,7 +5507,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F8E095-3EC6-473B-91DF-E3CEA2E883BE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F8E095-3EC6-473B-91DF-E3CEA2E883BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5646,7 +5584,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDB0F373-49AF-46A5-B8E1-E6BA010AC2DF}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB0F373-49AF-46A5-B8E1-E6BA010AC2DF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5654,7 +5592,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s28700"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s28706"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5709,7 +5647,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4427D87-23E0-489B-9950-ABAB64E7768D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4427D87-23E0-489B-9950-ABAB64E7768D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5779,7 +5717,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76EC0E5B-D8AC-4AC0-A55C-66DD8D341ED8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EC0E5B-D8AC-4AC0-A55C-66DD8D341ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5849,7 +5787,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E811FC-06CA-43ED-9629-D2FBDC88A4BE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E811FC-06CA-43ED-9629-D2FBDC88A4BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5915,7 +5853,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5977,7 +5915,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6039,7 +5977,7 @@
         <xdr:cNvPr id="4" name="右矢印 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6106,7 +6044,7 @@
             <xdr:cNvPr id="2" name="図 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5EA9D171-97CC-4A44-9D92-4A29E0F718B4}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA9D171-97CC-4A44-9D92-4A29E0F718B4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6114,7 +6052,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s27676"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$27:$J$31" spid="_x0000_s27682"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6169,7 +6107,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8890A232-FA7E-4C88-A8B8-12863978B48B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8890A232-FA7E-4C88-A8B8-12863978B48B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6239,7 +6177,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67C131B8-82C0-4975-85D0-F3C4FD814A4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C131B8-82C0-4975-85D0-F3C4FD814A4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6309,7 +6247,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{84A60056-E582-4CB2-B904-8A7F80EFA27F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A60056-E582-4CB2-B904-8A7F80EFA27F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6375,7 +6313,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6454,7 +6392,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6520,7 +6458,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6586,7 +6524,7 @@
         <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6670,7 +6608,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6749,7 +6687,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6815,7 +6753,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6881,7 +6819,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6960,7 +6898,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7039,7 +6977,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E20FA15-19D7-49D9-B7C5-45CB98DB88E3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E20FA15-19D7-49D9-B7C5-45CB98DB88E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7118,7 +7056,7 @@
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C5A21EE-AEBE-422D-941D-D5DF864BC633}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5A21EE-AEBE-422D-941D-D5DF864BC633}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7204,7 +7142,7 @@
             <xdr:cNvPr id="3" name="図 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7212,7 +7150,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3515"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3533"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7269,7 +7207,7 @@
             <xdr:cNvPr id="4" name="図 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7277,7 +7215,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3516"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3534"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7334,7 +7272,7 @@
             <xdr:cNvPr id="5" name="図 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7342,13 +7280,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3517"/>
+                  <a14:cameraTool cellRange="作り方＿イメージ１!$D$2:$I$24" spid="_x0000_s3535"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -7397,7 +7335,7 @@
         <xdr:cNvPr id="2" name="下矢印 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7457,7 +7395,7 @@
         <xdr:cNvPr id="6" name="下矢印 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7517,7 +7455,7 @@
         <xdr:cNvPr id="7" name="下矢印 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7582,7 +7520,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7666,7 +7604,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8009,7 +7947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:X58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5"/>
   <cols>
@@ -8518,7 +8456,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="84"/>
       <c r="F46" s="84" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G46" s="84"/>
       <c r="H46" s="84"/>
@@ -8554,7 +8492,7 @@
       <c r="D49" s="84"/>
       <c r="E49" s="84"/>
       <c r="F49" s="84" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G49" s="84"/>
       <c r="H49" s="84"/>
@@ -8566,7 +8504,7 @@
       <c r="D50" s="84"/>
       <c r="E50" s="84"/>
       <c r="F50" s="84" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G50" s="84"/>
       <c r="H50" s="84"/>
@@ -67672,7 +67610,7 @@
     </row>
     <row r="32" spans="3:24">
       <c r="E32" s="84" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F32" s="84"/>
       <c r="G32" s="84"/>
@@ -67687,7 +67625,7 @@
     </row>
     <row r="33" spans="4:15">
       <c r="E33" s="84" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F33" s="84"/>
       <c r="G33" s="84"/>
@@ -67786,7 +67724,7 @@
     </row>
     <row r="40" spans="4:15">
       <c r="F40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="4:15">
@@ -68042,10 +67980,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G23"/>
+  <dimension ref="B3:G21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -68095,7 +68033,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B20" si="0">ROW()-3</f>
+        <f t="shared" ref="B5:B18" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -68270,13 +68208,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" ht="15.75" customHeight="1">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -68288,78 +68232,58 @@
         <v>210</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="40.5">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" ht="40.5">
+    <row r="18" spans="2:7" ht="81">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="81">
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>372</v>
-      </c>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="81">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>379</v>
-      </c>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
@@ -68371,25 +68295,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
